--- a/QALD9-Plus-testing/baseline-model/baseline-dbpedia-wikidata/baseline_lama_dbpedia_wikidata_results_comparison.xlsx
+++ b/QALD9-Plus-testing/baseline-model/baseline-dbpedia-wikidata/baseline_lama_dbpedia_wikidata_results_comparison.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Assassination_of_Wissam_al-Hassan']</t>
+          <t>['http://www.wikidata.org/entity/Q12152']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['10100166']</t>
+          <t>['9606916']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
+          <t>['http://www.wikidata.org/entity/Q100331972', 'http://www.wikidata.org/entity/Q100394144', 'http://www.wikidata.org/entity/Q101218635', 'http://www.wikidata.org/entity/Q102256598', 'http://www.wikidata.org/entity/Q102390777', 'http://www.wikidata.org/entity/Q104483225', 'http://www.wikidata.org/entity/Q10533007', 'http://www.wikidata.org/entity/Q105389038', 'http://www.wikidata.org/entity/Q106157237', 'http://www.wikidata.org/entity/Q106243894', 'http://www.wikidata.org/entity/Q106363582', 'http://www.wikidata.org/entity/Q106798081', 'http://www.wikidata.org/entity/Q107310844', 'http://www.wikidata.org/entity/Q107344844', 'http://www.wikidata.org/entity/Q107369220', 'http://www.wikidata.org/entity/Q107750113', 'http://www.wikidata.org/entity/Q108108930', 'http://www.wikidata.org/entity/Q108142616', 'http://www.wikidata.org/entity/Q108143520', 'http://www.wikidata.org/entity/Q108305316', 'http://www.wikidata.org/entity/Q108419496', 'http://www.wikidata.org/entity/Q108420335', 'http://www.wikidata.org/entity/Q108528226', 'http://www.wikidata.org/entity/Q108801572', 'http://www.wikidata.org/entity/Q110024583', 'http://www.wikidata.org/entity/Q110257591', 'http://www.wikidata.org/entity/Q110438288', 'http://www.wikidata.org/entity/Q11102047', 'http://www.wikidata.org/entity/Q111279614', 'http://www.wikidata.org/entity/Q111378638', 'http://www.wikidata.org/entity/Q1115126', 'http://www.wikidata.org/entity/Q112460780', 'http://www.wikidata.org/entity/Q113045473', 'http://www.wikidata.org/entity/Q113074033', 'http://www.wikidata.org/entity/Q113184346', 'http://www.wikidata.org/entity/Q113232042', 'http://www.wikidata.org/entity/Q113737899', 'http://www.wikidata.org/entity/Q113749117', 'http://www.wikidata.org/entity/Q113772754', 'http://www.wikidata.org/entity/Q113807740', 'http://www.wikidata.org/entity/Q113834191', 'http://www.wikidata.org/entity/Q113843326', 'http://www.wikidata.org/entity/Q114089100', 'http://www.wikidata.org/entity/Q114235854', 'http://www.wikidata.org/entity/Q114616578', 'http://www.wikidata.org/entity/Q1147661', 'http://www.wikidata.org/entity/Q115110628', 'http://www.wikidata.org/entity/Q115180838', 'http://www.wikidata.org/entity/Q115864917', 'http://www.wikidata.org/entity/Q116759188', 'http://www.wikidata.org/entity/Q116765917', 'http://www.wikidata.org/entity/Q117198007', 'http://www.wikidata.org/entity/Q118487290', 'http://www.wikidata.org/entity/Q118762757', 'http://www.wikidata.org/entity/Q11931920', 'http://www.wikidata.org/entity/Q120961856', 'http://www.wikidata.org/entity/Q121300453', 'http://www.wikidata.org/entity/Q121378646', 'http://www.wikidata.org/entity/Q122228916', 'http://www.wikidata.org/entity/Q123117223', 'http://www.wikidata.org/entity/Q123183318', 'http://www.wikidata.org/entity/Q123189154', 'http://www.wikidata.org/entity/Q123196316', 'http://www.wikidata.org/entity/Q123247882', 'http://www.wikidata.org/entity/Q123281296', 'http://www.wikidata.org/entity/Q123282585', 'http://www.wikidata.org/entity/Q123403159', 'http://www.wikidata.org/entity/Q125352819', 'http://www.wikidata.org/entity/Q126363974', 'http://www.wikidata.org/entity/Q128183151', 'http://www.wikidata.org/entity/Q128693220', 'http://www.wikidata.org/entity/Q12873118', 'http://www.wikidata.org/entity/Q12873662', 'http://www.wikidata.org/entity/Q12873744', 'http://www.wikidata.org/entity/Q12874350', 'http://www.wikidata.org/entity/Q12875108', 'http://www.wikidata.org/entity/Q12875311', 'http://www.wikidata.org/entity/Q12875336', 'http://www.wikidata.org/entity/Q12878284', 'http://www.wikidata.org/entity/Q12878447', 'http://www.wikidata.org/entity/Q12880672', 'http://www.wikidata.org/entity/Q12880675', 'http://www.wikidata.org/entity/Q12880677', 'http://www.wikidata.org/entity/Q12881079', 'http://www.wikidata.org/entity/Q12885766', 'http://www.wikidata.org/entity/Q130305674', 'http://www.wikidata.org/entity/Q130632515', 'http://www.wikidata.org/entity/Q130632553', 'http://www.wikidata.org/entity/Q130718161', 'http://www.wikidata.org/entity/Q1329371', 'http://www.wikidata.org/entity/Q13411107', 'http://www.wikidata.org/entity/Q1349114', 'http://www.wikidata.org/entity/Q14153584', 'http://www.wikidata.org/entity/Q14229034', 'http://www.wikidata.org/entity/Q1439570', 'http://www.wikidata.org/entity/Q14500317', 'http://www.wikidata.org/entity/Q14625005', 'http://www.wikidata.org/entity/Q15002185', 'http://www.wikidata.org/entity/Q1509428', 'http://www.wikidata.org/entity/Q15274548', 'http://www.wikidata.org/entity/Q15433778', 'http://www.wikidata.org/entity/Q15651684', 'http://www.wikidata.org/entity/Q15707552', 'http://www.wikidata.org/entity/Q1581009', 'http://www.wikidata.org/entity/Q15983065', 'http://www.wikidata.org/entity/Q15994196', 'http://www.wikidata.org/entity/Q1601376', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q16199868', 'http://www.wikidata.org/entity/Q16235535', 'http://www.wikidata.org/entity/Q16327244', 'http://www.wikidata.org/entity/Q16327733', 'http://www.wikidata.org/entity/Q16328616', 'http://www.wikidata.org/entity/Q16328851', 'http://www.wikidata.org/entity/Q16328867', 'http://www.wikidata.org/entity/Q16329078', 'http://www.wikidata.org/entity/Q16329346', 'http://www.wikidata.org/entity/Q16330120', 'http://www.wikidata.org/entity/Q16330682', 'http://www.wikidata.org/entity/Q16331916', 'http://www.wikidata.org/entity/Q16332287', 'http://www.wikidata.org/entity/Q16332578', 'http://www.wikidata.org/entity/Q16332651', 'http://www.wikidata.org/entity/Q16512450', 'http://www.wikidata.org/entity/Q16512492', 'http://www.wikidata.org/entity/Q165319', 'http://www.wikidata.org/entity/Q16644246', 'http://www.wikidata.org/entity/Q16711496', 'http://www.wikidata.org/entity/Q16711498', 'http://www.wikidata.org/entity/Q16853551', 'http://www.wikidata.org/entity/Q16874283', 'http://www.wikidata.org/entity/Q16937833', 'http://www.wikidata.org/entity/Q17000036', 'http://www.wikidata.org/entity/Q17315716', 'http://www.wikidata.org/entity/Q17350265', 'http://www.wikidata.org/entity/Q17420765', 'http://www.wikidata.org/entity/Q17420770', 'http://www.wikidata.org/entity/Q1755825', 'http://www.wikidata.org/entity/Q18234229', 'http://www.wikidata.org/entity/Q18335504', 'http://www.wikidata.org/entity/Q18340746', 'http://www.wikidata.org/entity/Q18340750', 'http://www.wikidata.org/entity/Q18392960', 'http://www.wikidata.org/entity/Q18397296', 'http://www.wikidata.org/entity/Q18599700', 'http://www.wikidata.org/entity/Q18599759', 'http://www.wikidata.org/entity/Q1917293', 'http://www.wikidata.org/entity/Q19612083', 'http://www.wikidata.org/entity/Q19672743', 'http://www.wikidata.org/entity/Q19758235', 'http://www.wikidata.org/entity/Q19862442', 'http://www.wikidata.org/entity/Q1987990', 'http://www.wikidata.org/entity/Q19886218', 'http://www.wikidata.org/entity/Q1991236', 'http://www.wikidata.org/entity/Q19939295', 'http://www.wikidata.org/entity/Q19941936', 'http://www.wikidata.org/entity/Q19953561', 'http://www.wikidata.org/entity/Q20011734', 'http://www.wikidata.org/entity/Q20090771', 'http://www.wikidata.org/entity/Q202404', 'http://www.wikidata.org/entity/Q20641089', 'http://www.wikidata.org/entity/Q20648370', 'http://www.wikidata.org/entity/Q20745244', 'http://www.wikidata.org/entity/Q2078267', 'http://www.wikidata.org/entity/Q20897762', 'http://www.wikidata.org/entity/Q20986533', 'http://www.wikidata.org/entity/Q21027277', 'http://www.wikidata.org/entity/Q21031023', 'http://www.wikidata.org/entity/Q21066359', 'http://www.wikidata.org/entity/Q21067158', 'http://www.wikidata.org/entity/Q21114808', 'http://www.wikidata.org/entity/Q21207862', 'http://www.wikidata.org/entity/Q21295004', 'http://www.wikidata.org/entity/Q214622', 'http://www.wikidata.org/entity/Q21620727', 'http://www.wikidata.org/entity/Q21620925', 'http://www.wikidata.org/entity/Q21621189', 'http://www.wikidata.org/entity/Q21996798', 'http://www.wikidata.org/entity/Q2261557', 'http://www.wikidata.org/entity/Q22812105', 'http://www.wikidata.org/entity/Q22958899', 'http://www.wikidata.org/entity/Q23001049', 'http://www.wikidata.org/entity/Q2359693', 'http://www.wikidata.org/entity/Q23677559', 'http://www.wikidata.org/entity/Q23726787', 'http://www.wikidata.org/entity/Q23928168', 'http://www.wikidata.org/entity/Q23928180', 'http://www.wikidata.org/entity/Q24006617', 'http://www.wikidata.org/entity/Q24045397', 'http://www.wikidata.org/entity/Q2460964', 'http://www.wikidata.org/entity/Q25909395', 'http://www.wikidata.org/entity/Q2615465', 'http://www.wikidata.org/entity/Q26703027', 'http://www.wikidata.org/entity/Q26829002', 'http://www.wikidata.org/entity/Q27975949', 'http://www.wikidata.org/entity/Q28106080', 'http://www.wikidata.org/entity/Q28745301', 'http://www.wikidata.org/entity/Q289307', 'http://www.wikidata.org/entity/Q2912337', 'http://www.wikidata.org/entity/Q29346418', 'http://www.wikidata.org/entity/Q301', 'http://www.wikidata.org/entity/Q3057494', 'http://www.wikidata.org/entity/Q30887619', 'http://www.wikidata.org/entity/Q310712', 'http://www.wikidata.org/entity/Q3136115', 'http://www.wikidata.org/entity/Q3229712', 'http://www.wikidata.org/entity/Q3296541', 'http://www.wikidata.org/entity/Q330232', 'http://www.wikidata.org/entity/Q330897', 'http://www.wikidata.org/entity/Q3314731', 'http://www.wikidata.org/entity/Q3341850', 'http://www.wikidata.org/entity/Q343292', 'http://www.wikidata.org/entity/Q353059', 'http://www.wikidata.org/entity/Q3556566', 'http://www.wikidata.org/entity/Q3558422', 'http://www.wikidata.org/entity/Q3562201', 'http://www.wikidata.org/entity/Q3564132', 'http://www.wikidata.org/entity/Q3565521', 'http://www.wikidata.org/entity/Q3566247', 'http://www.wikidata.org/entity/Q368044', 'http://www.wikidata.org/entity/Q3699388', 'http://www.wikidata.org/entity/Q3731188', 'http://www.wikidata.org/entity/Q3776568', 'http://www.wikidata.org/entity/Q38127864', 'http://www.wikidata.org/entity/Q382090', 'http://www.wikidata.org/entity/Q3839783', 'http://www.wikidata.org/entity/Q3876538', 'http://www.wikidata.org/entity/Q3935791', 'http://www.wikidata.org/entity/Q40203914', 'http://www.wikidata.org/entity/Q4065802', 'http://www.wikidata.org/entity/Q4104376', 'http://www.wikidata.org/entity/Q41660974', 'http://www.wikidata.org/entity/Q4172824', 'http://www.wikidata.org/entity/Q4172835', 'http://www.wikidata.org/entity/Q4308314', 'http://www.wikidata.org/entity/Q438440', 'http://www.wikidata.org/entity/Q440558', 'http://www.wikidata.org/entity/Q463405', 'http://www.wikidata.org/entity/Q4675877', 'http://www.wikidata.org/entity/Q4751927', 'http://www.wikidata.org/entity/Q4762991', 'http://www.wikidata.org/entity/Q4763003', 'http://www.wikidata.org/entity/Q4789952', 'http://www.wikidata.org/entity/Q4796489', 'http://www.wikidata.org/entity/Q48232422', 'http://www.wikidata.org/entity/Q48976256', 'http://www.wikidata.org/entity/Q5113522', 'http://www.wikidata.org/entity/Q52498604', 'http://www.wikidata.org/entity/Q52573880', 'http://www.wikidata.org/entity/Q5277663', 'http://www.wikidata.org/entity/Q535221', 'http://www.wikidata.org/entity/Q537976', 'http://www.wikidata.org/entity/Q53864990', 'http://www.wikidata.org/entity/Q541682', 'http://www.wikidata.org/entity/Q54803547', 'http://www.wikidata.org/entity/Q55078491', 'http://www.wikidata.org/entity/Q55351080', 'http://www.wikidata.org/entity/Q5546866', 'http://www.wikidata.org/entity/Q5548437', 'http://www.wikidata.org/entity/Q56021315', 'http://www.wikidata.org/entity/Q56628168', 'http://www.wikidata.org/entity/Q56852961', 'http://www.wikidata.org/entity/Q5802175', 'http://www.wikidata.org/entity/Q58198309', 'http://www.wikidata.org/entity/Q58503135', 'http://www.wikidata.org/entity/Q58755716', 'http://www.wikidata.org/entity/Q59512002', 'http://www.wikidata.org/entity/Q59614661', 'http://www.wikidata.org/entity/Q6001459', 'http://www.wikidata.org/entity/Q60286852', 'http://www.wikidata.org/entity/Q6038194', 'http://www.wikidata.org/entity/Q6038808', 'http://www.wikidata.org/entity/Q60582822', 'http://www.wikidata.org/entity/Q60583087', 'http://www.wikidata.org/entity/Q60677632', 'http://www.wikidata.org/entity/Q6081551', 'http://www.wikidata.org/entity/Q6084720', 'http://www.wikidata.org/entity/Q6155960', 'http://www.wikidata.org/entity/Q62591624', 'http://www.wikidata.org/entity/Q62603850', 'http://www.wikidata.org/entity/Q63254170', 'http://www.wikidata.org/entity/Q63982897', 'http://www.wikidata.org/entity/Q64615787', 'http://www.wikidata.org/entity/Q6467637', 'http://www.wikidata.org/entity/Q6517023', 'http://www.wikidata.org/entity/Q65273468', 'http://www.wikidata.org/entity/Q657600', 'http://www.wikidata.org/entity/Q65926208', 'http://www.wikidata.org/entity/Q65961421', 'http://www.wikidata.org/entity/Q6751216', 'http://www.wikidata.org/entity/Q6751217', 'http://www.wikidata.org/entity/Q6751225', 'http://www.wikidata.org/entity/Q6761479', 'http://www.wikidata.org/entity/Q6761597', 'http://www.wikidata.org/entity/Q6795819', 'http://www.wikidata.org/entity/Q6835691', 'http://www.wikidata.org/entity/Q6863224', 'http://www.wikidata.org/entity/Q68867937', 'http://www.wikidata.org/entity/Q704707', 'http://www.wikidata.org/entity/Q7067631', 'http://www.wikidata.org/entity/Q70843750', 'http://www.wikidata.org/entity/Q71013124', 'http://www.wikidata.org/entity/Q718276', 'http://www.wikidata.org/entity/Q719110', 'http://www.wikidata.org/entity/Q7312347', 'http://www.wikidata.org/entity/Q7363221', 'http://www.wikidata.org/entity/Q748140', 'http://www.wikidata.org/entity/Q767151', 'http://www.wikidata.org/entity/Q77038923', 'http://www.wikidata.org/entity/Q7781871', 'http://www.wikidata.org/entity/Q77846610', 'http://www.wikidata.org/entity/Q7925550', 'http://www.wikidata.org/entity/Q81217357', 'http://www.wikidata.org/entity/Q81678162', 'http://www.wikidata.org/entity/Q821985', 'http://www.wikidata.org/entity/Q82291289', 'http://www.wikidata.org/entity/Q84048201', 'http://www.wikidata.org/entity/Q87652519', 'http://www.wikidata.org/entity/Q88314564', 'http://www.wikidata.org/entity/Q88360684', 'http://www.wikidata.org/entity/Q88361390', 'http://www.wikidata.org/entity/Q88380768', 'http://www.wikidata.org/entity/Q88383715', 'http://www.wikidata.org/entity/Q88488624', 'http://www.wikidata.org/entity/Q88657263', 'http://www.wikidata.org/entity/Q88710225', 'http://www.wikidata.org/entity/Q88710463', 'http://www.wikidata.org/entity/Q88796507', 'http://www.wikidata.org/entity/Q89259891', 'http://www.wikidata.org/entity/Q90157181', 'http://www.wikidata.org/entity/Q9033451', 'http://www.wikidata.org/entity/Q91442809', 'http://www.wikidata.org/entity/Q92781', 'http://www.wikidata.org/entity/Q93233224', 'http://www.wikidata.org/entity/Q9340768', 'http://www.wikidata.org/entity/Q93737213', 'http://www.wikidata.org/entity/Q93785423', 'http://www.wikidata.org/entity/Q94329', 'http://www.wikidata.org/entity/Q95203707', 'http://www.wikidata.org/entity/Q95309443', 'http://www.wikidata.org/entity/Q95329588', 'http://www.wikidata.org/entity/Q95349620', 'http://www.wikidata.org/entity/Q96176197', 'http://www.wikidata.org/entity/Q96395743', 'http://www.wikidata.org/entity/Q969675', 'http://www.wikidata.org/entity/Q97486765', 'http://www.wikidata.org/entity/Q98216546', 'http://www.wikidata.org/entity/Q98792917', 'http://www.wikidata.org/entity/Q98831182', 'http://www.wikidata.org/entity/Q98836152', 'http://www.wikidata.org/entity/Q99167687']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/140th_Anniversary_Celebration_of_the_Emancipation_Proclamation', 'http://dbpedia.org/resource/19_Kislev', "http://dbpedia.org/resource/21_July_Martyr's_Day_Rally", 'http://dbpedia.org/resource/3_May_Constitution_Day', 'http://dbpedia.org/resource/420_(cannabis_culture)', 'http://dbpedia.org/resource/75th_Anniversary_of_Indian_Independence', 'http://dbpedia.org/resource/Aadi_Perukku', 'http://dbpedia.org/resource/Abaca_Festival', 'http://dbpedia.org/resource/Aberri_Eguna', 'http://dbpedia.org/resource/Absentee_funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Accession_Day_(Jammu_and_Kashmir)', 'http://dbpedia.org/resource/Adae_Festival', 'http://dbpedia.org/resource/Advent_Sunday', 'http://dbpedia.org/resource/Advent', 'http://dbpedia.org/resource/Adwa_Victory_Day', 'http://dbpedia.org/resource/Afghan_Independence_Day', 'http://dbpedia.org/resource/Africa_Day', 'http://dbpedia.org/resource/Afro-Colombian_Day', 'http://dbpedia.org/resource/Agawan_Festival', 'http://dbpedia.org/resource/Agonalia', 'http://dbpedia.org/resource/Agrasen_Jayanti', 'http://dbpedia.org/resource/Ahoi_Ashtami', 'http://dbpedia.org/resource/Air_Force_Day_(Pakistan)', 'http://dbpedia.org/resource/Airborne_March', 'http://dbpedia.org/resource/Akita_Kantō', 'http://dbpedia.org/resource/Akitu', 'http://dbpedia.org/resource/Akshaya_Tritiya', 'http://dbpedia.org/resource/Akwasidae_Festival', 'http://dbpedia.org/resource/Alabama_Day', "http://dbpedia.org/resource/Åland's_Autonomy_Day", 'http://dbpedia.org/resource/Alaska_Day', 'http://dbpedia.org/resource/Aldersgate_Day', 'http://dbpedia.org/resource/Alexandra_Rose_Day', "http://dbpedia.org/resource/All_Saints'_Day", "http://dbpedia.org/resource/All_Souls'_Day", 'http://dbpedia.org/resource/Allantide', 'http://dbpedia.org/resource/Allhallowtide', 'http://dbpedia.org/resource/Amalaka_Ekadashi', 'http://dbpedia.org/resource/Ambedkar_Jayanti', 'http://dbpedia.org/resource/Ambubachi_Mela', 'http://dbpedia.org/resource/Amburbium', 'http://dbpedia.org/resource/America_Recycles_Day', "http://dbpedia.org/resource/American_Business_Women's_Day", 'http://dbpedia.org/resource/American_Family_Day', 'http://dbpedia.org/resource/American_Heart_Month', 'http://dbpedia.org/resource/An_Act_for_the_Admission_of_the_State_of_California', 'http://dbpedia.org/resource/Anant_Chaturdashi', 'http://dbpedia.org/resource/Angam_Day', 'http://dbpedia.org/resource/Angarki_Sankashti_Chaturthi', 'http://dbpedia.org/resource/Anishinaabe_Giizhigad', 'http://dbpedia.org/resource/Anniversary_of_the_Unification_of_Italy', 'http://dbpedia.org/resource/Antarctica_Day', 'http://dbpedia.org/resource/Anti-Bullying_Day', 'http://dbpedia.org/resource/Anti-Fascist_Struggle_Day', 'http://dbpedia.org/resource/Anzac_Day', 'http://dbpedia.org/resource/Apple_Feast_of_the_Saviour', "http://dbpedia.org/resource/April_Fools'_Day", 'http://dbpedia.org/resource/Arattupuzha_Pooram', 'http://dbpedia.org/resource/Aravan_Festival_in_Coimbatore', "http://dbpedia.org/resource/Arba'een", 'http://dbpedia.org/resource/Arbor_Day', 'http://dbpedia.org/resource/Armed_Forces_Day_(Bangladesh)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Poland)', 'http://dbpedia.org/resource/Armed_Forces_Day_(South_Korea)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Tajikistan)', 'http://dbpedia.org/resource/Armed_Forces_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Armenian_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Armilustrium', 'http://dbpedia.org/resource/Armistice_Day', 'http://dbpedia.org/resource/Army_Day_(Armenia)', 'http://dbpedia.org/resource/Aromanian_National_Day', 'http://dbpedia.org/resource/Artsakh_Revival_Day', 'http://dbpedia.org/resource/Asalha_Puja', 'http://dbpedia.org/resource/Ash_Wednesday', 'http://dbpedia.org/resource/Ashadhi_Puja', 'http://dbpedia.org/resource/Ashanti_Yam_Festival', 'http://dbpedia.org/resource/Ashenda', 'http://dbpedia.org/resource/Ashtimki', 'http://dbpedia.org/resource/Ashura', 'http://dbpedia.org/resource/Asian_American_and_Pacific_Islander_Heritage_Month', 'http://dbpedia.org/resource/Ask_a_Stupid_Question_Day', 'http://dbpedia.org/resource/Asr_prayer', 'http://dbpedia.org/resource/Assumption_of_Mary', 'http://dbpedia.org/resource/Astan_Bandar', 'http://dbpedia.org/resource/Asteroid_Day', 'http://dbpedia.org/resource/Astronauts_Day', 'http://dbpedia.org/resource/Ati-Atihan_festival', 'http://dbpedia.org/resource/Atla_Tadde', 'http://dbpedia.org/resource/Attukal_Pongala', 'http://dbpedia.org/resource/Auckland_Anniversary_Day', 'http://dbpedia.org/resource/August_Holiday', 'http://dbpedia.org/resource/Australia_Day', 'http://dbpedia.org/resource/Australian_Citizenship_Day', 'http://dbpedia.org/resource/Autism_Sunday', 'http://dbpedia.org/resource/Autumnal_Equinox_Day', 'http://dbpedia.org/resource/Awukudae_Festival', 'http://dbpedia.org/resource/Ayudha_Puja', 'http://dbpedia.org/resource/Ayurveda_Day', 'http://dbpedia.org/resource/Azad_Kashmir_Day', 'http://dbpedia.org/resource/Azores_Day', 'http://dbpedia.org/resource/Baba_Marta_Day', 'http://dbpedia.org/resource/Babinden', 'http://dbpedia.org/resource/Baci', 'http://dbpedia.org/resource/Bali_Jatra', 'http://dbpedia.org/resource/Balipratipada', 'http://dbpedia.org/resource/Ballarat_Show', 'http://dbpedia.org/resource/Baltic_Freedom_Day', 'http://dbpedia.org/resource/Baltic_Unity_Day', 'http://dbpedia.org/resource/Bandi_Chhor_Divas', 'http://dbpedia.org/resource/Bandna', 'http://dbpedia.org/resource/Banned_Books_Week', 'http://dbpedia.org/resource/Barack_Obama_Day', 'http://dbpedia.org/resource/Basant_(festival)', 'http://dbpedia.org/resource/Bastille_Day_military_parade', 'http://dbpedia.org/resource/Bastille_Day', 'http://dbpedia.org/resource/Batakari_Day', 'http://dbpedia.org/resource/Bathukamma', 'http://dbpedia.org/resource/Batik_Day', 'http://dbpedia.org/resource/Battle_of_Saragarhi__Day__1', 'http://dbpedia.org/resource/Bauernfest', 'http://dbpedia.org/resource/Belgian_National_Day', 'http://dbpedia.org/resource/Beltane', 'http://dbpedia.org/resource/Ben-Gurion_Day', 'http://dbpedia.org/resource/Beñesmen', 'http://dbpedia.org/resource/Bengali_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Bennington_Battle_Day', 'http://dbpedia.org/resource/Berchtoldstag', 'http://dbpedia.org/resource/Bhai_Dooj', 'http://dbpedia.org/resource/Bhairava_Ashtami', 'http://dbpedia.org/resource/Bhimana_Amavasya', 'http://dbpedia.org/resource/Bhogi', 'http://dbpedia.org/resource/Bhumchu', 'http://dbpedia.org/resource/Bhume_Naach', 'http://dbpedia.org/resource/Bibi-Ka-Alam', 'http://dbpedia.org/resource/Bihar_Day', 'http://dbpedia.org/resource/Bihu', 'http://dbpedia.org/resource/Binirayan_festival', 'http://dbpedia.org/resource/Birkat_Hachama', "http://dbpedia.org/resource/Birth_of_Baháʼu'lláh", 'http://dbpedia.org/resource/Bisexual_Awareness_Week', 'http://dbpedia.org/resource/Bisu_Parba', 'http://dbpedia.org/resource/Bizhu', 'http://dbpedia.org/resource/Black_Day_(South_Korea)', 'http://dbpedia.org/resource/Black_Friday_(partying)', 'http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Black_History_Month', 'http://dbpedia.org/resource/Black_Ribbon_Day', 'http://dbpedia.org/resource/Blackout_Wednesday', "http://dbpedia.org/resource/Blacks_and_Whites'_Carnival", 'http://dbpedia.org/resource/Blasphemy_Day', 'http://dbpedia.org/resource/Blessed_Rainy_Day', 'http://dbpedia.org/resource/Blue_Beanie_Day', 'http://dbpedia.org/resource/Blue_Christmas_(holiday)', 'http://dbpedia.org/resource/Blue_Mass', 'http://dbpedia.org/resource/Bodhi_Day', 'http://dbpedia.org/resource/Bohag_Bihu', 'http://dbpedia.org/resource/Boishakhi_Mela', 'http://dbpedia.org/resource/Boita_Bandana', 'http://dbpedia.org/resource/Bon_(festival)', 'http://dbpedia.org/resource/Bon_Festival', 'http://dbpedia.org/resource/Bon_Om_Touk', 'http://dbpedia.org/resource/Bonalu', 'http://dbpedia.org/resource/Bonifacio_Day', 'http://dbpedia.org/resource/Book_Lovers_Day', 'http://dbpedia.org/resource/Border_Guards_Day', "http://dbpedia.org/resource/Boss's_Day", 'http://dbpedia.org/resource/Boun_Suang_Huea', 'http://dbpedia.org/resource/Boxing_Day', 'http://dbpedia.org/resource/Boxing_Week', 'http://dbpedia.org/resource/Brain_Tumor_Awareness_Month', "http://dbpedia.org/resource/Buddha's_Birthday", 'http://dbpedia.org/resource/Buhe', 'http://dbpedia.org/resource/Buisu', 'http://dbpedia.org/resource/Bukovina_Day', 'http://dbpedia.org/resource/Bulgarian_Armed_Forces_Day', "http://dbpedia.org/resource/Burmese_Martyrs'_Day", 'http://dbpedia.org/resource/Burns_supper', 'http://dbpedia.org/resource/Buß-_und_Bettag', 'http://dbpedia.org/resource/Busu_Dima', 'http://dbpedia.org/resource/Buwan_ng_Wika', 'http://dbpedia.org/resource/Buy_Nothing_Day', 'http://dbpedia.org/resource/Bwisagu', 'http://dbpedia.org/resource/Cake_and_Cunnilingus_Day', 'http://dbpedia.org/resource/Calan_Gaeaf', 'http://dbpedia.org/resource/Cambodian_New_Year', 'http://dbpedia.org/resource/Canada_Day', 'http://dbpedia.org/resource/Canberra_Day', 'http://dbpedia.org/resource/Cancer_Control_Month', 'http://dbpedia.org/resource/Candlemas', 'http://dbpedia.org/resource/Caribbean-American_Heritage_Month', 'http://dbpedia.org/resource/Caristia', 'http://dbpedia.org/resource/Carl_Garner_Federal_Lands_Cleanup_Day', 'http://dbpedia.org/resource/Carmentalia', 'http://dbpedia.org/resource/Carnaval_de_Ponce', 'http://dbpedia.org/resource/Carnaval_de_Vejigantes', 'http://dbpedia.org/resource/Carnival_in_Belize', 'http://dbpedia.org/resource/Carnival_of_Madeira', 'http://dbpedia.org/resource/Carnival_of_Ovar', 'http://dbpedia.org/resource/Carnival_of_Santa_Cruz_de_Tenerife', 'http://dbpedia.org/resource/Casimir_Pulaski_Day', 'http://dbpedia.org/resource/Cassette_Store_Day', 'http://dbpedia.org/resource/Cassinga_Day', 'http://dbpedia.org/resource/Castile_and_León_Day', 'http://dbpedia.org/resource/Castleton_Garland_Day', 'http://dbpedia.org/resource/Catandungan_Festival', 'http://dbpedia.org/resource/Celebrate_Bisexuality_Day', 'http://dbpedia.org/resource/Ceremony_of_the_Keys_(London)', 'http://dbpedia.org/resource/Cesar_Chavez_Day', 'http://dbpedia.org/resource/Ceuta_Day', 'http://dbpedia.org/resource/Chaand_Raat', "http://dbpedia.org/resource/Chafa'a", 'http://dbpedia.org/resource/Chaharshanbe_Suri', 'http://dbpedia.org/resource/Chaiti_Festival,_Rayagada', 'http://dbpedia.org/resource/Chak_Phra', 'http://dbpedia.org/resource/Chandeshwori_Jatra', 'http://dbpedia.org/resource/Chapchar_Kut', 'http://dbpedia.org/resource/Charak_Puja', 'http://dbpedia.org/resource/Charro_Days', 'http://dbpedia.org/resource/Chasok_Tangnam', 'http://dbpedia.org/resource/Chatar_jatra', 'http://dbpedia.org/resource/Chaturmasya', 'http://dbpedia.org/resource/Cheti_Chand', 'http://dbpedia.org/resource/Chhadakhai', 'http://dbpedia.org/resource/Chhath', 'http://dbpedia.org/resource/Child_Health_Day', 'http://dbpedia.org/resource/Childbirth_Masses', "http://dbpedia.org/resource/Children's_Day_(India)", "http://dbpedia.org/resource/Children's_Day_(Japan)", "http://dbpedia.org/resource/Children's_Day", 'http://dbpedia.org/resource/Chilseok', "http://dbpedia.org/resource/Chinese_New_Year's_Eve", 'http://dbpedia.org/resource/Chinese_New_Year', 'http://dbpedia.org/resource/Chitra_Pournami_(festival)', 'http://dbpedia.org/resource/Chocolate_Day_(Ghana)', 'http://dbpedia.org/resource/Christmas_and_holiday_season', 'http://dbpedia.org/resource/Christmas_Eve', 'http://dbpedia.org/resource/Christmas_in_Ireland', 'http://dbpedia.org/resource/Christmas_in_Romania', 'http://dbpedia.org/resource/Christmas_in_Russia', 'http://dbpedia.org/resource/Christmas_in_Sweden', 'http://dbpedia.org/resource/Christmas_in_Ukraine', 'http://dbpedia.org/resource/Christmas_lights_in_Medellín', 'http://dbpedia.org/resource/Christmas_pageant', 'http://dbpedia.org/resource/Christmas_Sunday', 'http://dbpedia.org/resource/Christmas_traditions', 'http://dbpedia.org/resource/Christmas', 'http://dbpedia.org/resource/Christmastide', 'http://dbpedia.org/resource/Cimarrones_Festival', 'http://dbpedia.org/resource/Cinco_de_Mayo', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Civic_Holiday', 'http://dbpedia.org/resource/Classics_Day', 'http://dbpedia.org/resource/Coast_Guard_Day', 'http://dbpedia.org/resource/Cold_Food_Festival', 'http://dbpedia.org/resource/Coming_of_Age_Day', 'http://dbpedia.org/resource/Commemoration_Day_of_Fallen_Soldiers', 'http://dbpedia.org/resource/Commemoration_Day', 'http://dbpedia.org/resource/Commemoration_of_Atatürk,_Youth_and_Sports_Day', 'http://dbpedia.org/resource/Commonwealth_Day', 'http://dbpedia.org/resource/Concord_Day', 'http://dbpedia.org/resource/Confederate_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Day_(Denmark)', 'http://dbpedia.org/resource/Constitution_Day_(Ghana)', 'http://dbpedia.org/resource/Constitution_Day_(India)', 'http://dbpedia.org/resource/Constitution_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Constitution_Day_(Norway)', 'http://dbpedia.org/resource/Constitution_Day_(Russia)', 'http://dbpedia.org/resource/Constitution_Day_(South_Korea)', 'http://dbpedia.org/resource/Constitution_Day_(Ukraine)', 'http://dbpedia.org/resource/Constitution_Day_(United_States)', 'http://dbpedia.org/resource/Constitution_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Week', 'http://dbpedia.org/resource/Consualia', 'http://dbpedia.org/resource/Contraband_Days', 'http://dbpedia.org/resource/COPD_Awareness_Month', 'http://dbpedia.org/resource/Coral_Triangle_Day', 'http://dbpedia.org/resource/Cosmonautics_Day', 'http://dbpedia.org/resource/Côte-Rôtie', 'http://dbpedia.org/resource/Courir_de_Mardi_Gras', 'http://dbpedia.org/resource/Cow_Harbor_Day', 'http://dbpedia.org/resource/Crop_Over', "http://dbpedia.org/resource/Cruisin'_Downriver", 'http://dbpedia.org/resource/Cry_of_Dolores', 'http://dbpedia.org/resource/Culture_Day', 'http://dbpedia.org/resource/Čuvari_Hristovog_groba', 'http://dbpedia.org/resource/Cyber_Monday', 'http://dbpedia.org/resource/Daeboreum', 'http://dbpedia.org/resource/Dahi_Handi', 'http://dbpedia.org/resource/Dahi_Jatra', 'http://dbpedia.org/resource/Dalit_History_Month', 'http://dbpedia.org/resource/Dano_(festival)', 'http://dbpedia.org/resource/Dano_(Korean_festival)', 'http://dbpedia.org/resource/Darwin_Day', 'http://dbpedia.org/resource/Dashain', 'http://dbpedia.org/resource/Data_Privacy_Day', 'http://dbpedia.org/resource/Datta_Jayanti', 'http://dbpedia.org/resource/Davao_City_Torotot_Festival', 'http://dbpedia.org/resource/Day_of_Arafah', 'http://dbpedia.org/resource/Day_of_Conception', 'http://dbpedia.org/resource/Day_of_Missile_Forces_and_Artillery', 'http://dbpedia.org/resource/Day_of_National_Dignity', 'http://dbpedia.org/resource/Day_of_Neutrality', 'http://dbpedia.org/resource/Day_of_Prayer', 'http://dbpedia.org/resource/Day_of_Reconciliation', 'http://dbpedia.org/resource/Day_of_Remembrance_for_All_Victims_of_Chemical_Warfare', 'http://dbpedia.org/resource/Day_of_Remembrance_for_Truth_and_Justice', 'http://dbpedia.org/resource/Day_of_Remembrance_of_the_Victims_of_Political_Repressions', 'http://dbpedia.org/resource/Day_of_Republika_Srpska', 'http://dbpedia.org/resource/Day_of_Restoration_of_Independence_(Azerbaijan)', 'http://dbpedia.org/resource/Day_of_Silence', 'http://dbpedia.org/resource/Day_of_Songun', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_(Kyrgyzstan)', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_of_Azerbaijan', 'http://dbpedia.org/resource/Day_of_the_Canary_Islands', 'http://dbpedia.org/resource/Day_of_the_Cuban_Armed_Forces', 'http://dbpedia.org/resource/Day_of_the_Dead', 'http://dbpedia.org/resource/Day_of_the_Flemish_Community', 'http://dbpedia.org/resource/Day_of_the_Foundation_of_the_Republic', 'http://dbpedia.org/resource/Day_of_the_founding_of_the_German_Empire', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community_of_Belgium', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community', 'http://dbpedia.org/resource/Day_of_the_Little_Candles', 'http://dbpedia.org/resource/Day_of_the_National_Flag_(Ukraine)', 'http://dbpedia.org/resource/Day_of_the_Shining_Star', 'http://dbpedia.org/resource/Day_of_the_Sun', 'http://dbpedia.org/resource/Day_of_the_Unification_of_the_Romanian_Principalities', 'http://dbpedia.org/resource/Day_of_the_Union_of_Bessarabia_with_Romania', 'http://dbpedia.org/resource/Day_of_the_Walloon_Region', 'http://dbpedia.org/resource/Day_of_the_Young_Combatant', 'http://dbpedia.org/resource/Day_of_Ukrainian_Literature_and_Language', 'http://dbpedia.org/resource/Day_of_Valor', 'http://dbpedia.org/resource/Day_of_Victory_in_the_Great_Fatherland_Liberation_War', 'http://dbpedia.org/resource/Daylight_saving_time_in_Canada', 'http://dbpedia.org/resource/Deepothsavam', 'http://dbpedia.org/resource/Defence_Day', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day', 'http://dbpedia.org/resource/Defender_of_the_Motherland_Day', 'http://dbpedia.org/resource/Defenders_Day_(Maryland)', 'http://dbpedia.org/resource/Defenders_Day_(Ukraine)', 'http://dbpedia.org/resource/Dehwa_Daimana', 'http://dbpedia.org/resource/Dehwa_Hanina', 'http://dbpedia.org/resource/Dehwa_Rabba', 'http://dbpedia.org/resource/Democracy_and_National_Unity_Day', 'http://dbpedia.org/resource/Dev_Deepawali_(Varanasi)', 'http://dbpedia.org/resource/Dhammachakra_Pravartan_Din', 'http://dbpedia.org/resource/Dhanteras', 'http://dbpedia.org/resource/Dhanu_jatra', 'http://dbpedia.org/resource/Dhodha', 'http://dbpedia.org/resource/Día_de_la_Altagracia', 'http://dbpedia.org/resource/Día_Mundial_de_Ponce', 'http://dbpedia.org/resource/Día_Nacional_de_Galicia', 'http://dbpedia.org/resource/Días_Patrios_(Guatemala)', 'http://dbpedia.org/resource/Dinagyang', 'http://dbpedia.org/resource/Dinamulag_Festival', 'http://dbpedia.org/resource/Disabled_Access_Day', 'http://dbpedia.org/resource/Distaff_Day', 'http://dbpedia.org/resource/Dita_e_Verës', 'http://dbpedia.org/resource/Diwali_(Jainism)', 'http://dbpedia.org/resource/Diwali', 'http://dbpedia.org/resource/DNA_Day', 'http://dbpedia.org/resource/Dobruja_Day', 'http://dbpedia.org/resource/Dongzhi_Festival', 'http://dbpedia.org/resource/Dormition_of_the_Mother_of_God', 'http://dbpedia.org/resource/Dosmoche', 'http://dbpedia.org/resource/Double_Sixth_Festival', 'http://dbpedia.org/resource/Double_Third_Festival', 'http://dbpedia.org/resource/Downfall_of_the_Derg_(holiday)', 'http://dbpedia.org/resource/Dożynki', 'http://dbpedia.org/resource/Dragon_Boat_Festival', 'http://dbpedia.org/resource/Drupka_Teshi', 'http://dbpedia.org/resource/Duanwu_Festival', 'http://dbpedia.org/resource/Duha', 'http://dbpedia.org/resource/Dundee_Fortnight', 'http://dbpedia.org/resource/Durga_Puja', 'http://dbpedia.org/resource/Durgapur_Free_Day', 'http://dbpedia.org/resource/Dziady', 'http://dbpedia.org/resource/Earth_Day', 'http://dbpedia.org/resource/Earth_Hour', 'http://dbpedia.org/resource/Easter', 'http://dbpedia.org/resource/Economics_of_Christmas', 'http://dbpedia.org/resource/Eid_al-Adha', 'http://dbpedia.org/resource/Eid_al-Fitr', 'http://dbpedia.org/resource/Eid_al-Ghadir', 'http://dbpedia.org/resource/Eid_il-Burbara', 'http://dbpedia.org/resource/Eid_prayers', 'http://dbpedia.org/resource/El_Buen_Fin', 'http://dbpedia.org/resource/Ely_Eel_Day', 'http://dbpedia.org/resource/Emergency_Services_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Employee_Appreciation_Day', 'http://dbpedia.org/resource/Enkutatash', 'http://dbpedia.org/resource/Epiphany_(Christian)', 'http://dbpedia.org/resource/Epiphany_(holiday)', 'http://dbpedia.org/resource/Epiphanytide', 'http://dbpedia.org/resource/Errol_Barrow_Day', 'http://dbpedia.org/resource/Erzya_Language_Day', 'http://dbpedia.org/resource/Ethiopian_Christmas', "http://dbpedia.org/resource/Ethiopian_Patriots'_Victory_Day", 'http://dbpedia.org/resource/Ettu_Nombu', 'http://dbpedia.org/resource/Europe_Day', 'http://dbpedia.org/resource/European_Day_of_the_Righteous', 'http://dbpedia.org/resource/Evacuation_Day_(Massachusetts)', 'http://dbpedia.org/resource/Evacuation_Day_(New_York)', 'http://dbpedia.org/resource/Evacuation_Day_(Syria)', 'http://dbpedia.org/resource/Evelio_Javier_Day', 'http://dbpedia.org/resource/Evolution_Day', 'http://dbpedia.org/resource/Execution_of_the_Báb', 'http://dbpedia.org/resource/Fajr_nafl_prayer', 'http://dbpedia.org/resource/Fajr_prayer', 'http://dbpedia.org/resource/Falklands_Day', 'http://dbpedia.org/resource/Family_Day_(Canada)', "http://dbpedia.org/resource/Farmers'_Day", 'http://dbpedia.org/resource/Fast_of_Esther', 'http://dbpedia.org/resource/Fast_of_Gedalia', 'http://dbpedia.org/resource/Fast_of_Nineveh', 'http://dbpedia.org/resource/Fast_of_the_Firstborn', 'http://dbpedia.org/resource/Father–Daughter_Day', "http://dbpedia.org/resource/Father's_Day_(United_States)", "http://dbpedia.org/resource/Father's_Day", 'http://dbpedia.org/resource/Fatimiyya', 'http://dbpedia.org/resource/Feast_of_Ezid', 'http://dbpedia.org/resource/Feast_of_Saint_George_(Palestine)', 'http://dbpedia.org/resource/Feast_of_Saints_Francis_and_Catherine', 'http://dbpedia.org/resource/Feast_of_Saints_Peter_and_Paul', 'http://dbpedia.org/resource/Feast_of_the_Annunciation', 'http://dbpedia.org/resource/Feast_of_the_Ass', 'http://dbpedia.org/resource/Feast_of_the_Assembly', 'http://dbpedia.org/resource/Feast_of_the_Black_Nazarene', 'http://dbpedia.org/resource/Feast_of_the_Great_Shishlam', 'http://dbpedia.org/resource/Feast_of_the_Immaculate_Conception', 'http://dbpedia.org/resource/Federal_Day_of_Thanksgiving,_Repentance_and_Prayer', 'http://dbpedia.org/resource/Federal_holidays_in_the_United_States', 'http://dbpedia.org/resource/Federal_Territory_Day', 'http://dbpedia.org/resource/Feralia', 'http://dbpedia.org/resource/Feria_de_Artesanías_de_Ponce', 'http://dbpedia.org/resource/Feriae_Latinae', 'http://dbpedia.org/resource/Ferragosto', 'http://dbpedia.org/resource/Festa_de_São_João_do_Porto', 'http://dbpedia.org/resource/Festa_della_Repubblica', 'http://dbpedia.org/resource/Festival_de_Bomba_y_Plena_de_San_Antón', 'http://dbpedia.org/resource/Festival_Folclórico_y_Reinado_Nacional_del_Bambuco', 'http://dbpedia.org/resource/Festival_Nacional_Afrocaribeño', 'http://dbpedia.org/resource/Festival_Nacional_de_la_Quenepa', 'http://dbpedia.org/resource/Festival_of_Lights_(Lyon)', 'http://dbpedia.org/resource/Festival_of_Perun', 'http://dbpedia.org/resource/Festival_of_Veles', 'http://dbpedia.org/resource/Festivus', 'http://dbpedia.org/resource/Festum_Ovorum', 'http://dbpedia.org/resource/Fiesta_Nacional_de_la_Danza', 'http://dbpedia.org/resource/Fiestas_de_Santa_Fe', 'http://dbpedia.org/resource/Fiestas_del_Pilar', 'http://dbpedia.org/resource/Fiestas_Patrias_(Chile)', 'http://dbpedia.org/resource/Fiestas_Patrias_(Peru)', 'http://dbpedia.org/resource/Fiestas_patronales_de_Ponce', 'http://dbpedia.org/resource/Fiji_Week', 'http://dbpedia.org/resource/Filipino_American_History_Month', 'http://dbpedia.org/resource/Filipino_Heritage_Month', 'http://dbpedia.org/resource/Filseta', 'http://dbpedia.org/resource/Finnish_Swedish_Heritage_Day', 'http://dbpedia.org/resource/First_day_of_summer_(Iceland)', 'http://dbpedia.org/resource/First_National_Government', 'http://dbpedia.org/resource/Flag_Day_(Albania)', 'http://dbpedia.org/resource/Flag_Day_(Argentina)', 'http://dbpedia.org/resource/Flag_Day_(Australia)', 'http://dbpedia.org/resource/Flag_Day_(United_Arab_Emirates)', 'http://dbpedia.org/resource/Flag_Day_(United_States)', 'http://dbpedia.org/resource/Flag_Day_in_Mexico', 'http://dbpedia.org/resource/Floralia', 'http://dbpedia.org/resource/Fordicidia', 'http://dbpedia.org/resource/Fossil_Fools_Day', 'http://dbpedia.org/resource/Fössta_tossdan_i_mass', "http://dbpedia.org/resource/Founders'_Day_(Ghana)", 'http://dbpedia.org/resource/Frankenstein_Day', 'http://dbpedia.org/resource/Fraternal_Day', 'http://dbpedia.org/resource/Freedom_and_Democracy_Day', 'http://dbpedia.org/resource/Freedom_Day_(Belarus)', 'http://dbpedia.org/resource/Freedom_Day_(Malta)', 'http://dbpedia.org/resource/Freedom_Day_(South_Africa)', 'http://dbpedia.org/resource/French_Community_Holiday', 'http://dbpedia.org/resource/Friendship_Day', 'http://dbpedia.org/resource/Fukagawa_Matsuri', 'http://dbpedia.org/resource/Funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Gaan-Ngai', 'http://dbpedia.org/resource/Gaecheonjeol', 'http://dbpedia.org/resource/Gai_Jatra', 'http://dbpedia.org/resource/Gajan_(festival)', 'http://dbpedia.org/resource/Galdan_Namchot', 'http://dbpedia.org/resource/Galician_Literature_Day', 'http://dbpedia.org/resource/Galungan', 'http://dbpedia.org/resource/Gandhi_Jayanti', 'http://dbpedia.org/resource/Ganesh_Chaturthi', 'http://dbpedia.org/resource/Ganesh_Jayanti', 'http://dbpedia.org/resource/Ganga_Dussehra', 'http://dbpedia.org/resource/Ganga_puja', 'http://dbpedia.org/resource/Gangamma_Jatara', 'http://dbpedia.org/resource/Gangaur', 'http://dbpedia.org/resource/Garifuna_Settlement_Day', 'http://dbpedia.org/resource/Gasparilla_Pirate_Festival', 'http://dbpedia.org/resource/Gaudete_Sunday', 'http://dbpedia.org/resource/Gaura_(festival)', 'http://dbpedia.org/resource/Gawai_Dayak', 'http://dbpedia.org/resource/Geek_Pride_Day', 'http://dbpedia.org/resource/General_Pulaski_Memorial_Day', "http://dbpedia.org/resource/George's_Day_in_Autumn", "http://dbpedia.org/resource/George's_Day_in_Spring", 'http://dbpedia.org/resource/Georgia_Day', 'http://dbpedia.org/resource/German_Unity_Day', 'http://dbpedia.org/resource/German-American_Day', 'http://dbpedia.org/resource/Ghanta_Karna', 'http://dbpedia.org/resource/Ghost_Festival', 'http://dbpedia.org/resource/Giant_Lantern_Festival', 'http://dbpedia.org/resource/Gibraltar_National_Day', 'http://dbpedia.org/resource/Gifaata', 'http://dbpedia.org/resource/Gilgit-Baltistan_Independence_Day', 'http://dbpedia.org/resource/Gion_Matsuri', 'http://dbpedia.org/resource/Giving_Tuesday', 'http://dbpedia.org/resource/GivingTuesday', 'http://dbpedia.org/resource/Glasgow_Fair', 'http://dbpedia.org/resource/Global_Accessibility_Awareness_Day', 'http://dbpedia.org/resource/Global_Day_of_Action_on_Military_Spending', 'http://dbpedia.org/resource/Global_Handwashing_Day', 'http://dbpedia.org/resource/Global_Information_Governance_Day', 'http://dbpedia.org/resource/Global_Money_Week', 'http://dbpedia.org/resource/Global_Running_Day', 'http://dbpedia.org/resource/Global_Wind_Day', 'http://dbpedia.org/resource/Goa_Liberation_Day', 'http://dbpedia.org/resource/Golden_Week_(Japan)', 'http://dbpedia.org/resource/Golu', 'http://dbpedia.org/resource/Good_Friday', 'http://dbpedia.org/resource/Good_Governance_Day', 'http://dbpedia.org/resource/Gopastami', 'http://dbpedia.org/resource/Govatsa_Dwadashi', 'http://dbpedia.org/resource/Gowri_Habba', "http://dbpedia.org/resource/Grand_Duke's_Official_Birthday", "http://dbpedia.org/resource/Grandparents'_Day", 'http://dbpedia.org/resource/Great_Union_Day', 'http://dbpedia.org/resource/Green_Monday', 'http://dbpedia.org/resource/Green_week', 'http://dbpedia.org/resource/Greenery_Day', 'http://dbpedia.org/resource/Groundhog_Day', 'http://dbpedia.org/resource/Guam_Discovery_Day', 'http://dbpedia.org/resource/Guanacaste_Day', 'http://dbpedia.org/resource/Gudi_Padwa', 'http://dbpedia.org/resource/Gunla', 'http://dbpedia.org/resource/Guru_Nanak_Gurpurab', 'http://dbpedia.org/resource/Guru_Purnima', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', 'http://dbpedia.org/resource/Gustor_Festival', 'http://dbpedia.org/resource/Hadaka_Matsuri', 'http://dbpedia.org/resource/Haitian_Heritage_Month', 'http://dbpedia.org/resource/Hakata_Dontaku', 'http://dbpedia.org/resource/Hakata_Gion_Yamakasa', 'http://dbpedia.org/resource/Halloween', 'http://dbpedia.org/resource/Handsel_Monday', 'http://dbpedia.org/resource/Hangul_Day', 'http://dbpedia.org/resource/Hanukkah', 'http://dbpedia.org/resource/Hanuman_Jayanti', 'http://dbpedia.org/resource/Harela_Mela', 'http://dbpedia.org/resource/Harriet_Tubman_Day', 'http://dbpedia.org/resource/Harvey_Milk_Day', 'http://dbpedia.org/resource/Haya_Day', 'http://dbpedia.org/resource/Heikru_Hidongba', 'http://dbpedia.org/resource/Helen_Keller_Day', 'http://dbpedia.org/resource/Heritage_Day_(South_Africa)', "http://dbpedia.org/resource/Heroes'_Day_(Namibia)", "http://dbpedia.org/resource/Heroes'_Day", 'http://dbpedia.org/resource/Herzl_Day', 'http://dbpedia.org/resource/Higalaay_Festival', 'http://dbpedia.org/resource/Higantes_Festival', 'http://dbpedia.org/resource/Hilaria', 'http://dbpedia.org/resource/Hillbilly_Days', 'http://dbpedia.org/resource/Hiloula_of_Rabbi_Haim_Pinto', 'http://dbpedia.org/resource/Hinamatsuri', 'http://dbpedia.org/resource/Hindi_Day', 'http://dbpedia.org/resource/History_of_lysergic_acid_diethylamide', 'http://dbpedia.org/resource/Hizb_Rateb', 'http://dbpedia.org/resource/Hıdırellez', 'http://dbpedia.org/resource/Hobiyee', 'http://dbpedia.org/resource/Hogmanay', 'http://dbpedia.org/resource/Hola_Mohalla', 'http://dbpedia.org/resource/Holi', 'http://dbpedia.org/resource/Holidays_with_paid_time_off_in_the_United_States', 'http://dbpedia.org/resource/Holika_Dahan', 'http://dbpedia.org/resource/Holy_Saturday', 'http://dbpedia.org/resource/Holy_Week_in_Ruvo_di_Puglia', 'http://dbpedia.org/resource/Hōnensai', 'http://dbpedia.org/resource/Honey_Feast_of_the_Saviour', 'http://dbpedia.org/resource/Hong_Kong_Foundation_Day', 'http://dbpedia.org/resource/Hong_Kong_Special_Administrative_Region_Establishment_Day', 'http://dbpedia.org/resource/Honor_America_Days', 'http://dbpedia.org/resource/Hop-tu-Naa', 'http://dbpedia.org/resource/Hosay', 'http://dbpedia.org/resource/Human_Rights_Day', 'http://dbpedia.org/resource/HumanLight', "http://dbpedia.org/resource/Hùng_Kings'_Festival", 'http://dbpedia.org/resource/Hyderabad-Karnataka_Liberation_Day', 'http://dbpedia.org/resource/Icelandic_National_Day', 'http://dbpedia.org/resource/Imbolc', 'http://dbpedia.org/resource/Imoinu_Iratpa', 'http://dbpedia.org/resource/In_town,_without_my_car!', 'http://dbpedia.org/resource/Independence_and_Unity_Day_(Slovenia)', 'http://dbpedia.org/resource/Independence_Day_(Abkhazia)', 'http://dbpedia.org/resource/Independence_Day_(Algeria)', 'http://dbpedia.org/resource/Independence_Day_(Armenia)', 'http://dbpedia.org/resource/Independence_Day_(Bahrain)', 'http://dbpedia.org/resource/Independence_Day_(Bangladesh)', 'http://dbpedia.org/resource/Independence_Day_(Belarus)', 'http://dbpedia.org/resource/Independence_Day_(Bosnia_and_Herzegovina)', 'http://dbpedia.org/resource/Independence_Day_(Botswana)', 'http://dbpedia.org/resource/Independence_Day_(Brazil)', 'http://dbpedia.org/resource/Independence_Day_(Croatia)', 'http://dbpedia.org/resource/Independence_Day_(Cyprus)', 'http://dbpedia.org/resource/Independence_Day_(Djibouti)', 'http://dbpedia.org/resource/Independence_Day_(Eritrea)', 'http://dbpedia.org/resource/Independence_Day_(Estonia)', 'http://dbpedia.org/resource/Independence_Day_(Finland)', 'http://dbpedia.org/resource/Independence_Day_(Georgia)', 'http://dbpedia.org/resource/Independence_Day_(Ghana)', 'http://dbpedia.org/resource/Independence_Day_(Grenada)', 'http://dbpedia.org/resource/Independence_Day_(Hawaii)', 'http://dbpedia.org/resource/Independence_Day_(India)', 'http://dbpedia.org/resource/Independence_Day_(Indonesia)', 'http://dbpedia.org/resource/Independence_Day_(Jamaica)', 'http://dbpedia.org/resource/Independence_Day_(Jordan)', 'http://dbpedia.org/resource/Independence_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Independence_Day_(Kyrgyzstan)', 'http://dbpedia.org/resource/Independence_Day_(Malaysia)', 'http://dbpedia.org/resource/Independence_Day_(Malta)', 'http://dbpedia.org/resource/Independence_Day_(Myanmar)', 'http://dbpedia.org/resource/Independence_Day_(Niger)', 'http://dbpedia.org/resource/Independence_Day_(North_Macedonia)', 'http://dbpedia.org/resource/Independence_Day_(Pakistan)', 'http://dbpedia.org/resource/Independence_Day_(Philippines)', 'http://dbpedia.org/resource/Independence_Day_(Somalia)', 'http://dbpedia.org/resource/Independence_Day_(Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(South_Ossetia)', 'http://dbpedia.org/resource/Independence_Day_(Sri_Lanka)', 'http://dbpedia.org/resource/Independence_Day_(State_of_Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(Tajikistan)', 'http://dbpedia.org/resource/Independence_Day_(Turkmenistan)', 'http://dbpedia.org/resource/Independence_Day_(Uganda)', 'http://dbpedia.org/resource/Independence_Day_(United_States)', 'http://dbpedia.org/resource/Independence_Day_(Uzbekistan)', 'http://dbpedia.org/resource/Independence_Day_of_Cambodia', 'http://dbpedia.or</t>
+          <t>['http://www.wikidata.org/entity/Q103987830', 'http://www.wikidata.org/entity/Q104013369', 'http://www.wikidata.org/entity/Q116978631', 'http://www.wikidata.org/entity/Q21163268', 'http://www.wikidata.org/entity/Q10283187', 'http://www.wikidata.org/entity/Q111738564', 'http://www.wikidata.org/entity/Q112127159', 'http://www.wikidata.org/entity/Q124422802', 'http://www.wikidata.org/entity/Q18465013', 'http://www.wikidata.org/entity/Q125856465', 'http://www.wikidata.org/entity/Q1361434', 'http://www.wikidata.org/entity/Q1651570', 'http://www.wikidata.org/entity/Q2564633', 'http://www.wikidata.org/entity/Q333016', 'http://www.wikidata.org/entity/Q61359735', 'http://www.wikidata.org/entity/Q72318', 'http://www.wikidata.org/entity/Q744159', 'http://www.wikidata.org/entity/Q751738', 'http://www.wikidata.org/entity/Q110707177', 'http://www.wikidata.org/entity/Q45922130', 'http://www.wikidata.org/entity/Q57350935', 'http://www.wikidata.org/entity/Q57397044', 'http://www.wikidata.org/entity/Q116978568', 'http://www.wikidata.org/entity/Q2859605', 'http://www.wikidata.org/entity/Q113090457', 'http://www.wikidata.org/entity/Q115181793', 'http://www.wikidata.org/entity/Q115369110', 'http://www.wikidata.org/entity/Q115369980', 'http://www.wikidata.org/entity/Q115377287', 'http://www.wikidata.org/entity/Q21697589', 'http://www.wikidata.org/entity/Q122069654', 'http://www.wikidata.org/entity/Q1145566', 'http://www.wikidata.org/entity/Q11406184', 'http://www.wikidata.org/entity/Q11643728', 'http://www.wikidata.org/entity/Q20044441', 'http://www.wikidata.org/entity/Q28685931', 'http://www.wikidata.org/entity/Q11255045', 'http://www.wikidata.org/entity/Q11387821', 'http://www.wikidata.org/entity/Q11436695', 'http://www.wikidata.org/entity/Q11501518', 'http://www.wikidata.org/entity/Q11502138', 'http://www.wikidata.org/entity/Q11512398', 'http://www.wikidata.org/entity/Q11590440', 'http://www.wikidata.org/entity/Q11604982', 'http://www.wikidata.org/entity/Q6455253', 'http://www.wikidata.org/entity/Q111162467', 'http://www.wikidata.org/entity/Q124005660', 'http://www.wikidata.org/entity/Q130611902', 'http://www.wikidata.org/entity/Q13258770', 'http://www.wikidata.org/entity/Q2838743', 'http://www.wikidata.org/entity/Q3092925', 'http://www.wikidata.org/entity/Q123004384', 'http://www.wikidata.org/entity/Q4546230', 'http://www.wikidata.org/entity/Q1009535', 'http://www.wikidata.org/entity/Q1049141', 'http://www.wikidata.org/entity/Q1059995', 'http://www.wikidata.org/entity/Q1137351', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q1186410', 'http://www.wikidata.org/entity/Q1355051', 'http://www.wikidata.org/entity/Q1355833', 'http://www.wikidata.org/entity/Q1359602', 'http://www.wikidata.org/entity/Q1361434', 'http://www.wikidata.org/entity/Q1361489', 'http://www.wikidata.org/entity/Q17218111', 'http://www.wikidata.org/entity/Q483226', 'http://www.wikidata.org/entity/Q82405', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q10265921', 'http://www.wikidata.org/entity/Q10274', 'http://www.wikidata.org/entity/Q10281751', 'http://www.wikidata.org/entity/Q10313072', 'http://www.wikidata.org/entity/Q1034573', 'http://www.wikidata.org/entity/Q10379695', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q104842151', 'http://www.wikidata.org/entity/Q104842171', 'http://www.wikidata.org/entity/Q104844735', 'http://www.wikidata.org/entity/Q104853673', 'http://www.wikidata.org/entity/Q104861126', 'http://www.wikidata.org/entity/Q10488275', 'http://www.wikidata.org/entity/Q105047091', 'http://www.wikidata.org/entity/Q105047582', 'http://www.wikidata.org/entity/Q105047587', 'http://www.wikidata.org/entity/Q105271464', 'http://www.wikidata.org/entity/Q105393636', 'http://www.wikidata.org/entity/Q10560877', 'http://www.wikidata.org/entity/Q105742385', 'http://www.wikidata.org/entity/Q105742388', 'http://www.wikidata.org/entity/Q1058840', 'http://www.wikidata.org/entity/Q106010', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q106806190', 'http://www.wikidata.org/entity/Q106855753', 'http://www.wikidata.org/entity/Q1070437', 'http://www.wikidata.org/entity/Q107139413', 'http://www.wikidata.org/entity/Q10726425', 'http://www.wikidata.org/entity/Q107486932', 'http://www.wikidata.org/entity/Q107643630', 'http://www.wikidata.org/entity/Q108120675', 'http://www.wikidata.org/entity/Q108265918', 'http://www.wikidata.org/entity/Q108305674', 'http://www.wikidata.org/entity/Q108456662', 'http://www.wikidata.org/entity/Q108540687', 'http://www.wikidata.org/entity/Q10862448', 'http://www.wikidata.org/entity/Q108745010', 'http://www.wikidata.org/entity/Q10881633', 'http://www.wikidata.org/entity/Q108936865', 'http://www.wikidata.org/entity/Q10901070', 'http://www.wikidata.org/entity/Q109040869', 'http://www.wikidata.org/entity/Q10921475', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q109796906', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q1105149', 'http://www.wikidata.org/entity/Q110712627', 'http://www.wikidata.org/entity/Q110738072', 'http://www.wikidata.org/entity/Q110804043', 'http://www.wikidata.org/entity/Q11095193', 'http://www.wikidata.org/entity/Q11156396', 'http://www.wikidata.org/entity/Q11156590', 'http://www.wikidata.org/entity/Q11156602', 'http://www.wikidata.org/entity/Q111585601', 'http://www.wikidata.org/entity/Q111586257', 'http://www.wikidata.org/entity/Q111588212', 'http://www.wikidata.org/entity/Q111588631', 'http://www.wikidata.org/entity/Q111591927', 'http://www.wikidata.org/entity/Q111592030', 'http://www.wikidata.org/entity/Q111592221', 'http://www.wikidata.org/entity/Q111592231', 'http://www.wikidata.org/entity/Q111592392', 'http://www.wikidata.org/entity/Q111593121', 'http://www.wikidata.org/entity/Q111599061', 'http://www.wikidata.org/entity/Q111605534', 'http://www.wikidata.org/entity/Q111605672', 'http://www.wikidata.org/entity/Q111605780', 'http://www.wikidata.org/entity/Q111619857', 'http://www.wikidata.org/entity/Q111621136', 'http://www.wikidata.org/entity/Q111639188', 'http://www.wikidata.org/entity/Q111639464', 'http://www.wikidata.org/entity/Q111639796', 'http://www.wikidata.org/entity/Q111640394', 'http://www.wikidata.org/entity/Q111644691', 'http://www.wikidata.org/entity/Q111644855', 'http://www.wikidata.org/entity/Q111646483', 'http://www.wikidata.org/entity/Q111646603', 'http://www.wikidata.org/entity/Q111646902', 'http://www.wikidata.org/entity/Q111646942', 'http://www.wikidata.org/entity/Q111647178', 'http://www.wikidata.org/entity/Q111647244', 'http://www.wikidata.org/entity/Q111648147', 'http://www.wikidata.org/entity/Q111648327', 'http://www.wikidata.org/entity/Q111648357', 'http://www.wikidata.org/entity/Q111649590', 'http://www.wikidata.org/entity/Q111649647', 'http://www.wikidata.org/entity/Q111649691', 'http://www.wikidata.org/entity/Q111649919', 'http://www.wikidata.org/entity/Q111653594', 'http://www.wikidata.org/entity/Q111653613', 'http://www.wikidata.org/entity/Q111653631', 'http://www.wikidata.org/entity/Q111653637', 'http://www.wikidata.org/entity/Q111653675', 'http://www.wikidata.org/entity/Q111653779', 'http://www.wikidata.org/entity/Q111653938', 'http://www.wikidata.org/entity/Q111653958', 'http://www.wikidata.org/entity/Q111653969', 'http://www.wikidata.org/entity/Q111654007', 'http://www.wikidata.org/entity/Q111654040', 'http://www.wikidata.org/entity/Q111654093', 'http://www.wikidata.org/entity/Q111654098', 'http://www.wikidata.org/entity/Q111654121', 'http://www.wikidata.org/entity/Q111654136', 'http://www.wikidata.org/entity/Q111654241', 'http://www.wikidata.org/entity/Q111654346', 'http://www.wikidata.org/entity/Q111654469', 'http://www.wikidata.org/entity/Q111654484', 'http://www.wikidata.org/entity/Q111658731', 'http://www.wikidata.org/entity/Q111658801', 'http://www.wikidata.org/entity/Q111658833', 'http://www.wikidata.org/entity/Q111658927', 'http://www.wikidata.org/entity/Q111661297', 'http://www.wikidata.org/entity/Q111661840', 'http://www.wikidata.org/entity/Q111661872', 'http://www.wikidata.org/entity/Q111661886', 'http://www.wikidata.org/entity/Q111662034', 'http://www.wikidata.org/entity/Q111662035', 'http://www.wikidata.org/entity/Q111662040', 'http://www.wikidata.org/entity/Q111662133', 'http://www.wikidata.org/entity/Q111663221', 'http://www.wikidata.org/entity/Q111665328', 'http://www.wikidata.org/entity/Q111665519', 'http://www.wikidata.org/entity/Q111666301', 'http://www.wikidata.org/entity/Q111670117', 'http://www.wikidata.org/entity/Q111670231', 'http://www.wikidata.org/entity/Q111670397', 'http://www.wikidata.org/entity/Q111670481', 'http://www.wikidata.org/entity/Q111670617', 'http://www.wikidata.org/entity/Q111670624', 'http://www.wikidata.org/entity/Q111670628', 'http://www.wikidata.org/entity/Q111671698', 'http://www.wikidata.org/entity/Q111671968', 'http://www.wikidata.org/entity/Q111672442', 'http://www.wikidata.org/entity/Q111675204', 'http://www.wikidata.org/entity/Q111675217', 'http://www.wikidata.org/entity/Q111675293', 'http://www.wikidata.org/entity/Q111675405', 'http://www.wikidata.org/entity/Q111675518', 'http://www.wikidata.org/entity/Q111675816', 'http://www.wikidata.org/entity/Q111676530', 'http://www.wikidata.org/entity/Q111676789', 'http://www.wikidata.org/entity/Q111676828', 'http://www.wikidata.org/entity/Q111676959', 'http://www.wikidata.org/entity/Q111679720', 'http://www.wikidata.org/entity/Q111679753', 'http://www.wikidata.org/entity/Q111679830', 'http://www.wikidata.org/entity/Q111679840', 'http://www.wikidata.org/entity/Q111679871', 'http://www.wikidata.org/entity/Q111679978', 'http://www.wikidata.org/entity/Q111680097', 'http://www.wikidata.org/entity/Q111680142', 'http://www.wikidata.org/entity/Q111680149', 'http://www.wikidata.org/entity/Q111680197', 'http://www.wikidata.org/entity/Q111680221', 'http://www.wikidata.org/entity/Q111680229', 'http://www.wikidata.org/entity/Q111693657', 'http://www.wikidata.org/entity/Q111693675', 'http://www.wikidata.org/entity/Q111693696', 'http://www.wikidata.org/entity/Q111693773', 'http://www.wikidata.org/entity/Q111693781', 'http://www.wikidata.org/entity/Q111693947', 'http://www.wikidata.org/entity/Q111694017', 'http://www.wikidata.org/entity/Q111695525', 'http://www.wikidata.org/entity/Q111702011', 'http://www.wikidata.org/entity/Q111702051', 'http://www.wikidata.org/entity/Q111702063', 'http://www.wikidata.org/entity/Q111705727', 'http://www.wikidata.org/entity/Q111708136', 'http://www.wikidata.org/entity/Q111711151', 'http://www.wikidata.org/entity/Q111711160', 'http://www.wikidata.org/entity/Q111711162', 'http://www.wikidata.org/entity/Q111711184', 'http://www.wikidata.org/entity/Q111711264', 'http://www.wikidata.org/entity/Q111711268', 'http://www.wikidata.org/entity/Q111711270', 'http://www.wikidata.org/entity/Q111711273', 'http://www.wikidata.org/entity/Q111711278', 'http://www.wikidata.org/entity/Q111711311', 'http://www.wikidata.org/entity/Q111711342', 'http://www.wikidata.org/entity/Q111711421', 'http://www.wikidata.org/entity/Q111711540', 'http://www.wikidata.org/entity/Q111711547', 'http://www.wikidata.org/entity/Q111711661', 'http://www.wikidata.org/entity/Q111711757', 'http://www.wikidata.org/entity/Q111711903', 'http://www.wikidata.org/entity/Q111711907', 'http://www.wikidata.org/entity/Q111712005', 'http://www.wikidata.org/entity/Q111712010', 'http://www.wikidata.org/entity/Q111712059', 'http://www.wikidata.org/entity/Q111712123', 'http://www.wikidata.org/entity/Q111716408', 'http://www.wikidata.org/entity/Q111719293', 'http://www.wikidata.org/entity/Q111725575', 'http://www.wikidata.org/entity/Q111725911', 'http://www.wikidata.org/entity/Q111726390', 'http://www.wikidata.org/entity/Q111726615', 'http://www.wikidata.org/entity/Q111726617', 'http://www.wikidata.org/entity/Q111726635', 'http://www.wikidata.org/entity/Q111726669', 'http://www.wikidata.org/entity/Q111726714', 'http://www.wikidata.org/entity/Q111726768', 'http://www.wikidata.org/entity/Q111726774', 'http://www.wikidata.org/entity/Q111726793', 'http://www.wikidata.org/entity/Q111726805', 'http://www.wikidata.org/entity/Q111734330', 'http://www.wikidata.org/entity/Q111734453', 'http://www.wikidata.org/entity/Q111734646', 'http://www.wikidata.org/entity/Q111734661', 'http://www.wikidata.org/entity/Q111734681', 'http://www.wikidata.org/entity/Q111734708', 'http://www.wikidata.org/entity/Q111734879', 'http://www.wikidata.org/entity/Q111734906', 'http://www.wikidata.org/entity/Q111734910', 'http://www.wikidata.org/entity/Q111734978', 'http://www.wikidata.org/entity/Q111735009', 'http://www.wikidata.org/entity/Q111735146', 'http://www.wikidata.org/entity/Q111735183', 'http://www.wikidata.org/entity/Q111735311', 'http://www.wikidata.org/entity/Q111738073', 'http://www.wikidata.org/entity/Q111738552', 'http://www.wikidata.org/entity/Q111738762', 'http://www.wikidata.org/entity/Q111738881', 'http://www.wikidata.org/entity/Q111743473', 'http://www.wikidata.org/entity/Q111743614', 'http://www.wikidata.org/entity/Q111743635', 'http://www.wikidata.org/entity/Q111743658', 'http://www.wikidata.org/entity/Q111743894', 'http://www.wikidata.org/entity/Q111743903', 'http://www.wikidata.org/entity/Q111743905', 'http://www.wikidata.org/entity/Q111743922', 'http://www.wikidata.org/entity/Q111744105', 'http://www.wikidata.org/entity/Q111744185', 'http://www.wikidata.org/entity/Q111744196', 'http://www.wikidata.org/entity/Q111744206', 'http://www.wikidata.org/entity/Q111744231', 'http://www.wikidata.org/entity/Q111744233', 'http://www.wikidata.org/entity/Q111744287', 'http://www.wikidata.org/entity/Q111750057', 'http://www.wikidata.org/entity/Q111750098', 'http://www.wikidata.org/entity/Q111750104', 'http://www.wikidata.org/entity/Q111750108', 'http://www.wikidata.org/entity/Q111750391', 'http://www.wikidata.org/entity/Q111750396', 'http://www.wikidata.org/entity/Q111750414', 'http://www.wikidata.org/entity/Q111750482', 'http://www.wikidata.org/entity/Q111750486', 'http://www.wikidata.org/entity/Q111750538', 'http://www.wikidata.org/entity/Q111750619', 'http://www.wikidata.org/entity/Q111750632', 'http://www.wikidata.org/entity/Q111750636', 'http://www.wikidata.org/entity/Q111750803', 'http://www.wikidata.org/entity/Q111772339', 'http://www.wikidata.org/entity/Q111772429', 'http://www.wikidata.org/entity/Q111772455', 'http://www.wikidata.org/entity/Q111772465', 'http://www.wikidata.org/entity/Q111772467', 'http://www.wikidata.org/entity/Q111772470', 'http://www.wikidata.org/entity/Q111772479', 'http://www.wikidata.org/entity/Q111772481', 'http://www.wikidata.org/entity/Q111772492', 'http://www.wikidata.org/entity/Q111772538', 'http://www.wikidata.org/entity/Q111772542', 'http://www.wikidata.org/entity/Q111772579', 'http://www.wikidata.org/entity/Q111772903', 'http://www.wikidata.org/entity/Q111774488', 'http://www.wikidata.org/entity/Q111774855', 'http://www.wikidata.org/entity/Q111775976', 'http://www.wikidata.org/entity/Q111781307', 'http://www.wikidata.org/entity/Q111781313', 'http://www.wikidata.org/entity/Q111781415', 'http://www.wikidata.org/entity/Q111782305', 'http://www.wikidata.org/entity/Q111782406', 'http://www.wikidata.org/entity/Q111792237', 'http://www.wikidata.org/entity/Q111792287', 'http://www.wikidata.org/entity/Q111792297', 'http://www.wikidata.org/entity/Q111792422', 'http://www.wikidata.org/entity/Q111792427', 'http://www.wikidata.org/entity/Q111792455', 'http://www.wikidata.org/entity/Q111792652', 'http://www.wikidata.org/entity/Q111792657', 'http://www.wikidata.org/entity/Q111792669', 'http://www.wikidata.org/entity/Q111795166', 'http://www.wikidata.org/entity/Q111795170', 'http://www.wikidata.org/entity/Q111795181', 'http://www.wikidata.org/entity/Q111795190', 'http://www.wikidata.org/entity/Q111795208', 'http://www.wikidata.org/entity/Q111795217', 'http://www.wikidata.org/entity/Q111795226', 'http://www.wikidata.org/entity/Q111795230', 'http://www.wikidata.org/entity/Q111795234', 'http://www.wikidata.org/entity/Q111795238', 'http://www.wikidata.org/entity/Q111798789', 'http://www.wikidata.org/entity/Q111799191', 'http://www.wikidata.org/entity/Q111799265', 'http://www.wikidata.org/entity/Q111799326', 'http://www.wikidata.org/entity/Q111799364', 'http://www.wikidata.org/entity/Q111799715', 'http://www.wikidata.org/entity/Q111800151', 'http://www.wikidata.org/entity/Q111800560', 'http://www.wikidata.org/entity/Q111800590', 'http://www.wikidata.org/entity/Q111800661', 'http://www.wikidata.org/entity/Q111800678', 'http://www.wikidata.org/entity/Q111800735', 'http://www.wikidata.org/entity/Q111800758', 'http://www.wikidata.org/entity/Q111801201', 'http://www.wikidata.org/entity/Q111801219', 'http://www.wikidata.org/entity/Q111801257', 'http://www.wikidata.org/entity/Q111801366', 'http://www.wikidata.org/entity/Q111801395', 'http://www.wikidata.org/entity/Q111801411', 'http://www.wikidata.org/entity/Q111801450', 'http://www.wikidata.org/entity/Q111801507', 'http://www.wikidata.org/entity/Q111801550', 'http://www.wikidata.org/entity/Q111810594', 'http://www.wikidata.org/entity/Q111810721', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111811624', 'http://www.wikidata.org/entity/Q111811681', 'http://www.wikidata.org/entity/Q111812563', 'http://www.wikidata.org/entity/Q111812584', 'http://www.wikidata.org/entity/Q111812855', 'http://www.wikidata.org/entity/Q111816790', 'http://www.wikidata.org/entity/Q111817714', 'http://www.wikidata.org/entity/Q111817744', 'http://www.wikidata.org/entity/Q111817829', 'http://www.wikidata.org/entity/Q111817846', 'http://www.wikidata.org/entity/Q111817920', 'http://www.wikidata.org/entity/Q111818123', 'http://www.wikidata.org/entity/Q111824276', 'http://www.wikidata.org/entity/Q111824296', 'http://www.wikidata.org/entity/Q111824414', 'http://www.wikidata.org/entity/Q111824439', 'http://www.wikidata.org/entity/Q111824771', 'http://www.wikidata.org/entity/Q111824800', 'http://www.wikidata.org/entity/Q111824823', 'http://www.wikidata.org/entity/Q111824918', 'http://www.wikidata.org/entity/Q111825400', 'http://www.wikidata.org/entity/Q111825424', 'http://www.wikidata.org/entity/Q111825449', 'http://www.wikidata.org/entity/Q111825554', 'http://www.wikidata.org/entity/Q111825613', 'http://www.wikidata.org/entity/Q111825677', 'http://www.wikidata.org/entity/Q111825713', 'http://www.wikidata.org/entity/Q111825832', 'http://www.wikidata.org/entity/Q111826063', 'http://www.wikidata.org/entity/Q111826089', 'http://www.wikidata.org/entity/Q111830034', 'http://www.wikidata.org/entity/Q111830188', 'http://www.wikidata.org/entity/Q111837290', 'http://www.wikidata.org/entity/Q111837438', 'http://www.wikidata.org/entity/Q111837464', 'http://www.wikidata.org/entity/Q111837474', 'http://www.wikidata.org/entity/Q111837785', 'http://www.wikidata.org/entity/Q111837834', 'http://www.wikidata.org/entity/Q111837845', 'http://www.wikidata.org/entity/Q111837855', 'http://www.wikidata.org/entity/Q111837912', 'http://www.wikidata.org/entity/Q111837991', 'http://www.wikidata.org/entity/Q111848069', 'http://www.wikidata.org/entity/Q111848409', 'http://www.wikidata.org/entity/Q111848456', 'http://www.wikidata.org/entity/Q111848558', 'http://www.wikidata.org/entity/Q111848588', 'http://www.wikidata.org/entity/Q111848721', 'http://www.wikidata.org/entity/Q111848749', 'http://www.wikidata.org/entity/Q111848889', 'http://www.wikidata.org/entity/Q111903596', 'http://www.wikidata.org/entity/Q111903847', 'http://www.wikidata.org/entity/Q111903850', 'http://www.wikidata.org/entity/Q111903876', 'http://www.wikidata.org/entity/Q111903878', 'http://www.wikidata.org/entity/Q111903929', 'http://www.wikidata.org/entity/Q111903935', 'http://www.wikidata.org/entity/Q111903958', 'http://www.wikidata.org/entity/Q111904025', 'http://www.wikidata.org/entity/Q111904053', 'http://www.wikidata.org/entity/Q111904059', 'http://www.wikidata.org/entity/Q111904155', 'http://www.wikidata.org/entity/Q111905212', 'http://www.wikidata.org/entity/Q111905225', 'http://www.wikidata.org/entity/Q111905272', 'http://www.wikidata.org/entity/Q111906585', 'http://www.wikidata.org/entity/Q111906632', 'http://www.wikidata.org/entity/Q111906707', 'http://www.wikidata.org/entity/Q111907290', 'http://www.wikidata.org/entity/Q111907317', 'http://www.wikidata.org/entity/Q111908878', 'http://www.wikidata.org/entity/Q111908880', 'http://www.wikidata.org/entity/Q111908884', 'http://www.wikidata.org/entity/Q111908910', 'http://www.wikidata.org/entity/Q111909231', 'http://www.wikidata.org/entity/Q111909314', 'http://www.wikidata.org/entity/Q111909357', 'http://www.wikidata.org/entity/Q111909361', 'http://www.wikidata.org/entity/Q111909369', 'http://www.wikidata.org/entity/Q111909483', 'http://www.wikidata.org/entity/Q111909520', 'http://www.wikidata.org/entity/Q111909557', 'http://www.wikidata.org/entity/Q111909632', 'http://www.wikidata.org/entity/Q111909656', 'http://www.wikidata.org/entity/Q111909659', 'http://www.wikidata.org/entity/Q111909665', 'http://www.wikidata.org/entity/Q111909679', 'http://www.wikidata.org/entity/Q111909683', 'http://www.wikidata.org/entity/Q111909686', 'http://www.wikidata.org/entity/Q111918622', 'http://www.wikidata.org/entity/Q111972328', 'http://www.wikidata.org/entity/Q111972588', 'http://www.wikidata.org/entity/Q111972596', 'http://www.wikidata.org/entity/Q111972626', 'http://www.wikidata.org/entity/Q111972641', 'http://www.wikidata.org/entity/Q111972655', 'http://www.wikidata.org/entity/Q111972667', 'http://www.wikidata.org/entity/Q111972760', 'http://www.wikidata.org/entity/Q111972775', 'http://www.wikidata.org/entity/Q111981575', 'http://www.wikidata.org/entity/Q111981578', 'http://www.wikidata.org/entity/Q111981586', 'http://www.wikidata.org/entity/Q111981600', 'http://www.wikidata.org/entity/Q111981655', 'http://www.wikidata.org/entity/Q111981806', 'http://www.wikidata.org/entity/Q111984435', 'http://www.wikidata.org/entity/Q111993442', 'http://www.wikidata.org/entity/Q111993561', 'http://www.wikidata.org/entity/Q112028016', 'http://www.wikidata.org/entity/Q112028058', 'http://www.wikidata.org/entity/Q112030707', 'http://www.wikidata.org/entity/Q112037464', 'http://www.wikidata.org/entity/Q112038287', 'http://www.wikidata.org/entity/Q112040430', 'http://www.wikidata.org/entity/Q112053302', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112063713', 'http://www.wikidata.org/entity/Q112087493', 'http://www.wikidata.org/entity/Q112127176', 'http://www.wikidata.org/entity/Q112183753', 'http://www.wikidata.org/entity/Q112190885', 'http://www.wikidata.org/entity/Q112263083', 'http://www.wikidata.org/entity/Q112667083', 'http://www.wikidata.org/entity/Q112667550', 'http://www.wikidata.org/entity/Q112669313', 'http://www.wikidata.org/entity/Q112669383', 'http://www.wikidata.org/entity/Q112681996', 'http://www.wikidata.org/entity/Q112746421', 'http://www.wikidata.org/entity/Q112747808', 'http://www.wikidata.org/entity/Q112894949', 'http://www.wikidata.org/entity/Q112894986', 'http://www.wikidata.org/entity/Q113015050', 'http://www.wikidata.org/entity/Q113072738', 'http://www.wikidata.org/entity/Q1131707', 'http://www.wikidata.org/entity/Q113272299', 'http://www.wikidata.org/entity/Q113272409', 'http://www.wikidata.org/entity/Q113272932', 'http://www.wikidata.org/entity/Q113499373', 'http://www.wikidata.org/entity/Q113499494', 'http://www.wikidata.org/entity/Q113650760', 'http://www.wikidata.org/entity/Q11368765', 'http://www.wikidata.org/entity/Q113811579', 'http://www.wikidata.org/entity/Q113813231', 'http://www.wikidata.org/entity/Q113828978', 'http://www.wikidata.org/entity/Q113830063', 'http://www.wikidata.org/entity/Q113841626', 'http://www.wikidata.org/entity/Q113849016', 'http://www.wikidata.org/entity/Q113860611', 'http://www.wikidata.org/entity/Q113860644', 'http://www.wikidata.org/entity/Q113861194', 'http://www.wikidata.org/entity/Q113882354', 'http://www.wikidata.org/entity/Q113884368', 'http://www.wikidata.org/entity/Q113901976', 'http://www.wikidata.org/entity/Q113904662', 'http://www.wikidata.org/entity/Q1139536', 'http://www.wikidata.org/entity/Q113955599', 'http://www.wikidata.org/entity/Q113955616', 'http://www.wikidata.org/entity/Q113955620', 'http://www.wikidata.org/entity/Q113955692', 'http://www.wikidata.org/entity/Q113961851', 'http://www.wikidata.org/entity/Q113961888', 'http://www.wikidata.org/entity/Q113961932', 'http://www.wikidata.org/entity/Q114028189', 'http://www.wikidata.org/entity/Q114046091', 'http://www.wikidata.org/entity/Q114056617', 'http://www.wikidata.org/entity/Q114057278', 'http://www.wikidata.org/entity/Q114059225', 'http://www.wikidata.org/entity/Q114243677', 'http://www.wikidata.org/entity/Q114454471', 'http://www.wikidata.org/entity/Q1145566', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q114582556', 'http://www.wikidata.org/entity/Q114588676', 'http://www.wikidata.org/entity/Q114604', 'http://www.wikidata.org/entity/Q114947458', 'http://www.wikidata.org/entity/Q114948159', 'http://www.wikidata.org/entity/Q114996688', 'http://www.wikidata.org/entity/Q114997174', 'http://www.wikidata.org/entity/Q115341348', 'http://www.wikidata.org/entity/Q115367992', 'http://www.wikidata.org/entity/Q115397386', 'http://www.wikidata.org/entity/Q115517924', 'http://www.wikidata.org/entity/Q115764515', 'http://www.wikidata.org/entity/Q115801523', 'http://www.wikidata.org/entity/Q115912774', 'http://www.wikidata.org/entity/Q115990472', 'http://www.wikidata.org/entity/Q116414186', 'http://www.wikidata.org/entity/Q116690653', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117695225', 'http://www.wikidata.org/entity/Q117751349', 'http://www.wikidata.org/entity/Q117795094', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q118128483', 'http://www.wikidata.org/entity/Q11921906', 'http://www.wikidata.org/entity/Q11938851', 'http://www.wikidata.org/entity/Q119496586', 'http://www.wikidata.org/entity/Q11993043', 'http://www.wikidata.org/entity/Q1207931', 'http://www.wikidata.org/entity/Q1207932', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q121886956', 'http://www.wikidata.org/entity/Q122068698', 'http://www.wikidata.org/entity/Q122188018', 'http://www.wikidata.org/entity/Q12228863', 'http://www.wikidata.org/entity/Q12228866', 'http://www.wikidata.org/entity/Q12228868', 'http://www.wikidata.org/entity/Q12228876', 'http://www.wikidata.org/entity/Q12228884', 'http://www.wikidata.org/entity/Q12252186', 'http://www.wikidata.org/entity/Q12277858', 'http://www.wikidata.org/entity/Q122832546', 'http://www.wikidata.org/entity/Q12314502', 'http://www.wikidata.org/entity/Q123337193', 'http://www.wikidata.org/entity/Q123592992', 'http://www.wikidata.org/entity/Q12361577', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q12376028', 'http://www.wikidata.org/entity/Q12378350', 'http://www.wikidata.org/entity/Q124036138', 'http://www.wikidata.org/entity/Q12407929', 'http://www.wikidata.org/entity/Q12411505', 'http://www.wikidata.org/entity/Q124367042', 'http://www.wikidata.org/entity/Q124504910', 'http://www.wikidata.org/entity/Q124564384', 'http://www.wikidata.org/entity/Q124612831', 'http://www.wikidata.org/entity/Q124615758', 'http://www.wikidata.org/entity/Q124619352', 'http://www.wikidata.org/entity/Q124620804', 'http://www.wikidata.org/entity/Q124620822', 'http://www.wikidata.org/entity/Q124707699', 'http://www.wikidata.org/entity/Q124820083', 'http://www.wikidata.org/entity/Q124830280', 'http://www.wikidata.org/entity/Q124857570', 'http://www.wikidata.org/entity/Q124858688', 'http://www.wikidata.org/entity/Q124858953', 'http://www.wikidata.org/entity/Q125149734', 'http://www.wikidata.org/entity/Q125205121', 'http://www.wikidata.org/entity/Q1254268', 'http://www.wikidata.org/entity/Q125510673', 'http://www.wikidata.org/entity/Q125511630', 'http://www.wikidata.org/entity/Q125521675', 'http://www.wikidata.org/entity/Q125521758', 'http://www.wikidata.org/entity/Q125555445', 'http://www.wikidata.org/entity/Q125566609', 'http://www.wikidata.org/entity/Q125577561', 'http://www.wikidata.org/entity/Q125592462', 'http://www.wikidata.org/entity/Q12560060', 'http://www.wikidata.org/entity/Q125688458', 'http://www.wikidata.org/entity/Q125688603', 'http://www.wikidata.org/entity/Q125700972', 'http://www.wikidata.org/entity/Q125704427', 'http://www.wikidata.org/entity/Q125747483', 'http://www.wikidata.org/entity/Q125749644', 'http://www.wikidata.org/entity/Q125758800', 'http://www.wikidata.org/entity/Q125759229', 'http://www.wikidata.org/entity/Q125845551', 'http://www.wikidata.org/entity/Q12584835', 'http://www.wikidata.org/entity/Q125856465', 'http://www.wikidata.org/entity/Q125867175', 'http://www.wikidata.org/entity/Q125867458', 'http://www.wikidata.org/entity/Q125867756', 'http://www.wikidata.org/entity/Q125867888', 'http://www.wikidata.org/entity/Q125869488', 'http://www.wikidata.org/entity/Q125879646', 'http://www.wikidata.org/entity/Q125879891', 'http://www.wikidata.org/entity/Q125883649', 'http://www.wikidata.org/entity/Q125883847', 'http://www.wikidata.org/entity/Q125890530', 'http://www.wikidata.org/entity/Q125890753', 'http://www.wikidata.org/entity/Q125891443', 'http://www.wikidata.org/entity/Q125891720', 'http://www.wikidata.org/entity/Q125895110', 'http://www.wikidata.org/entity/Q125895155', 'http://www.wikidata.org/entity/Q125899181', 'http://www.wikidata.org/entity/Q125899513', 'http://www.wikidata.org/entity/Q125901134', 'http://www.wikidata.org/entity/Q125903138', 'http://www.wikidata.org/entity/Q125910729', 'http://www.wikidata.org/entity/Q125910806', 'http://www.wikidata.org/entity/Q125911055', 'http://www.wikidata.org/entity/Q125911072', 'http://www.wikidata.org/entity/Q125914666', 'http://www.wikidata.org/entity/Q125914885', 'http://www.wikidata.org/entity/Q125921693', 'http://www.wikidata.org/entity/Q125922831', 'http://www.wikidata.org/entity/Q125922882', 'http://www.wikidata.org/entity/Q125926636', 'http://www.wikidata.org/entity/Q125932740', 'http://www.wikidata.org/entity/Q125936101', 'http://www.wikidata.org/entity/Q125936683', 'http://www.wikidata.org/entity/Q125956876', 'http://www.wikidata.org/entity/Q125959131', 'http://www.wikidata.org/entity/Q125965703', 'http://www.wikidata.org/entity/Q125966437', 'http://www.wikidata.org/entity/Q125966992', 'http://www.wikidata.org/entity/Q125968806', 'http://www.wikidata.org/entity/Q125969610', 'http://www.wikidata.org/entity/Q125970539', 'http://www.wikidata.org/entity/Q125984409', 'http://www.wikidata.org/entity/Q125984492', 'http://www.wikidata.org/entity/Q125994583', 'http://www.wikidata.org/entity/Q125997034', 'http://www.wikidata.org/entity/Q125998688', 'http://www.wikidata.org/entity/Q125998803', 'http://www.wikidata.org/entity/Q125998897', 'http://www.wikidata.org/entity/Q125999072', 'http://www.wikidata.org/entity/Q12599950', 'http://www.wikidata.org/entity/Q126010095', 'http://www.wikidata.org/entity/Q126010128', 'http://www.wikidata.org/entity/Q126028447', 'http://www.wikidata.org/entity/Q126028546', 'http://www.wikidata.org/entity/Q126032653', 'http://www.wikidata.org/entity/Q126126323', 'http://www.wikidata.org/entity/Q126126778', 'http://www.wikidata.org/entity/Q12613371', 'http://www.wikidata.org/entity/Q12629515', 'http://www.wikidata.org/entity/Q126325524', 'http://www.wikidata.org/entity/Q126361854', 'http://www.wikidata.org/entity/Q126362969', 'http://www.wikidata.org/entity/Q126371412', 'http://www.wikidata.org/entity/Q126371457', 'http://www.wikidata.org/entity/Q126371864', 'http://www.wikidata.org/entity/Q126371886', 'http://www.wikidata.org/entity/Q126372368', 'http://www.wikidata.org/entity/Q126372458', 'http://www.wikidata.org/entity/Q126372576', 'http://www.wikidata.org/entity/Q126415038', 'http://www.wikidata.org/entity/Q126456102', 'http://www.wikidata.org/entity/Q126477003', 'http://www.wikidata.org/entity/Q126477086', 'http://www.wikidata.org/entity/Q126477151', 'http://www.wikidata.org/entity/Q126477162', 'http://www.wikidata.org/entity/Q126478091', 'http://www.wikidata.org/entity/Q126478228', 'http://www.wikidata.org/entity/Q126511431', 'http://www.wikidata.org/entity/Q126513767', 'http://www.wikidata.org/entity/Q126593634', 'http://www.wikidata.org/entity/Q12663413', 'http://www.wikidata.org/entity/Q126666887', 'http://www.wikidata.org/entity/Q126709387', 'http://www.wikidata.org/entity/Q126721902', 'http://www.wikidata.org/entity/Q126726117', 'http://www.wikidata.org/entity/Q126811008', 'http://www.wikidata.org/e</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
+          <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">

--- a/QALD9-Plus-testing/baseline-model/baseline-dbpedia-wikidata/baseline_lama_dbpedia_wikidata_results_comparison.xlsx
+++ b/QALD9-Plus-testing/baseline-model/baseline-dbpedia-wikidata/baseline_lama_dbpedia_wikidata_results_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['10960', 'http://www.wikidata.org/entity/Q12152']</t>
+          <t>['http://www.wikidata.org/entity/Q1324130']</t>
         </is>
       </c>
       <c r="D2" t="b">
@@ -478,17 +478,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>What is the population of Cairo?</t>
+          <t>Where was JFK assassinated?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['9606916']</t>
+          <t>['http://www.wikidata.org/entity/Q3896131']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['by i California i USA', 'city in San Diego County, United States', 'ciudad en el norte del condado de San Diego, California, Estados Unidos', 'mesto v Kaliforniji', 'plaats in Californië', 'sídlo ve státě Kalifornie v USA', 'stad i Kalifornien, USA', 'Stadt in Kalifornien, USA', 'város az USA Kalifornia államában, San Diego megyében', 'ville américaine en Californie', 'Әмирикә Кушма Штатлары шәһәре', 'город в Калифорнии', 'місто, США, штат Каліфорнія', 'Քաղաք ԱՄՆ-ի Կալիֆոռնիա նահանգի Սան Դիեգո շրջանում', 'עיר בארצות הברית', 'کیلیفورنیا، ریاستہائے متحدہ میں شہر', 'مدينة في مقاطعة سان دييغو، الولايات المتحدة', 'アメリカ合衆国カリフォルニア州の都市', 'Abaʼtó', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Eskondida', 'Eskondidas', 'Εσκοντίντο', 'Ескондидо', 'Ескондидо', 'Ескондідо', 'Эскандыда', 'Эскондидо', 'Эскондидо', 'Эскондидо', 'אסקונדידו', 'إسكونديدو', 'ئێسکۆندیدۆ', 'اسكونديدو', 'اسکؤنديدؤ (کاليفؤرنيا)', 'اسکاندیدو', 'اسکاندیدو (کالیفورنیا)', 'اسکونڈیڈو', 'زکوندیدو، کالیفورنیا', 'یسکوندیدو', 'इस्\u200dकोंडिडो', 'एस्कन्डिडो', 'एस्कोंदिदो', 'এস্কনডিডো', 'એસ્કોન્ડીડો', 'எஸ்கோண்டிடோ', 'ఎస్కోన్ డిడో', 'ಎಸ್ಕಾಂಡಿಡೊ', 'എസ്കോണ്ടിഡോ', 'එස්කොන්ඩිඩෝ', 'เอสคอนดิโด้', '에스콘디도', 'エスコンディード', '埃斯孔迪多', '埃斯孔迪多', 'http://wikiba.se/ontology#Item', 'Abaʼtó', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Eskondida', 'Eskondidas', 'Εσκοντίντο', 'Ескондидо', 'Ескондидо', 'Ескондідо', 'Эскандыда', 'Эскондидо', 'Эскондидо', 'Эскондидо', 'אסקונדידו', 'إسكونديدو', 'ئێسکۆندیدۆ', 'اسكونديدو', 'اسکؤنديدؤ (کاليفؤرنيا)', 'اسکاندیدو', 'اسکاندیدو (کالیفورنیا)', 'اسکونڈیڈو', 'زکوندیدو، کالیفورنیا', 'یسکوندیدو', 'इस्\u200dकोंडिडो', 'एस्कन्डिडो', 'एस्कोंदिदो', 'এস্কনডিডো', 'એસ્કોન્ડીડો', 'எஸ்கோண்டிடோ', 'ఎస్కోన్ డిడో', 'ಎಸ್ಕಾಂಡಿಡೊ', 'എസ്കോണ്ടിഡോ', 'එස්කොන්ඩිඩෝ', 'เอสคอนดิโด้', '에스콘디도', 'エスコンディード', '埃斯孔迪多', '埃斯孔迪多', 'Escondido, CA', 'Escondido, California', 'Escondido, California', 'Escondido, California', 'ایسکونڈیڈو، کیلیفورنیا', 'एस्कन्डिडो (क्यालिफोर्निया)', '艾斯康迪多', 'Abaʼtó', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Eskondida', 'Eskondidas', 'Εσκοντίντο', 'Ескондидо', 'Ескондидо', 'Ескондідо', 'Эскандыда', 'Эскондидо', 'Эскондидо', 'Эскондидо', 'אסקונדידו', 'إسكونديدو', 'ئێسکۆندیدۆ', 'اسكونديدو', 'اسکؤنديدؤ (کاليفؤرنيا)', 'اسکاندیدو', 'اسکاندیدو (کالیفورنیا)', 'اسکونڈیڈو', 'زکوندیدو، کالیفورنیا', 'یسکوندیدو', 'इस्\u200dकोंडिडो', 'एस्कन्डिडो', 'एस्कोंदिदो', 'এস্কনডিডো', 'એસ્કોન્ડીડો', 'எஸ்கோண்டிடோ', 'ఎస్కోన్ డిడో', 'ಎಸ್ಕಾಂಡಿಡೊ', 'എസ്കോണ്ടിഡോ', 'එස්කොන්ඩිඩෝ', 'เอสคอนดิโด้', '에스콘디도', 'エスコンディード', '埃斯孔迪多', '埃斯孔迪多', 'https://sws.geonames.org/5346827/', 'http://viaf.org/viaf/295675989', 'https://d-nb.info/gnd/4436496-9', 'http://id.loc.gov/authorities/names/n82032019', 'https://www.openstreetmap.org/relation/253827', 'http://gnis-ld.org/lod/gnis/feature/1652706', 'http://gnis-ld.org/lod/gnis/feature/2410455', 'https://database.factgrid.de/entity/Q239611', 'https://data.rkd.nl/thesau/29740', 'http://musicbrainz.org/area/3e9d5c97-ac8c-4169-aac6-03c63b6b3b52', '29557', '151038', 'E39PBJvRRHkhMDrr8dBQqDmw4q', '10040552', 'escondido', '0444820', 'http://www.wikidata.org/entity/Q108143', 'http://www.wikidata.org/entity/Q110720407', 'place/Escondido', 'http://www.wikidata.org/entity/Q18664540', 'http://www.wikidata.org/entity/Q18857676', '48724', '5346827', 'http://commons.wikimedia.org/wiki/Special:FilePath/Seal%20of%20Escondido%2C%20California.png', 'http://www.wikidata.org/entity/Q30', 'http://www.wikidata.org/entity/Q8733449', 'http://commons.wikimedia.org/wiki/Special:FilePath/Grand01.jpg', 'USECD', '197', '95.8006', '96.471', '295675989', '4436496-9', 'http://commons.wikimedia.org/wiki/Special:FilePath/San%20Diego%20County%20California%20Incorporated%20and%20Unincorporated%20areas%20Escondido%20Highlighted.svg', 'n82032019', '92025–92027, 92029', '0.4759', 'http://www.wikidata.org/entity/Q1093829', 'http://www.wikidata.org/entity/Q1549591', 'Escondido-CA', 'Escondido, California', '253827', 'http://commons.wikimedia.org/wiki/Special:FilePath/Flag%20of%20Escondido%2C%20California.svg', 'http://www.wikidata.org/entity/Q847142', '760', '8974', '1888-01-01T00:00:00Z', '1652706', '2410455', 'http://www.wikidata.org/entity/Q111972877', 'Point(-117.080833 33.124722)', '/m/0r4z7', '85922263', '06-22804', 'Q239611', '987007559741705171', '29740', 'http://www.escondido.org', '0.455887', 'http://www.wikidata.org/entity/Q6231455', '3e9d5c97-ac8c-4169-aac6-03c63b6b3b52', 'Regional/North_America/United_States/California/Localities/E/Escondido/', 'http://www.wikidata.org/entity/statement/Q372454-BE9025DB-D448-48AF-AE7E-04878742D740', 'http://www.wikidata.org/entity/statement/Q372454-0D3DB6F5-5912-4208-A659-A61E0A6EA895', 'http://www.wikidata.org/entity/statement/Q372454-9FF1AC57-5F53-43A0-A91D-1FDD9789C869', 'http://www.wikidata.org/entity/statement/Q372454-F9DDB805-3A59-4291-8ACF-4950BEA01CF4', 'http://www.wikidata.org/entity/statement/Q372454-7768fe71-4d50-767e-3c45-b0d3aed7e5df', 'http://www.wikidata.org/entity/statement/Q372454-DD47153A-D807-4F06-837C-B568D4B980F7', 'http://www.wikidata.org/entity/statement/Q372454-3760d5ad-7298-4b51-a6b3-fc3dc5dbee2a', 'http://www.wikidata.org/entity/statement/Q372454-7F0A7729-EF50-441E-81F9-A72E41A93A39', 'http://www.wikidata.org/entity/statement/q372454-30631F07-694A-40F6-8E5F-CC867F711227', 'http://www.wikidata.org/entity/statement/Q372454-12d1ee08-4b96-d43c-56cd-61979300382f', 'http://www.wikidata.org/entity/statement/Q372454-6A52F28E-0870-417A-8AE9-2ACA0DD12B41', 'http://www.wikidata.org/entity/statement/Q372454-C9089507-7FE1-469C-AFB2-650E81402668', 'http://www.wikidata.org/entity/statement/Q372454-34E31F94-8266-43B3-8E4C-3D876BA0DAB3', 'http://www.wikidata.org/entity/statement/Q372454-006F1A61-A5AA-4F5A-8186-39FFE776989D', 'http://www.wikidata.org/entity/statement/Q372454-28B58BE1-3D54-4926-9FF7-120B040D00EE', 'http://www.wikidata.org/entity/statement/Q372454-DDC531E2-2F3E-4FCC-9363-3DF4EA02FFFD', 'http://www.wikidata.org/entity/statement/q372454-D329CF88-E158-49B0-9B9B-FA9C5953FD46', 'http://www.wikidata.org/entity/statement/Q372454-387FB2C6-B7C3-4EFF-BCA8-3F39E45667EA', 'http://www.wikidata.org/entity/statement/Q372454-82c7c281-43c7-65af-e18b-9fe58770dcab', 'http://www.wikidata.org/entity/statement/Q372454-eab1168b-09da-4570-b0db-2a960361420b', 'http://www.wikidata.org/entity/statement/Q372454-DC5AAC23-1954-44AC-AA13-7154CD95B552', 'http://www.wikidata.org/entity/statement/Q372454-16452403-9593-40E7-94B1-D78B44E92B61', 'http://www.wikidata.org/entity/statement/Q372454-3032C624-2BAB-4DDB-B0E6-0E4ACAB552A3', 'http://www.wikidata.org/entity/statement/Q372454-E107B9B7-98D0-4165-A882-F2681D63A7EF', 'http://www.wikidata.org/entity/statement/Q372454-C8FD320D-F0D4-4CE7-BEB2-D1DBACCEF011', 'http://www.wikidata.org/entity/statement/Q372454-3A31B7F7-2A7B-4DA4-97D1-5ABF6C73EEE3', 'http://www.wikidata.org/entity/statement/Q372454-162D0F8C-AF51-4174-B6B1-910E5302F794', 'http://www.wikidata.org/entity/statement/Q372454-820AFA83-D6EA-4D19-93D2-1FBFB2A88A51', 'http://www.wikidata.org/entity/statement/Q372454-4090B8AF-1B8A-4464-9DDC-2EC5D136CCFE', 'http://www.wikidata.org/entity/statement/q372454-2B93C8BE-CE4B-43BF-BF95-AE6D3454F300', 'http://www.wikidata.org/entity/statement/Q372454-F17BA702-3621-48EB-B01C-FB9126627CC4', 'http://www.wikidata.org/entity/statement/Q372454-967d6ad4-42af-6de6-575c-99ba6b3d58bf', 'http://www.wikidata.org/entity/statement/q372454-D7BFB225-F91A-4AA8-8162-C78BA2D714BA', 'http://www.wikidata.org/entity/statement/Q372454-3CAE5122-85C3-4832-AEFF-C1BD3E6B8861', 'http://www.wikidata.org/entity/statement/Q372454-CD1E4456-6F0F-4EC8-A04C-8B4A7E164047', 'http://www.wikidata.org/entity/statement/Q372454-B792340E-1492-4F3D-8081-B27A85B643B7', 'http://www.wikidata.org/entity/statement/Q372454-B4941F11-97B5-4122-B085-88B1EAF5B93E', 'http://www.wikidata.org/entity/statement/Q372454-DD497AFB-E38A-4EDB-AECC-B2040C930C13', 'http://www.wikidata.org/entity/statement/Q372454-F70C2528-EDB4-4CF3-B0DE-3B617109568F', 'http://www.wikidata.org/entity/statement/Q372454-1C3D4F28-E01C-46C6-9C4F-1B09523231E6', 'http://www.wikidata.org/entity/statement/Q372454-A9830D8E-138F-4484-9E6F-35E1DEACC834', 'http://www.wikidata.org/entity/statement/Q372454-c728ac18-454d-21ea-d961-cc410dd60b70', 'http://www.wikidata.org/entity/statement/q372454-C6501D3F-CB89-47CE-BE97-06332F3A1425', 'http://www.wikidata.org/entity/statement/Q372454-F8B5F51C-9C36-4410-B2C3-F84B90001AB4', 'http://www.wikidata.org/entity/statement/Q372454-F183B65E-AACD-4F68-BAA4-51E62F701082', 'http://www.wikidata.org/entity/statement/Q372454-41D3C44A-644A-410A-8C12-AC15D277947E', 'http://www.wikidata.org/entity/statement/Q372454-5C85A938-8196-44DE-83CE-9BD593E14FDB', 'http://www.wikidata.org/entity/statement/Q372454-391E3FD0-F3E0-428E-AB2F-A6138C83870A', 'http://www.wikidata.org/entity/statement/Q372454-9a45d606-6562-4354-aa69-3390816989b7', 'http://www.wikidata.org/entity/statement/Q372454-B9D46C87-C488-4C90-8BD7-DFB0480FE141', 'http://www.wikidata.org/entity/statement/Q372454-1B27691D-49EC-4E5B-A3B0-E1473ACFCDD5', 'http://www.wikidata.org/entity/statement/Q372454-E974116B-0B55-457A-A9F5-4A9FDA72F538', 'http://www.wikidata.org/entity/statement/Q372454-8B813D43-582B-42C0-A9A8-1543A50C14F4', 'http://www.wikidata.org/entity/statement/Q372454-0A65539E-74EB-468D-B09B-06EF3B1CBEE3', 'مدينة في مقاطعة سان دييغو، الولايات المتحدة', 'إسكونديدو', 'إسكونديدو', 'إسكونديدو', 'اسكونديدو', 'اسكونديدو', 'اسكونديدو', 'Escondido', 'Escondido', 'Escondido', 'زکوندیدو، کالیفورنیا', 'زکوندیدو، کالیفورنیا', 'زکوندیدو، کالیفورنیا', 'Эскандыда', 'Эскандыда', 'Эскандыда', 'Ескондидо', 'Ескондидо', 'Ескондидо', 'এস্কনডিডো', 'এস্কনডিডো', 'এস্কনডিডো', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Эскондидо', 'Эскондидо', 'Эскондидо', 'ئێسکۆندیدۆ', 'ئێسکۆندیدۆ', 'ئێسکۆندیدۆ', 'sídlo ve státě Kalifornie v USA', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Stadt in Kalifornien, USA', 'Escondido', 'Escondido', 'Escondido', 'Εσκοντίντο', 'Εσκοντίντο', 'Εσκοντίντο', 'city in San Diego County, United States', 'Escondido', 'Escondido', 'Escondido, CA', 'Escondido, California', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'ciudad en el norte del condado de San Diego, California, Estados Unidos', 'Escondido', 'Escondido', 'Escondido, California', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'اسکاندیدو', 'اسکاندیدو', 'اسکاندیدو', 'Escondido', 'Escondido', 'Escondido', 'ville américaine en Californie', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'اسکؤنديدؤ (کاليفؤرنيا)', 'اسکؤنديدؤ (کاليفؤرنيا)', 'اسکؤنديدؤ (کاليفؤرنيا)', 'એસ્કોન્ડીડો', 'એસ્કોન્ડીડો', 'એસ્કોન્ડીડો', 'עיר בארצות הברית', 'אסקונדידו', 'אסקונדידו', 'אסקונדידו', 'एस्कोंदिदो', 'एस्कोंदिदो', 'एस्कोंदिदो', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'város az USA Kalifornia államában, San Diego megyében', 'Escondido', 'Escondido', 'Escondido', 'Քաղաք ԱՄՆ-ի Կալիֆոռնիա նահանգի Սան Դիեգո շրջանում', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'アメリカ合衆国カリフォルニア州の都市', 'エスコンディード', 'エスコンディード', 'エスコンディード', 'ಎಸ್ಕಾಂಡಿಡೊ', 'ಎಸ್ಕಾಂಡಿಡೊ', 'ಎಸ್ಕಾಂಡಿಡೊ', '에스콘디도', '에스콘디도', '에스콘디도', 'Escondido', 'Escondido', 'Escondido', 'Eskondidas', 'Eskondidas', 'Eskondidas', 'Eskondida', 'Eskondida', 'Eskondida', 'Escondido', 'Escondido', 'Escondido', 'എസ്കോണ്ടിഡോ', 'എസ്കോണ്ടിഡോ', 'എസ്കോണ്ടിഡോ', 'इस्\u200dकोंडिडो', 'इस्\u200dकोंडिडो', 'इस्\u200dकोंडिडो', 'Escondido', 'Escondido', 'Escondido', 'اسکاندیدو (کالیفورنیا)', 'اسکاندیدو (کالیفورنیا)', 'اسکاندیدو (کالیفورنیا)', 'by i California i USA', 'Escondido', 'Escondido', 'Escondido', 'एस्कन्डिडो', 'एस्कन्डिडो', 'एस्कन्डिडो (क्यालिफोर्निया)', 'एस्कन्डिडो', 'plaats in Californië', 'Escondido', 'Escondido', 'Escondido', 'Abaʼtó', 'Abaʼtó', 'Abaʼtó', 'Escondido', 'Escondido', 'Escondido', 'اسکونڈیڈو', 'اسکونڈیڈو', 'اسکونڈیڈو', 'Escondido', 'Escondido', 'Escondido', 'город в Калифорнии', 'Эскондидо', 'Эскондидо', 'Эскондидо', 'Escondido', 'Escondido', 'Escondido', 'එස්කොන්ඩිඩෝ', 'එස්කොන්ඩිඩෝ', 'එස්කොන්ඩිඩෝ', 'Escondido', 'Escondido', 'Escondido', 'mesto v Kaliforniji', 'Escondido', 'Escondido', 'Escondido', 'Ескондидо', 'Ескондидо', 'Ескондидо', 'stad i Kalifornien, USA', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'எஸ்கோண்டிடோ', 'எஸ்கோண்டிடோ', 'எஸ்கோண்டிடோ', 'ఎస్కోన్ డిడో', 'ఎస్కోన్ డిడో', 'ఎస్కోన్ డిడో', 'เอสคอนดิโด้', 'เอสคอนดิโด้', 'เอสคอนดิโด้', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Әмирикә Кушма Штатлары шәһәре', 'Эскондидо', 'Эскондидо', 'Эскондидо', 'місто, США, штат Каліфорнія', 'Ескондідо', 'Ескондідо', 'Ескондідо', 'کیلیفورنیا، ریاستہائے متحدہ میں شہر', 'یسکوندیدو', 'یسکوندیدو', 'ایسکونڈیڈو، کیلیفورنیا', 'یسکوندیدو', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido, California', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', 'Escondido', '埃斯孔迪多', '埃斯孔迪多', '埃斯孔迪多', '埃斯孔迪多', '埃斯孔迪多', '艾斯康迪多', '埃斯孔迪多']</t>
+          <t>['http://www.wikidata.org/entity/Q46']</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -498,17 +498,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Which people were born in Heraklion?</t>
+          <t>What is the net income of Apple?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100331972', 'http://www.wikidata.org/entity/Q100394144', 'http://www.wikidata.org/entity/Q101218635', 'http://www.wikidata.org/entity/Q102256598', 'http://www.wikidata.org/entity/Q102390777', 'http://www.wikidata.org/entity/Q104483225', 'http://www.wikidata.org/entity/Q10533007', 'http://www.wikidata.org/entity/Q105389038', 'http://www.wikidata.org/entity/Q106157237', 'http://www.wikidata.org/entity/Q106243894', 'http://www.wikidata.org/entity/Q106363582', 'http://www.wikidata.org/entity/Q106798081', 'http://www.wikidata.org/entity/Q107310844', 'http://www.wikidata.org/entity/Q107344844', 'http://www.wikidata.org/entity/Q107369220', 'http://www.wikidata.org/entity/Q107750113', 'http://www.wikidata.org/entity/Q108108930', 'http://www.wikidata.org/entity/Q108142616', 'http://www.wikidata.org/entity/Q108143520', 'http://www.wikidata.org/entity/Q108305316', 'http://www.wikidata.org/entity/Q108419496', 'http://www.wikidata.org/entity/Q108420335', 'http://www.wikidata.org/entity/Q108528226', 'http://www.wikidata.org/entity/Q108801572', 'http://www.wikidata.org/entity/Q110024583', 'http://www.wikidata.org/entity/Q110257591', 'http://www.wikidata.org/entity/Q110438288', 'http://www.wikidata.org/entity/Q11102047', 'http://www.wikidata.org/entity/Q111279614', 'http://www.wikidata.org/entity/Q111378638', 'http://www.wikidata.org/entity/Q1115126', 'http://www.wikidata.org/entity/Q112460780', 'http://www.wikidata.org/entity/Q113045473', 'http://www.wikidata.org/entity/Q113074033', 'http://www.wikidata.org/entity/Q113184346', 'http://www.wikidata.org/entity/Q113232042', 'http://www.wikidata.org/entity/Q113737899', 'http://www.wikidata.org/entity/Q113749117', 'http://www.wikidata.org/entity/Q113772754', 'http://www.wikidata.org/entity/Q113807740', 'http://www.wikidata.org/entity/Q113834191', 'http://www.wikidata.org/entity/Q113843326', 'http://www.wikidata.org/entity/Q114089100', 'http://www.wikidata.org/entity/Q114235854', 'http://www.wikidata.org/entity/Q114616578', 'http://www.wikidata.org/entity/Q1147661', 'http://www.wikidata.org/entity/Q115110628', 'http://www.wikidata.org/entity/Q115180838', 'http://www.wikidata.org/entity/Q115864917', 'http://www.wikidata.org/entity/Q116759188', 'http://www.wikidata.org/entity/Q116765917', 'http://www.wikidata.org/entity/Q117198007', 'http://www.wikidata.org/entity/Q118487290', 'http://www.wikidata.org/entity/Q118762757', 'http://www.wikidata.org/entity/Q11931920', 'http://www.wikidata.org/entity/Q120961856', 'http://www.wikidata.org/entity/Q121300453', 'http://www.wikidata.org/entity/Q121378646', 'http://www.wikidata.org/entity/Q122228916', 'http://www.wikidata.org/entity/Q123117223', 'http://www.wikidata.org/entity/Q123183318', 'http://www.wikidata.org/entity/Q123189154', 'http://www.wikidata.org/entity/Q123196316', 'http://www.wikidata.org/entity/Q123247882', 'http://www.wikidata.org/entity/Q123281296', 'http://www.wikidata.org/entity/Q123282585', 'http://www.wikidata.org/entity/Q123403159', 'http://www.wikidata.org/entity/Q125352819', 'http://www.wikidata.org/entity/Q126363974', 'http://www.wikidata.org/entity/Q128183151', 'http://www.wikidata.org/entity/Q128693220', 'http://www.wikidata.org/entity/Q12873118', 'http://www.wikidata.org/entity/Q12873662', 'http://www.wikidata.org/entity/Q12873744', 'http://www.wikidata.org/entity/Q12874350', 'http://www.wikidata.org/entity/Q12875108', 'http://www.wikidata.org/entity/Q12875311', 'http://www.wikidata.org/entity/Q12875336', 'http://www.wikidata.org/entity/Q12878284', 'http://www.wikidata.org/entity/Q12878447', 'http://www.wikidata.org/entity/Q12880672', 'http://www.wikidata.org/entity/Q12880675', 'http://www.wikidata.org/entity/Q12880677', 'http://www.wikidata.org/entity/Q12881079', 'http://www.wikidata.org/entity/Q12885766', 'http://www.wikidata.org/entity/Q130305674', 'http://www.wikidata.org/entity/Q130632515', 'http://www.wikidata.org/entity/Q130632553', 'http://www.wikidata.org/entity/Q130718161', 'http://www.wikidata.org/entity/Q1329371', 'http://www.wikidata.org/entity/Q13411107', 'http://www.wikidata.org/entity/Q1349114', 'http://www.wikidata.org/entity/Q14153584', 'http://www.wikidata.org/entity/Q14229034', 'http://www.wikidata.org/entity/Q1439570', 'http://www.wikidata.org/entity/Q14500317', 'http://www.wikidata.org/entity/Q14625005', 'http://www.wikidata.org/entity/Q15002185', 'http://www.wikidata.org/entity/Q1509428', 'http://www.wikidata.org/entity/Q15274548', 'http://www.wikidata.org/entity/Q15433778', 'http://www.wikidata.org/entity/Q15651684', 'http://www.wikidata.org/entity/Q15707552', 'http://www.wikidata.org/entity/Q1581009', 'http://www.wikidata.org/entity/Q15983065', 'http://www.wikidata.org/entity/Q15994196', 'http://www.wikidata.org/entity/Q1601376', 'http://www.wikidata.org/entity/Q160478', 'http://www.wikidata.org/entity/Q16199868', 'http://www.wikidata.org/entity/Q16235535', 'http://www.wikidata.org/entity/Q16327244', 'http://www.wikidata.org/entity/Q16327733', 'http://www.wikidata.org/entity/Q16328616', 'http://www.wikidata.org/entity/Q16328851', 'http://www.wikidata.org/entity/Q16328867', 'http://www.wikidata.org/entity/Q16329078', 'http://www.wikidata.org/entity/Q16329346', 'http://www.wikidata.org/entity/Q16330120', 'http://www.wikidata.org/entity/Q16330682', 'http://www.wikidata.org/entity/Q16331916', 'http://www.wikidata.org/entity/Q16332287', 'http://www.wikidata.org/entity/Q16332578', 'http://www.wikidata.org/entity/Q16332651', 'http://www.wikidata.org/entity/Q16512450', 'http://www.wikidata.org/entity/Q16512492', 'http://www.wikidata.org/entity/Q165319', 'http://www.wikidata.org/entity/Q16644246', 'http://www.wikidata.org/entity/Q16711496', 'http://www.wikidata.org/entity/Q16711498', 'http://www.wikidata.org/entity/Q16853551', 'http://www.wikidata.org/entity/Q16874283', 'http://www.wikidata.org/entity/Q16937833', 'http://www.wikidata.org/entity/Q17000036', 'http://www.wikidata.org/entity/Q17315716', 'http://www.wikidata.org/entity/Q17350265', 'http://www.wikidata.org/entity/Q17420765', 'http://www.wikidata.org/entity/Q17420770', 'http://www.wikidata.org/entity/Q1755825', 'http://www.wikidata.org/entity/Q18234229', 'http://www.wikidata.org/entity/Q18335504', 'http://www.wikidata.org/entity/Q18340746', 'http://www.wikidata.org/entity/Q18340750', 'http://www.wikidata.org/entity/Q18392960', 'http://www.wikidata.org/entity/Q18397296', 'http://www.wikidata.org/entity/Q18599700', 'http://www.wikidata.org/entity/Q18599759', 'http://www.wikidata.org/entity/Q1917293', 'http://www.wikidata.org/entity/Q19612083', 'http://www.wikidata.org/entity/Q19672743', 'http://www.wikidata.org/entity/Q19758235', 'http://www.wikidata.org/entity/Q19862442', 'http://www.wikidata.org/entity/Q1987990', 'http://www.wikidata.org/entity/Q19886218', 'http://www.wikidata.org/entity/Q1991236', 'http://www.wikidata.org/entity/Q19939295', 'http://www.wikidata.org/entity/Q19941936', 'http://www.wikidata.org/entity/Q19953561', 'http://www.wikidata.org/entity/Q20011734', 'http://www.wikidata.org/entity/Q20090771', 'http://www.wikidata.org/entity/Q202404', 'http://www.wikidata.org/entity/Q20641089', 'http://www.wikidata.org/entity/Q20648370', 'http://www.wikidata.org/entity/Q20745244', 'http://www.wikidata.org/entity/Q2078267', 'http://www.wikidata.org/entity/Q20897762', 'http://www.wikidata.org/entity/Q20986533', 'http://www.wikidata.org/entity/Q21027277', 'http://www.wikidata.org/entity/Q21031023', 'http://www.wikidata.org/entity/Q21066359', 'http://www.wikidata.org/entity/Q21067158', 'http://www.wikidata.org/entity/Q21114808', 'http://www.wikidata.org/entity/Q21207862', 'http://www.wikidata.org/entity/Q21295004', 'http://www.wikidata.org/entity/Q214622', 'http://www.wikidata.org/entity/Q21620727', 'http://www.wikidata.org/entity/Q21620925', 'http://www.wikidata.org/entity/Q21621189', 'http://www.wikidata.org/entity/Q21996798', 'http://www.wikidata.org/entity/Q2261557', 'http://www.wikidata.org/entity/Q22812105', 'http://www.wikidata.org/entity/Q22958899', 'http://www.wikidata.org/entity/Q23001049', 'http://www.wikidata.org/entity/Q2359693', 'http://www.wikidata.org/entity/Q23677559', 'http://www.wikidata.org/entity/Q23726787', 'http://www.wikidata.org/entity/Q23928168', 'http://www.wikidata.org/entity/Q23928180', 'http://www.wikidata.org/entity/Q24006617', 'http://www.wikidata.org/entity/Q24045397', 'http://www.wikidata.org/entity/Q2460964', 'http://www.wikidata.org/entity/Q25909395', 'http://www.wikidata.org/entity/Q2615465', 'http://www.wikidata.org/entity/Q26703027', 'http://www.wikidata.org/entity/Q26829002', 'http://www.wikidata.org/entity/Q27975949', 'http://www.wikidata.org/entity/Q28106080', 'http://www.wikidata.org/entity/Q28745301', 'http://www.wikidata.org/entity/Q289307', 'http://www.wikidata.org/entity/Q2912337', 'http://www.wikidata.org/entity/Q29346418', 'http://www.wikidata.org/entity/Q301', 'http://www.wikidata.org/entity/Q3057494', 'http://www.wikidata.org/entity/Q30887619', 'http://www.wikidata.org/entity/Q310712', 'http://www.wikidata.org/entity/Q3136115', 'http://www.wikidata.org/entity/Q3229712', 'http://www.wikidata.org/entity/Q3296541', 'http://www.wikidata.org/entity/Q330232', 'http://www.wikidata.org/entity/Q330897', 'http://www.wikidata.org/entity/Q3314731', 'http://www.wikidata.org/entity/Q3341850', 'http://www.wikidata.org/entity/Q343292', 'http://www.wikidata.org/entity/Q353059', 'http://www.wikidata.org/entity/Q3556566', 'http://www.wikidata.org/entity/Q3558422', 'http://www.wikidata.org/entity/Q3562201', 'http://www.wikidata.org/entity/Q3564132', 'http://www.wikidata.org/entity/Q3565521', 'http://www.wikidata.org/entity/Q3566247', 'http://www.wikidata.org/entity/Q368044', 'http://www.wikidata.org/entity/Q3699388', 'http://www.wikidata.org/entity/Q3731188', 'http://www.wikidata.org/entity/Q3776568', 'http://www.wikidata.org/entity/Q38127864', 'http://www.wikidata.org/entity/Q382090', 'http://www.wikidata.org/entity/Q3839783', 'http://www.wikidata.org/entity/Q3876538', 'http://www.wikidata.org/entity/Q3935791', 'http://www.wikidata.org/entity/Q40203914', 'http://www.wikidata.org/entity/Q4065802', 'http://www.wikidata.org/entity/Q4104376', 'http://www.wikidata.org/entity/Q41660974', 'http://www.wikidata.org/entity/Q4172824', 'http://www.wikidata.org/entity/Q4172835', 'http://www.wikidata.org/entity/Q4308314', 'http://www.wikidata.org/entity/Q438440', 'http://www.wikidata.org/entity/Q440558', 'http://www.wikidata.org/entity/Q463405', 'http://www.wikidata.org/entity/Q4675877', 'http://www.wikidata.org/entity/Q4751927', 'http://www.wikidata.org/entity/Q4762991', 'http://www.wikidata.org/entity/Q4763003', 'http://www.wikidata.org/entity/Q4789952', 'http://www.wikidata.org/entity/Q4796489', 'http://www.wikidata.org/entity/Q48232422', 'http://www.wikidata.org/entity/Q48976256', 'http://www.wikidata.org/entity/Q5113522', 'http://www.wikidata.org/entity/Q52498604', 'http://www.wikidata.org/entity/Q52573880', 'http://www.wikidata.org/entity/Q5277663', 'http://www.wikidata.org/entity/Q535221', 'http://www.wikidata.org/entity/Q537976', 'http://www.wikidata.org/entity/Q53864990', 'http://www.wikidata.org/entity/Q541682', 'http://www.wikidata.org/entity/Q54803547', 'http://www.wikidata.org/entity/Q55078491', 'http://www.wikidata.org/entity/Q55351080', 'http://www.wikidata.org/entity/Q5546866', 'http://www.wikidata.org/entity/Q5548437', 'http://www.wikidata.org/entity/Q56021315', 'http://www.wikidata.org/entity/Q56628168', 'http://www.wikidata.org/entity/Q56852961', 'http://www.wikidata.org/entity/Q5802175', 'http://www.wikidata.org/entity/Q58198309', 'http://www.wikidata.org/entity/Q58503135', 'http://www.wikidata.org/entity/Q58755716', 'http://www.wikidata.org/entity/Q59512002', 'http://www.wikidata.org/entity/Q59614661', 'http://www.wikidata.org/entity/Q6001459', 'http://www.wikidata.org/entity/Q60286852', 'http://www.wikidata.org/entity/Q6038194', 'http://www.wikidata.org/entity/Q6038808', 'http://www.wikidata.org/entity/Q60582822', 'http://www.wikidata.org/entity/Q60583087', 'http://www.wikidata.org/entity/Q60677632', 'http://www.wikidata.org/entity/Q6081551', 'http://www.wikidata.org/entity/Q6084720', 'http://www.wikidata.org/entity/Q6155960', 'http://www.wikidata.org/entity/Q62591624', 'http://www.wikidata.org/entity/Q62603850', 'http://www.wikidata.org/entity/Q63254170', 'http://www.wikidata.org/entity/Q63982897', 'http://www.wikidata.org/entity/Q64615787', 'http://www.wikidata.org/entity/Q6467637', 'http://www.wikidata.org/entity/Q6517023', 'http://www.wikidata.org/entity/Q65273468', 'http://www.wikidata.org/entity/Q657600', 'http://www.wikidata.org/entity/Q65926208', 'http://www.wikidata.org/entity/Q65961421', 'http://www.wikidata.org/entity/Q6751216', 'http://www.wikidata.org/entity/Q6751217', 'http://www.wikidata.org/entity/Q6751225', 'http://www.wikidata.org/entity/Q6761479', 'http://www.wikidata.org/entity/Q6761597', 'http://www.wikidata.org/entity/Q6795819', 'http://www.wikidata.org/entity/Q6835691', 'http://www.wikidata.org/entity/Q6863224', 'http://www.wikidata.org/entity/Q68867937', 'http://www.wikidata.org/entity/Q704707', 'http://www.wikidata.org/entity/Q7067631', 'http://www.wikidata.org/entity/Q70843750', 'http://www.wikidata.org/entity/Q71013124', 'http://www.wikidata.org/entity/Q718276', 'http://www.wikidata.org/entity/Q719110', 'http://www.wikidata.org/entity/Q7312347', 'http://www.wikidata.org/entity/Q7363221', 'http://www.wikidata.org/entity/Q748140', 'http://www.wikidata.org/entity/Q767151', 'http://www.wikidata.org/entity/Q77038923', 'http://www.wikidata.org/entity/Q7781871', 'http://www.wikidata.org/entity/Q77846610', 'http://www.wikidata.org/entity/Q7925550', 'http://www.wikidata.org/entity/Q81217357', 'http://www.wikidata.org/entity/Q81678162', 'http://www.wikidata.org/entity/Q821985', 'http://www.wikidata.org/entity/Q82291289', 'http://www.wikidata.org/entity/Q84048201', 'http://www.wikidata.org/entity/Q87652519', 'http://www.wikidata.org/entity/Q88314564', 'http://www.wikidata.org/entity/Q88360684', 'http://www.wikidata.org/entity/Q88361390', 'http://www.wikidata.org/entity/Q88380768', 'http://www.wikidata.org/entity/Q88383715', 'http://www.wikidata.org/entity/Q88488624', 'http://www.wikidata.org/entity/Q88657263', 'http://www.wikidata.org/entity/Q88710225', 'http://www.wikidata.org/entity/Q88710463', 'http://www.wikidata.org/entity/Q88796507', 'http://www.wikidata.org/entity/Q89259891', 'http://www.wikidata.org/entity/Q90157181', 'http://www.wikidata.org/entity/Q9033451', 'http://www.wikidata.org/entity/Q91442809', 'http://www.wikidata.org/entity/Q92781', 'http://www.wikidata.org/entity/Q93233224', 'http://www.wikidata.org/entity/Q9340768', 'http://www.wikidata.org/entity/Q93737213', 'http://www.wikidata.org/entity/Q93785423', 'http://www.wikidata.org/entity/Q94329', 'http://www.wikidata.org/entity/Q95203707', 'http://www.wikidata.org/entity/Q95309443', 'http://www.wikidata.org/entity/Q95329588', 'http://www.wikidata.org/entity/Q95349620', 'http://www.wikidata.org/entity/Q96176197', 'http://www.wikidata.org/entity/Q96395743', 'http://www.wikidata.org/entity/Q969675', 'http://www.wikidata.org/entity/Q97486765', 'http://www.wikidata.org/entity/Q98216546', 'http://www.wikidata.org/entity/Q98792917', 'http://www.wikidata.org/entity/Q98831182', 'http://www.wikidata.org/entity/Q98836152', 'http://www.wikidata.org/entity/Q99167687']</t>
+          <t>['96995000000']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100177525', 'http://www.wikidata.org/entity/Q100607', 'http://www.wikidata.org/entity/Q1016268', 'http://www.wikidata.org/entity/Q102080', 'http://www.wikidata.org/entity/Q102152996', 'http://www.wikidata.org/entity/Q102306394', 'http://www.wikidata.org/entity/Q102310968', 'http://www.wikidata.org/entity/Q102368', 'http://www.wikidata.org/entity/Q102917', 'http://www.wikidata.org/entity/Q10293736', 'http://www.wikidata.org/entity/Q102968', 'http://www.wikidata.org/entity/Q103023', 'http://www.wikidata.org/entity/Q104765479', 'http://www.wikidata.org/entity/Q10502369', 'http://www.wikidata.org/entity/Q105737314', 'http://www.wikidata.org/entity/Q106098900', 'http://www.wikidata.org/entity/Q106236', 'http://www.wikidata.org/entity/Q106256457', 'http://www.wikidata.org/entity/Q106494161', 'http://www.wikidata.org/entity/Q106564321', 'http://www.wikidata.org/entity/Q106689595', 'http://www.wikidata.org/entity/Q106717377', 'http://www.wikidata.org/entity/Q106858251', 'http://www.wikidata.org/entity/Q107090', 'http://www.wikidata.org/entity/Q107095876', 'http://www.wikidata.org/entity/Q107110604', 'http://www.wikidata.org/entity/Q107222255', 'http://www.wikidata.org/entity/Q107276355', 'http://www.wikidata.org/entity/Q107283317', 'http://www.wikidata.org/entity/Q107302494', 'http://www.wikidata.org/entity/Q107369318', 'http://www.wikidata.org/entity/Q107554677', 'http://www.wikidata.org/entity/Q107787', 'http://www.wikidata.org/entity/Q107971678', 'http://www.wikidata.org/entity/Q108358', 'http://www.wikidata.org/entity/Q108527995', 'http://www.wikidata.org/entity/Q108609', 'http://www.wikidata.org/entity/Q108702519', 'http://www.wikidata.org/entity/Q108916427', 'http://www.wikidata.org/entity/Q108919731', 'http://www.wikidata.org/entity/Q109217', 'http://www.wikidata.org/entity/Q109551692', 'http://www.wikidata.org/entity/Q109705255', 'http://www.wikidata.org/entity/Q110049230', 'http://www.wikidata.org/entity/Q110228915', 'http://www.wikidata.org/entity/Q1103205', 'http://www.wikidata.org/entity/Q110396', 'http://www.wikidata.org/entity/Q111405585', 'http://www.wikidata.org/entity/Q11142039', 'http://www.wikidata.org/entity/Q111443160', 'http://www.wikidata.org/entity/Q111967', 'http://www.wikidata.org/entity/Q112507700', 'http://www.wikidata.org/entity/Q112515165', 'http://www.wikidata.org/entity/Q112520990', 'http://www.wikidata.org/entity/Q112542804', 'http://www.wikidata.org/entity/Q112544195', 'http://www.wikidata.org/entity/Q1127604', 'http://www.wikidata.org/entity/Q11292317', 'http://www.wikidata.org/entity/Q112988289', 'http://www.wikidata.org/entity/Q113951200', 'http://www.wikidata.org/entity/Q114051013', 'http://www.wikidata.org/entity/Q114073394', 'http://www.wikidata.org/entity/Q114355916', 'http://www.wikidata.org/entity/Q114456329', 'http://www.wikidata.org/entity/Q1148366', 'http://www.wikidata.org/entity/Q115022340', 'http://www.wikidata.org/entity/Q115807964', 'http://www.wikidata.org/entity/Q115811544', 'http://www.wikidata.org/entity/Q115812517', 'http://www.wikidata.org/entity/Q115815033', 'http://www.wikidata.org/entity/Q115815568', 'http://www.wikidata.org/entity/Q115817702', 'http://www.wikidata.org/entity/Q115818369', 'http://www.wikidata.org/entity/Q115819131', 'http://www.wikidata.org/entity/Q115823301', 'http://www.wikidata.org/entity/Q115825697', 'http://www.wikidata.org/entity/Q115830834', 'http://www.wikidata.org/entity/Q115834615', 'http://www.wikidata.org/entity/Q115835207', 'http://www.wikidata.org/entity/Q115836088', 'http://www.wikidata.org/entity/Q115836216', 'http://www.wikidata.org/entity/Q115980017', 'http://www.wikidata.org/entity/Q11696156', 'http://www.wikidata.org/entity/Q11717528', 'http://www.wikidata.org/entity/Q117359577', 'http://www.wikidata.org/entity/Q11755090', 'http://www.wikidata.org/entity/Q11780334', 'http://www.wikidata.org/entity/Q11801101', 'http://www.wikidata.org/entity/Q118432619', 'http://www.wikidata.org/entity/Q11852484', 'http://www.wikidata.org/entity/Q118803', 'http://www.wikidata.org/entity/Q11899067', 'http://www.wikidata.org/entity/Q11945258', 'http://www.wikidata.org/entity/Q12000123', 'http://www.wikidata.org/entity/Q12017332', 'http://www.wikidata.org/entity/Q12018191', 'http://www.wikidata.org/entity/Q12018192', 'http://www.wikidata.org/entity/Q12019463', 'http://www.wikidata.org/entity/Q12026769', 'http://www.wikidata.org/entity/Q12034275', 'http://www.wikidata.org/entity/Q120483846', 'http://www.wikidata.org/entity/Q12049488', 'http://www.wikidata.org/entity/Q120602960', 'http://www.wikidata.org/entity/Q12087907', 'http://www.wikidata.org/entity/Q12087908', 'http://www.wikidata.org/entity/Q12090654', 'http://www.wikidata.org/entity/Q12107364', 'http://www.wikidata.org/entity/Q121127186', 'http://www.wikidata.org/entity/Q12122194', 'http://www.wikidata.org/entity/Q12134691', 'http://www.wikidata.org/entity/Q12141098', 'http://www.wikidata.org/entity/Q12148194', 'http://www.wikidata.org/entity/Q12163440', 'http://www.wikidata.org/entity/Q12170510', 'http://www.wikidata.org/entity/Q1221775', 'http://www.wikidata.org/entity/Q12218735', 'http://www.wikidata.org/entity/Q1222313', 'http://www.wikidata.org/entity/Q12229942', 'http://www.wikidata.org/entity/Q122443195', 'http://www.wikidata.org/entity/Q122850678', 'http://www.wikidata.org/entity/Q12295191', 'http://www.wikidata.org/entity/Q123029452', 'http://www.wikidata.org/entity/Q12348717', 'http://www.wikidata.org/entity/Q12354287', 'http://www.wikidata.org/entity/Q12358673', 'http://www.wikidata.org/entity/Q12363618', 'http://www.wikidata.org/entity/Q124407217', 'http://www.wikidata.org/entity/Q1246421', 'http://www.wikidata.org/entity/Q12471464', 'http://www.wikidata.org/entity/Q124722677', 'http://www.wikidata.org/entity/Q124737202', 'http://www.wikidata.org/entity/Q124781566', 'http://www.wikidata.org/entity/Q124899820', 'http://www.wikidata.org/entity/Q12537765', 'http://www.wikidata.org/entity/Q125401771', 'http://www.wikidata.org/entity/Q125402809', 'http://www.wikidata.org/entity/Q12541033', 'http://www.wikidata.org/entity/Q12551775', 'http://www.wikidata.org/entity/Q125580234', 'http://www.wikidata.org/entity/Q125580291', 'http://www.wikidata.org/entity/Q125679917', 'http://www.wikidata.org/entity/Q125697139', 'http://www.wikidata.org/entity/Q126140012', 'http://www.wikidata.org/entity/Q12665433', 'http://www.wikidata.org/entity/Q12667337', 'http://www.wikidata.org/entity/Q12672220', 'http://www.wikidata.org/entity/Q12729783', 'http://www.wikidata.org/entity/Q12771552', 'http://www.wikidata.org/entity/Q12798775', 'http://www.wikidata.org/entity/Q12837374', 'http://www.wikidata.org/entity/Q12846057', 'http://www.wikidata.org/entity/Q128622538', 'http://www.wikidata.org/entity/Q12875928', 'http://www.wikidata.org/entity/Q12949807', 'http://www.wikidata.org/entity/Q13033275', 'http://www.wikidata.org/entity/Q130394375', 'http://www.wikidata.org/entity/Q130462401', 'http://www.wikidata.org/entity/Q130629869', 'http://www.wikidata.org/entity/Q13203900', 'http://www.wikidata.org/entity/Q13218601', 'http://www.wikidata.org/entity/Q1329015', 'http://www.wikidata.org/entity/Q1341822', 'http://www.wikidata.org/entity/Q13538112', 'http://www.wikidata.org/entity/Q13627806', 'http://www.wikidata.org/entity/Q1365328', 'http://www.wikidata.org/entity/Q1378384', 'http://www.wikidata.org/entity/Q138513', 'http://www.wikidata.org/entity/Q1390828', 'http://www.wikidata.org/entity/Q1397264', 'http://www.wikidata.org/entity/Q1455428', 'http://www.wikidata.org/entity/Q1457957', 'http://www.wikidata.org/entity/Q14711384', 'http://www.wikidata.org/entity/Q1474118', 'http://www.wikidata.org/entity/Q15062216', 'http://www.wikidata.org/entity/Q15065940', 'http://www.wikidata.org/entity/Q15066415', 'http://www.wikidata.org/entity/Q15067140', 'http://www.wikidata.org/entity/Q15067410', 'http://www.wikidata.org/entity/Q1506834', 'http://www.wikidata.org/entity/Q15068415', 'http://www.wikidata.org/entity/Q15069094', 'http://www.wikidata.org/entity/Q15071531', 'http://www.wikidata.org/entity/Q15071619', 'http://www.wikidata.org/entity/Q15076658', 'http://www.wikidata.org/entity/Q1510611', 'http://www.wikidata.org/entity/Q15132315', 'http://www.wikidata.org/entity/Q15273675', 'http://www.wikidata.org/entity/Q1533352', 'http://www.wikidata.org/entity/Q15410611', 'http://www.wikidata.org/entity/Q15428655', 'http://www.wikidata.org/entity/Q15430362', 'http://www.wikidata.org/entity/Q15430989', 'http://www.wikidata.org/entity/Q1563115', 'http://www.wikidata.org/entity/Q15695563', 'http://www.wikidata.org/entity/Q15854700', 'http://www.wikidata.org/entity/Q15918224', 'http://www.wikidata.org/entity/Q15982829', 'http://www.wikidata.org/entity/Q1600028', 'http://www.wikidata.org/entity/Q16013459', 'http://www.wikidata.org/entity/Q1605499', 'http://www.wikidata.org/entity/Q16059713', 'http://www.wikidata.org/entity/Q16063948', 'http://www.wikidata.org/entity/Q1608811', 'http://www.wikidata.org/entity/Q16130892', 'http://www.wikidata.org/entity/Q1613354', 'http://www.wikidata.org/entity/Q16267106', 'http://www.wikidata.org/entity/Q16268590', 'http://www.wikidata.org/entity/Q16271956', 'http://www.wikidata.org/entity/Q16350822', 'http://www.wikidata.org/entity/Q16366058', 'http://www.wikidata.org/entity/Q16404480', 'http://www.wikidata.org/entity/Q16407676', 'http://www.wikidata.org/entity/Q16435272', 'http://www.wikidata.org/entity/Q16447470', 'http://www.wikidata.org/entity/Q16447616', 'http://www.wikidata.org/entity/Q16447715', 'http://www.wikidata.org/entity/Q16447903', 'http://www.wikidata.org/entity/Q16447904', 'http://www.wikidata.org/entity/Q16453751', 'http://www.wikidata.org/entity/Q16500161', 'http://www.wikidata.org/entity/Q16509255', 'http://www.wikidata.org/entity/Q16515673', 'http://www.wikidata.org/entity/Q16569625', 'http://www.wikidata.org/entity/Q16591253', 'http://www.wikidata.org/entity/Q16591909', 'http://www.wikidata.org/entity/Q16614376', 'http://www.wikidata.org/entity/Q16649063', 'http://www.wikidata.org/entity/Q16702234', 'http://www.wikidata.org/entity/Q16703250', 'http://www.wikidata.org/entity/Q16723218', 'http://www.wikidata.org/entity/Q16739235', 'http://www.wikidata.org/entity/Q1680961', 'http://www.wikidata.org/entity/Q16861833', 'http://www.wikidata.org/entity/Q16886377', 'http://www.wikidata.org/entity/Q16956678', 'http://www.wikidata.org/entity/Q1697813', 'http://www.wikidata.org/entity/Q17071373', 'http://www.wikidata.org/entity/Q17106568', 'http://www.wikidata.org/entity/Q1712808', 'http://www.wikidata.org/entity/Q1731269', 'http://www.wikidata.org/entity/Q17333467', 'http://www.wikidata.org/entity/Q17333840', 'http://www.wikidata.org/entity/Q17371931', 'http://www.wikidata.org/entity/Q17385149', 'http://www.wikidata.org/entity/Q1745199', 'http://www.wikidata.org/entity/Q17471855', 'http://www.wikidata.org/entity/Q1747310', 'http://www.wikidata.org/entity/Q17522390', 'http://www.wikidata.org/entity/Q1798892', 'http://www.wikidata.org/entity/Q1808141', 'http://www.wikidata.org/entity/Q18092955', 'http://www.wikidata.org/entity/Q18236082', 'http://www.wikidata.org/entity/Q18237186', 'http://www.wikidata.org/entity/Q18237855', 'http://www.wikidata.org/entity/Q18242147', 'http://www.wikidata.org/entity/Q18242484', 'http://www.wikidata.org/entity/Q18242671', 'http://www.wikidata.org/entity/Q18245814', 'http://www.wikidata.org/entity/Q18246175', 'http://www.wikidata.org/entity/Q18275123', 'http://www.wikidata.org/entity/Q18276531', 'http://www.wikidata.org/entity/Q18276801', 'http://www.wikidata.org/entity/Q18276977', 'http://www.wikidata.org/entity/Q18277311', 'http://www.wikidata.org/entity/Q18278195', 'http://www.wikidata.org/entity/Q18278236', 'http://www.wikidata.org/entity/Q18278259', 'http://www.wikidata.org/entity/Q18278502', 'http://www.wikidata.org/entity/Q18278777', 'http://www.wikidata.org/entity/Q18278991', 'http://www.wikidata.org/entity/Q18279099', 'http://www.wikidata.org/entity/Q18279350', 'http://www.wikidata.org/entity/Q18279653', 'http://www.wikidata.org/entity/Q18279783', 'http://www.wikidata.org/entity/Q18279849', 'http://www.wikidata.org/entity/Q18280200', 'http://www.wikidata.org/entity/Q18280342', 'http://www.wikidata.org/entity/Q18280396', 'http://www.wikidata.org/entity/Q1843704', 'http://www.wikidata.org/entity/Q18507985', 'http://www.wikidata.org/entity/Q18547371', 'http://www.wikidata.org/entity/Q18549346', 'http://www.wikidata.org/entity/Q18690078', 'http://www.wikidata.org/entity/Q1889238', 'http://www.wikidata.org/entity/Q19056546', 'http://www.wikidata.org/entity/Q1938351', 'http://www.wikidata.org/entity/Q19429807', 'http://www.wikidata.org/entity/Q1982245', 'http://www.wikidata.org/entity/Q19829369', 'http://www.wikidata.org/entity/Q19829532', 'http://www.wikidata.org/entity/Q19956135', 'http://www.wikidata.org/entity/Q19956136', 'http://www.wikidata.org/entity/Q19959560', 'http://www.wikidata.org/entity/Q1999281', 'http://www.wikidata.org/entity/Q20010854', 'http://www.wikidata.org/entity/Q20065988', 'http://www.wikidata.org/entity/Q20068202', 'http://www.wikidata.org/entity/Q20423102', 'http://www.wikidata.org/entity/Q20608732', 'http://www.wikidata.org/entity/Q2062154', 'http://www.wikidata.org/entity/Q20737526', 'http://www.wikidata.org/entity/Q2077408', 'http://www.wikidata.org/entity/Q2080501', 'http://www.wikidata.org/entity/Q20821041', 'http://www.wikidata.org/entity/Q21030863', 'http://www.wikidata.org/entity/Q21104829', 'http://www.wikidata.org/entity/Q21109349', 'http://www.wikidata.org/entity/Q21109493', 'http://www.wikidata.org/entity/Q21134290', 'http://www.wikidata.org/entity/Q21198112', 'http://www.wikidata.org/entity/Q214258', 'http://www.wikidata.org/entity/Q21458012', 'http://www.wikidata.org/entity/Q215390', 'http://www.wikidata.org/entity/Q2160834', 'http://www.wikidata.org/entity/Q21657063', 'http://www.wikidata.org/entity/Q216755', 'http://www.wikidata.org/entity/Q2261253', 'http://www.wikidata.org/entity/Q2277785', 'http://www.wikidata.org/entity/Q230456', 'http://www.wikidata.org/entity/Q23063014', 'http://www.wikidata.org/entity/Q23616153', 'http://www.wikidata.org/entity/Q238896', 'http://www.wikidata.org/entity/Q23956977', 'http://www.wikidata.org/entity/Q2405896', 'http://www.wikidata.org/entity/Q24175426', 'http://www.wikidata.org/entity/Q24287055', 'http://www.wikidata.org/entity/Q2511722', 'http://www.wikidata.org/entity/Q2528825', 'http://www.wikidata.org/entity/Q2545075', 'http://www.wikidata.org/entity/Q2562796', 'http://www.wikidata.org/entity/Q25657310', 'http://www.wikidata.org/entity/Q2590123', 'http://www.wikidata.org/entity/Q25982544', 'http://www.wikidata.org/entity/Q263753', 'http://www.wikidata.org/entity/Q2644828', 'http://www.wikidata.org/entity/Q26710101', 'http://www.wikidata.org/entity/Q26769582', 'http://www.wikidata.org/entity/Q26998105', 'http://www.wikidata.org/entity/Q27064043', 'http://www.wikidata.org/entity/Q27154908', 'http://www.wikidata.org/entity/Q27504351', 'http://www.wikidata.org/entity/Q2752060', 'http://www.wikidata.org/entity/Q27647092', 'http://www.wikidata.org/entity/Q27669618', 'http://www.wikidata.org/entity/Q27709724', 'http://www.wikidata.org/entity/Q2784961', 'http://www.wikidata.org/entity/Q27863984', 'http://www.wikidata.org/entity/Q27891978', 'http://www.wikidata.org/entity/Q27903981', 'http://www.wikidata.org/entity/Q28039797', 'http://www.wikidata.org/entity/Q28108662', 'http://www.wikidata.org/entity/Q28121488', 'http://www.wikidata.org/entity/Q28147427', 'http://www.wikidata.org/entity/Q28358816', 'http://www.wikidata.org/entity/Q28496826', 'http://www.wikidata.org/entity/Q28840828', 'http://www.wikidata.org/entity/Q29422204', 'http://www.wikidata.org/entity/Q30112595', 'http://www.wikidata.org/entity/Q3027542', 'http://www.wikidata.org/entity/Q3059830', 'http://www.wikidata.org/entity/Q30609549', 'http://www.wikidata.org/entity/Q3065908', 'http://www.wikidata.org/entity/Q308069', 'http://www.wikidata.org/entity/Q3085291', 'http://www.wikidata.org/entity/Q3157736', 'http://www.wikidata.org/entity/Q3171391', 'http://www.wikidata.org/entity/Q3190783', 'http://www.wikidata.org/entity/Q3193355', 'http://www.wikidata.org/entity/Q3193357', 'http://www.wikidata.org/entity/Q3200578', 'http://www.wikidata.org/entity/Q3218271', 'http://www.wikidata.org/entity/Q32606706', 'http://www.wikidata.org/entity/Q3261057', 'http://www.wikidata.org/entity/Q3266229', 'http://www.wikidata.org/entity/Q3276047', 'http://www.wikidata.org/entity/Q33025930', 'http://www.wikidata.org/entity/Q33329039', 'http://www.wikidata.org/entity/Q33814181', 'http://www.wikidata.org/entity/Q3430638', 'http://www.wikidata.org/entity/Q3440383', 'http://www.wikidata.org/entity/Q3445518', 'http://www.wikidata.org/entity/Q352523', 'http://www.wikidata.org/entity/Q35341997', 'http://www.wikidata.org/entity/Q360127', 'http://www.wikidata.org/entity/Q363052', 'http://www.wikidata.org/entity/Q3767051', 'http://www.wikidata.org/entity/Q37710331', 'http://www.wikidata.org/entity/Q38282326', 'http://www.wikidata.org/entity/Q3902993', 'http://www.wikidata.org/entity/Q3919019', 'http://www.wikidata.org/entity/Q4055451', 'http://www.wikidata.org/entity/Q4076037', 'http://www.wikidata.org/entity/Q40805630', 'http://www.wikidata.org/entity/Q4083957', 'http://www.wikidata.org/entity/Q4093877', 'http://www.wikidata.org/entity/Q4125286', 'http://www.wikidata.org/entity/Q4132098', 'http://www.wikidata.org/entity/Q4138208', 'http://www.wikidata.org/entity/Q4148022', 'http://www.wikidata.org/entity/Q4149955', 'http://www.wikidata.org/entity/Q4153099', 'http://www.wikidata.org/entity/Q4162113', 'http://www.wikidata.org/entity/Q4180319', 'http://www.wikidata.org/entity/Q4196241', 'http://www.wikidata.org/entity/Q4210862', 'http://www.wikidata.org/entity/Q4211552', 'http://www.wikidata.org/entity/Q4217666', 'http://www.wikidata.org/entity/Q4222970', 'http://www.wikidata.org/entity/Q4227743', 'http://www.wikidata.org/entity/Q42327443', 'http://www.wikidata.org/entity/Q4234353', 'http://www.wikidata.org/entity/Q4240071', 'http://www.wikidata.org/entity/Q4271993', 'http://www.wikidata.org/entity/Q4276264', 'http://www.wikidata.org/entity/Q4279768', 'http://www.wikidata.org/entity/Q4299035', 'http://www.wikidata.org/entity/Q4332695', 'http://www.wikidata.org/entity/Q43341723', 'http://www.wikidata.org/entity/Q43369929', 'http://www.wikidata.org/entity/Q434951', 'http://www.wikidata.org/entity/Q4360767', 'http://www.wikidata.org/entity/Q43759864', 'http://www.wikidata.org/entity/Q4382161', 'http://www.wikidata.org/entity/Q4385549', 'http://www.wikidata.org/entity/Q4400180', 'http://www.wikidata.org/entity/Q4418517', 'http://www.wikidata.org/entity/Q4418977', 'http://www.wikidata.org/entity/Q4422595', 'http://www.wikidata.org/entity/Q4441715', 'http://www.wikidata.org/entity/Q44503326', 'http://www.wikidata.org/entity/Q4485082', 'http://www.wikidata.org/entity/Q448817', 'http://www.wikidata.org/entity/Q4492940', 'http://www.wikidata.org/entity/Q449806', 'http://www.wikidata.org/entity/Q4502876', 'http://www.wikidata.org/entity/Q4507915', 'http://www.wikidata.org/entity/Q4521879', 'http://www.wikidata.org/entity/Q4525935', 'http://www.wikidata.org/entity/Q4527638', 'http://www.wikidata.org/entity/Q4527674', 'http://www.wikidata.org/entity/Q46482186', 'http://www.wikidata.org/entity/Q4665860', 'http://www.wikidata.org/entity/Q4681577', 'http://www.wikidata.org/entity/Q4695845', 'http://www.wikidata.org/entity/Q47012739', 'http://www.wikidata.org/entity/Q47015686', 'http://www.wikidata.org/entity/Q47088267', 'http://www.wikidata.org/entity/Q47135604', 'http://www.wikidata.org/entity/Q4722753', 'http://www.wikidata.org/entity/Q4723438', 'http://www.wikidata.org/entity/Q47358261', 'http://www.wikidata.org/entity/Q47843762', 'http://www.wikidata.org/entity/Q4815805', 'http://www.wikidata.org/entity/Q4832650', 'http://www.wikidata.org/entity/Q48844710', 'http://www.wikidata.org/entity/Q489837', 'http://www.wikidata.org/entity/Q4939254', 'http://www.wikidata.org/entity/Q4977068', 'http://www.wikidata.org/entity/Q50320929', 'http://www.wikidata.org/entity/Q50321962', 'http://www.wikidata.org/entity/Q5076063', 'http://www.wikidata.org/entity/Q5093534', 'http://www.wikidata.org/entity/Q514906', 'http://www.wikidata.org/entity/Q5232066', 'http://www.wikidata.org/entity/Q5258350', 'http://www.wikidata.org/entity/Q526940', 'http://www.wikidata.org/entity/Q5337251', 'http://www.wikidata.org/entity/Q5343045', 'http://www.wikidata.org/entity/Q534327', 'http://www.wikidata.org/entity/Q5348033', 'http://www.wikidata.org/entity/Q5388092', 'http://www.wikidata.org/entity/Q54864259', 'http://www.wikidata.org/entity/Q5490248', 'http://www.wikidata.org/entity/Q55028767', 'http://www.wikidata.org/entity/Q5503719', 'http://www.wikidata.org/entity/Q5534341', 'http://www.wikidata.org/entity/Q5535670', 'http://www.wikidata.org/entity/Q5541015', 'http://www.wikidata.org/entity/Q5543368', 'http://www.wikidata.org/entity/Q5559183', 'http://www.wikidata.org/entity/Q55714260', 'http://www.wikidata.org/entity/Q55872593', 'http://www.wikidata.org/entity/Q55874638', 'http://www.wikidata.org/entity/Q5621239', 'http://www.wikidata.org/entity/Q56309026', 'http://www.wikidata.org/entity/Q5646492', 'http://www.wikidata.org/entity/Q5649557', 'http://www.wikidata.org/entity/Q5649932', 'http://www.wikidata.org/entity/Q5650526', 'http://www.wikidata.org/entity/Q56513554', 'http://www.wikidata.org/entity/Q56516606', 'http://www.wikidata.org/entity/Q5669978', 'http://www.wikidata.org/entity/Q568282', 'http://www.wikidata.org/entity/Q5700834', 'http://www.wikidata.org/entity/Q5710779', 'http://www.wikidata.org/entity/Q57242198', 'http://www.wikidata.org/entity/Q5734765', 'http://www.wikidata.org/entity/Q5740762', 'http://www.wikidata.org/entity/Q5740909', 'http://www.wikidata.org/entity/Q5752133', 'http://www.wikidata.org/entity/Q59248821', 'http://www.wikidata.org/entity/Q5933216', 'http://www.wikidata.org/entity/Q60169373', 'http://www.wikidata.org/entity/Q60254451', 'http://www.wikidata.org/entity/Q60258407', 'http://www.wikidata.org/entity/Q60270460', 'http://www.wikidata.org/entity/Q60279571', 'http://www.wikidata.org/entity/Q6063205', 'http://www.wikidata.org/entity/Q60693705', 'http://www.wikidata.org/entity/Q6093182', 'http://www.wikidata.org/entity/Q6096057', 'http://www.wikidata.org/entity/Q61052644', 'http://www.wikidata.org/entity/Q61120375', 'http://www.wikidata.org/entity/Q6113313', 'http://www.wikidata.org/entity/Q61135774', 'http://www.wikidata.org/entity/Q6133187', 'http://www.wikidata.org/entity/Q6134392', 'http://www.wikidata.org/entity/Q6143697', 'http://www.wikidata.org/entity/Q61595325', 'http://www.wikidata.org/entity/Q61598275', 'http://www.wikidata.org/entity/Q61684312', 'http://www.wikidata.org/entity/Q6170876', 'http://www.wikidata.org/entity/Q61750251', 'http://www.wikidata.org/entity/Q62009567', 'http://www.wikidata.org/entity/Q62478766', 'http://www.wikidata.org/entity/Q62485', 'http://www.wikidata.org/entity/Q6262425', 'http://www.wikidata.org/entity/Q62651174', 'http://www.wikidata.org/entity/Q629895', 'http://www.wikidata.org/entity/Q633997', 'http://www.wikidata.org/entity/Q6371413', 'http://www.wikidata.org/entity/Q6371991', 'http://www.wikidata.org/entity/Q6372180', 'http://www.wikidata.org/entity/Q6372392', 'http://www.wikidata.org/entity/Q6380893', 'http://www.wikidata.org/entity/Q6401202', 'http://www.wikidata.org/entity/Q6446580', 'http://www.wikidata.org/entity/Q65127080', 'http://www.wikidata.org/entity/Q6559509', 'http://www.wikidata.org/entity/Q66674', 'http://www.wikidata.org/entity/Q66699038', 'http://www.wikidata.org/entity/Q6734364', 'http://www.wikidata.org/entity/Q6748535', 'http://www.wikidata.org/entity/Q6775575', 'http://www.wikidata.org/entity/Q6775938', 'http://www.wikidata.org/entity/Q6780091', 'http://www.wikidata.org/entity/Q6874114', 'http://www.wikidata.org/entity/Q689930', 'http://www.wikidata.org/entity/Q69636', 'http://www.wikidata.org/entity/Q7106940', 'http://www.wikidata.org/entity/Q711468', 'http://www.wikidata.org/entity/Q72314261', 'http://www.wikidata.org/entity/Q732860', 'http://www.wikidata.org/entity/Q7345045', 'http://www.wikidata.org/entity/Q7350225', 'http://www.wikidata.org/entity/Q735141', 'http://www.wikidata.org/entity/Q7377229', 'http://www.wikidata.org/entity/Q73790', 'http://www.wikidata.org/entity/Q73811', 'http://www.wikidata.org/entity/Q7384909', 'http://www.wikidata.org/entity/Q74800601', 'http://www.wikidata.org/entity/Q7510621', 'http://www.wikidata.org/entity/Q7558545', 'http://www.wikidata.org/entity/Q76748', 'http://www.wikidata.org/entity/Q76974893', 'http://www.wikidata.org/entity/Q7965236', 'http://www.wikidata.org/entity/Q7965391', 'http://www.wikidata.org/entity/Q7983518', 'http://www.wikidata.org/entity/Q8002290', 'http://www.wikidata.org/entity/Q83290210', 'http://www.wikidata.org/entity/Q85680538', 'http://www.wikidata.org/entity/Q85828262', 'http://www.wikidata.org/entity/Q85987704', 'http://www.wikidata.org/entity/Q86069', 'http://www.wikidata.org/entity/Q86606942', 'http://www.wikidata.org/entity/Q87296657', 'http://www.wikidata.org/entity/Q87573', 'http://www.wikidata.org/entity/Q87575484', 'http://www.wikidata.org/entity/Q88881', 'http://www.wikidata.org/entity/Q890443', 'http://www.wikidata.org/entity/Q89130', 'http://www.wikidata.org/entity/Q899897', 'http://www.wikidata.org/entity/Q91108920', 'http://www.wikidata.org/entity/Q9151037', 'http://www.wikidata.org/entity/Q9162013', 'http://www.wikidata.org/entity/Q91927', 'http://www.wikidata.org/entity/Q9250573', 'http://www.wikidata.org/entity/Q9268364', 'http://www.wikidata.org/entity/Q93399923', 'http://www.wikidata.org/entity/Q9369195', 'http://www.wikidata.org/entity/Q9396734', 'http://www.wikidata.org/entity/Q94370', 'http://www.wikidata.org/entity/Q94975644', 'http://www.wikidata.org/entity/Q94975886', 'http://www.wikidata.org/entity/Q94976706', 'http://www.wikidata.org/entity/Q94977006', 'http://www.wikidata.org/entity/Q94977066', 'http://www.wikidata.org/entity/Q94977276', 'http://www.wikidata.org/entity/Q95108857', 'http://www.wikidata.org/entity/Q95109084', 'http://www.wikidata.org/entity/Q95109319', 'http://www.wikidata.org/entity/Q95113857', 'http://www.wikidata.org/entity/Q95116993', 'http://www.wikidata.org/entity/Q95118789', 'http://www.wikidata.org/entity/Q95122102', 'http://www.wikidata.org/entity/Q95122691', 'http://www.wikidata.org/entity/Q95126996', 'http://www.wikidata.org/entity/Q95127303', 'http://www.wikidata.org/entity/Q95127533', 'http://www.wikidata.org/entity/Q95127791', 'http://www.wikidata.org/entity/Q95128012', 'http://www.wikidata.org/entity/Q95128067', 'http://www.wikidata.org/entity/Q95168635', 'http://www.wikidata.org/entity/Q95176866', 'http://www.wikidata.org/entity/Q95235777', 'http://www.wikidata.org/entity/Q95382169', 'http://www.wikidata.org/entity/Q95396649', 'http://www.wikidata.org/entity/Q95707199', 'http://www.wikidata.org/entity/Q96058593', 'http://www.wikidata.org/entity/Q96339871', 'http://www.wikidata.org/entity/Q96678658', 'http://www.wikidata.org/entity/Q97185', 'http://www.wikidata.org/entity/Q973580', 'http://www.wikidata.org/entity/Q97466555', 'http://www.wikidata.org/entity/Q976569', 'http://www.wikidata.org/entity/Q97657392', 'http://www.wikidata.org/entity/Q97768', 'http://www.wikidata.org/entity/Q98036542', 'http://www.wikidata.org/entity/Q98860', 'http://www.wikidata.org/entity/Q98934', 'http://www.wikidata.org/entity/Q995470', 'http://www.wikidata.org/entity/Q99709', 'http://www.wikidata.org/entity/Q99732']</t>
+          <t>['http://www.wikidata.org/entity/Q3381638']</t>
         </is>
       </c>
       <c r="D4" t="b">
@@ -518,40 +518,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Which holidays are celebrated around the world?</t>
+          <t>how much is the population Iraq?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q103987830', 'http://www.wikidata.org/entity/Q104013369', 'http://www.wikidata.org/entity/Q116978631', 'http://www.wikidata.org/entity/Q21163268', 'http://www.wikidata.org/entity/Q10283187', 'http://www.wikidata.org/entity/Q111738564', 'http://www.wikidata.org/entity/Q112127159', 'http://www.wikidata.org/entity/Q124422802', 'http://www.wikidata.org/entity/Q18465013', 'http://www.wikidata.org/entity/Q125856465', 'http://www.wikidata.org/entity/Q1361434', 'http://www.wikidata.org/entity/Q1651570', 'http://www.wikidata.org/entity/Q2564633', 'http://www.wikidata.org/entity/Q333016', 'http://www.wikidata.org/entity/Q61359735', 'http://www.wikidata.org/entity/Q72318', 'http://www.wikidata.org/entity/Q744159', 'http://www.wikidata.org/entity/Q751738', 'http://www.wikidata.org/entity/Q110707177', 'http://www.wikidata.org/entity/Q45922130', 'http://www.wikidata.org/entity/Q57350935', 'http://www.wikidata.org/entity/Q57397044', 'http://www.wikidata.org/entity/Q116978568', 'http://www.wikidata.org/entity/Q2859605', 'http://www.wikidata.org/entity/Q113090457', 'http://www.wikidata.org/entity/Q115181793', 'http://www.wikidata.org/entity/Q115369110', 'http://www.wikidata.org/entity/Q115369980', 'http://www.wikidata.org/entity/Q115377287', 'http://www.wikidata.org/entity/Q21697589', 'http://www.wikidata.org/entity/Q122069654', 'http://www.wikidata.org/entity/Q1145566', 'http://www.wikidata.org/entity/Q11406184', 'http://www.wikidata.org/entity/Q11643728', 'http://www.wikidata.org/entity/Q20044441', 'http://www.wikidata.org/entity/Q28685931', 'http://www.wikidata.org/entity/Q11255045', 'http://www.wikidata.org/entity/Q11387821', 'http://www.wikidata.org/entity/Q11436695', 'http://www.wikidata.org/entity/Q11501518', 'http://www.wikidata.org/entity/Q11502138', 'http://www.wikidata.org/entity/Q11512398', 'http://www.wikidata.org/entity/Q11590440', 'http://www.wikidata.org/entity/Q11604982', 'http://www.wikidata.org/entity/Q6455253', 'http://www.wikidata.org/entity/Q111162467', 'http://www.wikidata.org/entity/Q124005660', 'http://www.wikidata.org/entity/Q130611902', 'http://www.wikidata.org/entity/Q13258770', 'http://www.wikidata.org/entity/Q2838743', 'http://www.wikidata.org/entity/Q3092925', 'http://www.wikidata.org/entity/Q123004384', 'http://www.wikidata.org/entity/Q4546230', 'http://www.wikidata.org/entity/Q1009535', 'http://www.wikidata.org/entity/Q1049141', 'http://www.wikidata.org/entity/Q1059995', 'http://www.wikidata.org/entity/Q1137351', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q1186410', 'http://www.wikidata.org/entity/Q1355051', 'http://www.wikidata.org/entity/Q1355833', 'http://www.wikidata.org/entity/Q1359602', 'http://www.wikidata.org/entity/Q1361434', 'http://www.wikidata.org/entity/Q1361489', 'http://www.wikidata.org/entity/Q17218111', 'http://www.wikidata.org/entity/Q483226', 'http://www.wikidata.org/entity/Q82405', 'http://www.wikidata.org/entity/Q101706322', 'http://www.wikidata.org/entity/Q10265921', 'http://www.wikidata.org/entity/Q10274', 'http://www.wikidata.org/entity/Q10281751', 'http://www.wikidata.org/entity/Q10313072', 'http://www.wikidata.org/entity/Q1034573', 'http://www.wikidata.org/entity/Q10379695', 'http://www.wikidata.org/entity/Q1038328', 'http://www.wikidata.org/entity/Q104842151', 'http://www.wikidata.org/entity/Q104842171', 'http://www.wikidata.org/entity/Q104844735', 'http://www.wikidata.org/entity/Q104853673', 'http://www.wikidata.org/entity/Q104861126', 'http://www.wikidata.org/entity/Q10488275', 'http://www.wikidata.org/entity/Q105047091', 'http://www.wikidata.org/entity/Q105047582', 'http://www.wikidata.org/entity/Q105047587', 'http://www.wikidata.org/entity/Q105271464', 'http://www.wikidata.org/entity/Q105393636', 'http://www.wikidata.org/entity/Q10560877', 'http://www.wikidata.org/entity/Q105742385', 'http://www.wikidata.org/entity/Q105742388', 'http://www.wikidata.org/entity/Q1058840', 'http://www.wikidata.org/entity/Q106010', 'http://www.wikidata.org/entity/Q106290028', 'http://www.wikidata.org/entity/Q106307776', 'http://www.wikidata.org/entity/Q106806190', 'http://www.wikidata.org/entity/Q106855753', 'http://www.wikidata.org/entity/Q1070437', 'http://www.wikidata.org/entity/Q107139413', 'http://www.wikidata.org/entity/Q10726425', 'http://www.wikidata.org/entity/Q107486932', 'http://www.wikidata.org/entity/Q107643630', 'http://www.wikidata.org/entity/Q108120675', 'http://www.wikidata.org/entity/Q108265918', 'http://www.wikidata.org/entity/Q108305674', 'http://www.wikidata.org/entity/Q108456662', 'http://www.wikidata.org/entity/Q108540687', 'http://www.wikidata.org/entity/Q10862448', 'http://www.wikidata.org/entity/Q108745010', 'http://www.wikidata.org/entity/Q10881633', 'http://www.wikidata.org/entity/Q108936865', 'http://www.wikidata.org/entity/Q10901070', 'http://www.wikidata.org/entity/Q109040869', 'http://www.wikidata.org/entity/Q10921475', 'http://www.wikidata.org/entity/Q109356066', 'http://www.wikidata.org/entity/Q109609391', 'http://www.wikidata.org/entity/Q109796906', 'http://www.wikidata.org/entity/Q110239836', 'http://www.wikidata.org/entity/Q1105149', 'http://www.wikidata.org/entity/Q110712627', 'http://www.wikidata.org/entity/Q110738072', 'http://www.wikidata.org/entity/Q110804043', 'http://www.wikidata.org/entity/Q11095193', 'http://www.wikidata.org/entity/Q11156396', 'http://www.wikidata.org/entity/Q11156590', 'http://www.wikidata.org/entity/Q11156602', 'http://www.wikidata.org/entity/Q111585601', 'http://www.wikidata.org/entity/Q111586257', 'http://www.wikidata.org/entity/Q111588212', 'http://www.wikidata.org/entity/Q111588631', 'http://www.wikidata.org/entity/Q111591927', 'http://www.wikidata.org/entity/Q111592030', 'http://www.wikidata.org/entity/Q111592221', 'http://www.wikidata.org/entity/Q111592231', 'http://www.wikidata.org/entity/Q111592392', 'http://www.wikidata.org/entity/Q111593121', 'http://www.wikidata.org/entity/Q111599061', 'http://www.wikidata.org/entity/Q111605534', 'http://www.wikidata.org/entity/Q111605672', 'http://www.wikidata.org/entity/Q111605780', 'http://www.wikidata.org/entity/Q111619857', 'http://www.wikidata.org/entity/Q111621136', 'http://www.wikidata.org/entity/Q111639188', 'http://www.wikidata.org/entity/Q111639464', 'http://www.wikidata.org/entity/Q111639796', 'http://www.wikidata.org/entity/Q111640394', 'http://www.wikidata.org/entity/Q111644691', 'http://www.wikidata.org/entity/Q111644855', 'http://www.wikidata.org/entity/Q111646483', 'http://www.wikidata.org/entity/Q111646603', 'http://www.wikidata.org/entity/Q111646902', 'http://www.wikidata.org/entity/Q111646942', 'http://www.wikidata.org/entity/Q111647178', 'http://www.wikidata.org/entity/Q111647244', 'http://www.wikidata.org/entity/Q111648147', 'http://www.wikidata.org/entity/Q111648327', 'http://www.wikidata.org/entity/Q111648357', 'http://www.wikidata.org/entity/Q111649590', 'http://www.wikidata.org/entity/Q111649647', 'http://www.wikidata.org/entity/Q111649691', 'http://www.wikidata.org/entity/Q111649919', 'http://www.wikidata.org/entity/Q111653594', 'http://www.wikidata.org/entity/Q111653613', 'http://www.wikidata.org/entity/Q111653631', 'http://www.wikidata.org/entity/Q111653637', 'http://www.wikidata.org/entity/Q111653675', 'http://www.wikidata.org/entity/Q111653779', 'http://www.wikidata.org/entity/Q111653938', 'http://www.wikidata.org/entity/Q111653958', 'http://www.wikidata.org/entity/Q111653969', 'http://www.wikidata.org/entity/Q111654007', 'http://www.wikidata.org/entity/Q111654040', 'http://www.wikidata.org/entity/Q111654093', 'http://www.wikidata.org/entity/Q111654098', 'http://www.wikidata.org/entity/Q111654121', 'http://www.wikidata.org/entity/Q111654136', 'http://www.wikidata.org/entity/Q111654241', 'http://www.wikidata.org/entity/Q111654346', 'http://www.wikidata.org/entity/Q111654469', 'http://www.wikidata.org/entity/Q111654484', 'http://www.wikidata.org/entity/Q111658731', 'http://www.wikidata.org/entity/Q111658801', 'http://www.wikidata.org/entity/Q111658833', 'http://www.wikidata.org/entity/Q111658927', 'http://www.wikidata.org/entity/Q111661297', 'http://www.wikidata.org/entity/Q111661840', 'http://www.wikidata.org/entity/Q111661872', 'http://www.wikidata.org/entity/Q111661886', 'http://www.wikidata.org/entity/Q111662034', 'http://www.wikidata.org/entity/Q111662035', 'http://www.wikidata.org/entity/Q111662040', 'http://www.wikidata.org/entity/Q111662133', 'http://www.wikidata.org/entity/Q111663221', 'http://www.wikidata.org/entity/Q111665328', 'http://www.wikidata.org/entity/Q111665519', 'http://www.wikidata.org/entity/Q111666301', 'http://www.wikidata.org/entity/Q111670117', 'http://www.wikidata.org/entity/Q111670231', 'http://www.wikidata.org/entity/Q111670397', 'http://www.wikidata.org/entity/Q111670481', 'http://www.wikidata.org/entity/Q111670617', 'http://www.wikidata.org/entity/Q111670624', 'http://www.wikidata.org/entity/Q111670628', 'http://www.wikidata.org/entity/Q111671698', 'http://www.wikidata.org/entity/Q111671968', 'http://www.wikidata.org/entity/Q111672442', 'http://www.wikidata.org/entity/Q111675204', 'http://www.wikidata.org/entity/Q111675217', 'http://www.wikidata.org/entity/Q111675293', 'http://www.wikidata.org/entity/Q111675405', 'http://www.wikidata.org/entity/Q111675518', 'http://www.wikidata.org/entity/Q111675816', 'http://www.wikidata.org/entity/Q111676530', 'http://www.wikidata.org/entity/Q111676789', 'http://www.wikidata.org/entity/Q111676828', 'http://www.wikidata.org/entity/Q111676959', 'http://www.wikidata.org/entity/Q111679720', 'http://www.wikidata.org/entity/Q111679753', 'http://www.wikidata.org/entity/Q111679830', 'http://www.wikidata.org/entity/Q111679840', 'http://www.wikidata.org/entity/Q111679871', 'http://www.wikidata.org/entity/Q111679978', 'http://www.wikidata.org/entity/Q111680097', 'http://www.wikidata.org/entity/Q111680142', 'http://www.wikidata.org/entity/Q111680149', 'http://www.wikidata.org/entity/Q111680197', 'http://www.wikidata.org/entity/Q111680221', 'http://www.wikidata.org/entity/Q111680229', 'http://www.wikidata.org/entity/Q111693657', 'http://www.wikidata.org/entity/Q111693675', 'http://www.wikidata.org/entity/Q111693696', 'http://www.wikidata.org/entity/Q111693773', 'http://www.wikidata.org/entity/Q111693781', 'http://www.wikidata.org/entity/Q111693947', 'http://www.wikidata.org/entity/Q111694017', 'http://www.wikidata.org/entity/Q111695525', 'http://www.wikidata.org/entity/Q111702011', 'http://www.wikidata.org/entity/Q111702051', 'http://www.wikidata.org/entity/Q111702063', 'http://www.wikidata.org/entity/Q111705727', 'http://www.wikidata.org/entity/Q111708136', 'http://www.wikidata.org/entity/Q111711151', 'http://www.wikidata.org/entity/Q111711160', 'http://www.wikidata.org/entity/Q111711162', 'http://www.wikidata.org/entity/Q111711184', 'http://www.wikidata.org/entity/Q111711264', 'http://www.wikidata.org/entity/Q111711268', 'http://www.wikidata.org/entity/Q111711270', 'http://www.wikidata.org/entity/Q111711273', 'http://www.wikidata.org/entity/Q111711278', 'http://www.wikidata.org/entity/Q111711311', 'http://www.wikidata.org/entity/Q111711342', 'http://www.wikidata.org/entity/Q111711421', 'http://www.wikidata.org/entity/Q111711540', 'http://www.wikidata.org/entity/Q111711547', 'http://www.wikidata.org/entity/Q111711661', 'http://www.wikidata.org/entity/Q111711757', 'http://www.wikidata.org/entity/Q111711903', 'http://www.wikidata.org/entity/Q111711907', 'http://www.wikidata.org/entity/Q111712005', 'http://www.wikidata.org/entity/Q111712010', 'http://www.wikidata.org/entity/Q111712059', 'http://www.wikidata.org/entity/Q111712123', 'http://www.wikidata.org/entity/Q111716408', 'http://www.wikidata.org/entity/Q111719293', 'http://www.wikidata.org/entity/Q111725575', 'http://www.wikidata.org/entity/Q111725911', 'http://www.wikidata.org/entity/Q111726390', 'http://www.wikidata.org/entity/Q111726615', 'http://www.wikidata.org/entity/Q111726617', 'http://www.wikidata.org/entity/Q111726635', 'http://www.wikidata.org/entity/Q111726669', 'http://www.wikidata.org/entity/Q111726714', 'http://www.wikidata.org/entity/Q111726768', 'http://www.wikidata.org/entity/Q111726774', 'http://www.wikidata.org/entity/Q111726793', 'http://www.wikidata.org/entity/Q111726805', 'http://www.wikidata.org/entity/Q111734330', 'http://www.wikidata.org/entity/Q111734453', 'http://www.wikidata.org/entity/Q111734646', 'http://www.wikidata.org/entity/Q111734661', 'http://www.wikidata.org/entity/Q111734681', 'http://www.wikidata.org/entity/Q111734708', 'http://www.wikidata.org/entity/Q111734879', 'http://www.wikidata.org/entity/Q111734906', 'http://www.wikidata.org/entity/Q111734910', 'http://www.wikidata.org/entity/Q111734978', 'http://www.wikidata.org/entity/Q111735009', 'http://www.wikidata.org/entity/Q111735146', 'http://www.wikidata.org/entity/Q111735183', 'http://www.wikidata.org/entity/Q111735311', 'http://www.wikidata.org/entity/Q111738073', 'http://www.wikidata.org/entity/Q111738552', 'http://www.wikidata.org/entity/Q111738762', 'http://www.wikidata.org/entity/Q111738881', 'http://www.wikidata.org/entity/Q111743473', 'http://www.wikidata.org/entity/Q111743614', 'http://www.wikidata.org/entity/Q111743635', 'http://www.wikidata.org/entity/Q111743658', 'http://www.wikidata.org/entity/Q111743894', 'http://www.wikidata.org/entity/Q111743903', 'http://www.wikidata.org/entity/Q111743905', 'http://www.wikidata.org/entity/Q111743922', 'http://www.wikidata.org/entity/Q111744105', 'http://www.wikidata.org/entity/Q111744185', 'http://www.wikidata.org/entity/Q111744196', 'http://www.wikidata.org/entity/Q111744206', 'http://www.wikidata.org/entity/Q111744231', 'http://www.wikidata.org/entity/Q111744233', 'http://www.wikidata.org/entity/Q111744287', 'http://www.wikidata.org/entity/Q111750057', 'http://www.wikidata.org/entity/Q111750098', 'http://www.wikidata.org/entity/Q111750104', 'http://www.wikidata.org/entity/Q111750108', 'http://www.wikidata.org/entity/Q111750391', 'http://www.wikidata.org/entity/Q111750396', 'http://www.wikidata.org/entity/Q111750414', 'http://www.wikidata.org/entity/Q111750482', 'http://www.wikidata.org/entity/Q111750486', 'http://www.wikidata.org/entity/Q111750538', 'http://www.wikidata.org/entity/Q111750619', 'http://www.wikidata.org/entity/Q111750632', 'http://www.wikidata.org/entity/Q111750636', 'http://www.wikidata.org/entity/Q111750803', 'http://www.wikidata.org/entity/Q111772339', 'http://www.wikidata.org/entity/Q111772429', 'http://www.wikidata.org/entity/Q111772455', 'http://www.wikidata.org/entity/Q111772465', 'http://www.wikidata.org/entity/Q111772467', 'http://www.wikidata.org/entity/Q111772470', 'http://www.wikidata.org/entity/Q111772479', 'http://www.wikidata.org/entity/Q111772481', 'http://www.wikidata.org/entity/Q111772492', 'http://www.wikidata.org/entity/Q111772538', 'http://www.wikidata.org/entity/Q111772542', 'http://www.wikidata.org/entity/Q111772579', 'http://www.wikidata.org/entity/Q111772903', 'http://www.wikidata.org/entity/Q111774488', 'http://www.wikidata.org/entity/Q111774855', 'http://www.wikidata.org/entity/Q111775976', 'http://www.wikidata.org/entity/Q111781307', 'http://www.wikidata.org/entity/Q111781313', 'http://www.wikidata.org/entity/Q111781415', 'http://www.wikidata.org/entity/Q111782305', 'http://www.wikidata.org/entity/Q111782406', 'http://www.wikidata.org/entity/Q111792237', 'http://www.wikidata.org/entity/Q111792287', 'http://www.wikidata.org/entity/Q111792297', 'http://www.wikidata.org/entity/Q111792422', 'http://www.wikidata.org/entity/Q111792427', 'http://www.wikidata.org/entity/Q111792455', 'http://www.wikidata.org/entity/Q111792652', 'http://www.wikidata.org/entity/Q111792657', 'http://www.wikidata.org/entity/Q111792669', 'http://www.wikidata.org/entity/Q111795166', 'http://www.wikidata.org/entity/Q111795170', 'http://www.wikidata.org/entity/Q111795181', 'http://www.wikidata.org/entity/Q111795190', 'http://www.wikidata.org/entity/Q111795208', 'http://www.wikidata.org/entity/Q111795217', 'http://www.wikidata.org/entity/Q111795226', 'http://www.wikidata.org/entity/Q111795230', 'http://www.wikidata.org/entity/Q111795234', 'http://www.wikidata.org/entity/Q111795238', 'http://www.wikidata.org/entity/Q111798789', 'http://www.wikidata.org/entity/Q111799191', 'http://www.wikidata.org/entity/Q111799265', 'http://www.wikidata.org/entity/Q111799326', 'http://www.wikidata.org/entity/Q111799364', 'http://www.wikidata.org/entity/Q111799715', 'http://www.wikidata.org/entity/Q111800151', 'http://www.wikidata.org/entity/Q111800560', 'http://www.wikidata.org/entity/Q111800590', 'http://www.wikidata.org/entity/Q111800661', 'http://www.wikidata.org/entity/Q111800678', 'http://www.wikidata.org/entity/Q111800735', 'http://www.wikidata.org/entity/Q111800758', 'http://www.wikidata.org/entity/Q111801201', 'http://www.wikidata.org/entity/Q111801219', 'http://www.wikidata.org/entity/Q111801257', 'http://www.wikidata.org/entity/Q111801366', 'http://www.wikidata.org/entity/Q111801395', 'http://www.wikidata.org/entity/Q111801411', 'http://www.wikidata.org/entity/Q111801450', 'http://www.wikidata.org/entity/Q111801507', 'http://www.wikidata.org/entity/Q111801550', 'http://www.wikidata.org/entity/Q111810594', 'http://www.wikidata.org/entity/Q111810721', 'http://www.wikidata.org/entity/Q111811564', 'http://www.wikidata.org/entity/Q111811624', 'http://www.wikidata.org/entity/Q111811681', 'http://www.wikidata.org/entity/Q111812563', 'http://www.wikidata.org/entity/Q111812584', 'http://www.wikidata.org/entity/Q111812855', 'http://www.wikidata.org/entity/Q111816790', 'http://www.wikidata.org/entity/Q111817714', 'http://www.wikidata.org/entity/Q111817744', 'http://www.wikidata.org/entity/Q111817829', 'http://www.wikidata.org/entity/Q111817846', 'http://www.wikidata.org/entity/Q111817920', 'http://www.wikidata.org/entity/Q111818123', 'http://www.wikidata.org/entity/Q111824276', 'http://www.wikidata.org/entity/Q111824296', 'http://www.wikidata.org/entity/Q111824414', 'http://www.wikidata.org/entity/Q111824439', 'http://www.wikidata.org/entity/Q111824771', 'http://www.wikidata.org/entity/Q111824800', 'http://www.wikidata.org/entity/Q111824823', 'http://www.wikidata.org/entity/Q111824918', 'http://www.wikidata.org/entity/Q111825400', 'http://www.wikidata.org/entity/Q111825424', 'http://www.wikidata.org/entity/Q111825449', 'http://www.wikidata.org/entity/Q111825554', 'http://www.wikidata.org/entity/Q111825613', 'http://www.wikidata.org/entity/Q111825677', 'http://www.wikidata.org/entity/Q111825713', 'http://www.wikidata.org/entity/Q111825832', 'http://www.wikidata.org/entity/Q111826063', 'http://www.wikidata.org/entity/Q111826089', 'http://www.wikidata.org/entity/Q111830034', 'http://www.wikidata.org/entity/Q111830188', 'http://www.wikidata.org/entity/Q111837290', 'http://www.wikidata.org/entity/Q111837438', 'http://www.wikidata.org/entity/Q111837464', 'http://www.wikidata.org/entity/Q111837474', 'http://www.wikidata.org/entity/Q111837785', 'http://www.wikidata.org/entity/Q111837834', 'http://www.wikidata.org/entity/Q111837845', 'http://www.wikidata.org/entity/Q111837855', 'http://www.wikidata.org/entity/Q111837912', 'http://www.wikidata.org/entity/Q111837991', 'http://www.wikidata.org/entity/Q111848069', 'http://www.wikidata.org/entity/Q111848409', 'http://www.wikidata.org/entity/Q111848456', 'http://www.wikidata.org/entity/Q111848558', 'http://www.wikidata.org/entity/Q111848588', 'http://www.wikidata.org/entity/Q111848721', 'http://www.wikidata.org/entity/Q111848749', 'http://www.wikidata.org/entity/Q111848889', 'http://www.wikidata.org/entity/Q111903596', 'http://www.wikidata.org/entity/Q111903847', 'http://www.wikidata.org/entity/Q111903850', 'http://www.wikidata.org/entity/Q111903876', 'http://www.wikidata.org/entity/Q111903878', 'http://www.wikidata.org/entity/Q111903929', 'http://www.wikidata.org/entity/Q111903935', 'http://www.wikidata.org/entity/Q111903958', 'http://www.wikidata.org/entity/Q111904025', 'http://www.wikidata.org/entity/Q111904053', 'http://www.wikidata.org/entity/Q111904059', 'http://www.wikidata.org/entity/Q111904155', 'http://www.wikidata.org/entity/Q111905212', 'http://www.wikidata.org/entity/Q111905225', 'http://www.wikidata.org/entity/Q111905272', 'http://www.wikidata.org/entity/Q111906585', 'http://www.wikidata.org/entity/Q111906632', 'http://www.wikidata.org/entity/Q111906707', 'http://www.wikidata.org/entity/Q111907290', 'http://www.wikidata.org/entity/Q111907317', 'http://www.wikidata.org/entity/Q111908878', 'http://www.wikidata.org/entity/Q111908880', 'http://www.wikidata.org/entity/Q111908884', 'http://www.wikidata.org/entity/Q111908910', 'http://www.wikidata.org/entity/Q111909231', 'http://www.wikidata.org/entity/Q111909314', 'http://www.wikidata.org/entity/Q111909357', 'http://www.wikidata.org/entity/Q111909361', 'http://www.wikidata.org/entity/Q111909369', 'http://www.wikidata.org/entity/Q111909483', 'http://www.wikidata.org/entity/Q111909520', 'http://www.wikidata.org/entity/Q111909557', 'http://www.wikidata.org/entity/Q111909632', 'http://www.wikidata.org/entity/Q111909656', 'http://www.wikidata.org/entity/Q111909659', 'http://www.wikidata.org/entity/Q111909665', 'http://www.wikidata.org/entity/Q111909679', 'http://www.wikidata.org/entity/Q111909683', 'http://www.wikidata.org/entity/Q111909686', 'http://www.wikidata.org/entity/Q111918622', 'http://www.wikidata.org/entity/Q111972328', 'http://www.wikidata.org/entity/Q111972588', 'http://www.wikidata.org/entity/Q111972596', 'http://www.wikidata.org/entity/Q111972626', 'http://www.wikidata.org/entity/Q111972641', 'http://www.wikidata.org/entity/Q111972655', 'http://www.wikidata.org/entity/Q111972667', 'http://www.wikidata.org/entity/Q111972760', 'http://www.wikidata.org/entity/Q111972775', 'http://www.wikidata.org/entity/Q111981575', 'http://www.wikidata.org/entity/Q111981578', 'http://www.wikidata.org/entity/Q111981586', 'http://www.wikidata.org/entity/Q111981600', 'http://www.wikidata.org/entity/Q111981655', 'http://www.wikidata.org/entity/Q111981806', 'http://www.wikidata.org/entity/Q111984435', 'http://www.wikidata.org/entity/Q111993442', 'http://www.wikidata.org/entity/Q111993561', 'http://www.wikidata.org/entity/Q112028016', 'http://www.wikidata.org/entity/Q112028058', 'http://www.wikidata.org/entity/Q112030707', 'http://www.wikidata.org/entity/Q112037464', 'http://www.wikidata.org/entity/Q112038287', 'http://www.wikidata.org/entity/Q112040430', 'http://www.wikidata.org/entity/Q112053302', 'http://www.wikidata.org/entity/Q112059989', 'http://www.wikidata.org/entity/Q112063713', 'http://www.wikidata.org/entity/Q112087493', 'http://www.wikidata.org/entity/Q112127176', 'http://www.wikidata.org/entity/Q112183753', 'http://www.wikidata.org/entity/Q112190885', 'http://www.wikidata.org/entity/Q112263083', 'http://www.wikidata.org/entity/Q112667083', 'http://www.wikidata.org/entity/Q112667550', 'http://www.wikidata.org/entity/Q112669313', 'http://www.wikidata.org/entity/Q112669383', 'http://www.wikidata.org/entity/Q112681996', 'http://www.wikidata.org/entity/Q112746421', 'http://www.wikidata.org/entity/Q112747808', 'http://www.wikidata.org/entity/Q112894949', 'http://www.wikidata.org/entity/Q112894986', 'http://www.wikidata.org/entity/Q113015050', 'http://www.wikidata.org/entity/Q113072738', 'http://www.wikidata.org/entity/Q1131707', 'http://www.wikidata.org/entity/Q113272299', 'http://www.wikidata.org/entity/Q113272409', 'http://www.wikidata.org/entity/Q113272932', 'http://www.wikidata.org/entity/Q113499373', 'http://www.wikidata.org/entity/Q113499494', 'http://www.wikidata.org/entity/Q113650760', 'http://www.wikidata.org/entity/Q11368765', 'http://www.wikidata.org/entity/Q113811579', 'http://www.wikidata.org/entity/Q113813231', 'http://www.wikidata.org/entity/Q113828978', 'http://www.wikidata.org/entity/Q113830063', 'http://www.wikidata.org/entity/Q113841626', 'http://www.wikidata.org/entity/Q113849016', 'http://www.wikidata.org/entity/Q113860611', 'http://www.wikidata.org/entity/Q113860644', 'http://www.wikidata.org/entity/Q113861194', 'http://www.wikidata.org/entity/Q113882354', 'http://www.wikidata.org/entity/Q113884368', 'http://www.wikidata.org/entity/Q113901976', 'http://www.wikidata.org/entity/Q113904662', 'http://www.wikidata.org/entity/Q1139536', 'http://www.wikidata.org/entity/Q113955599', 'http://www.wikidata.org/entity/Q113955616', 'http://www.wikidata.org/entity/Q113955620', 'http://www.wikidata.org/entity/Q113955692', 'http://www.wikidata.org/entity/Q113961851', 'http://www.wikidata.org/entity/Q113961888', 'http://www.wikidata.org/entity/Q113961932', 'http://www.wikidata.org/entity/Q114028189', 'http://www.wikidata.org/entity/Q114046091', 'http://www.wikidata.org/entity/Q114056617', 'http://www.wikidata.org/entity/Q114057278', 'http://www.wikidata.org/entity/Q114059225', 'http://www.wikidata.org/entity/Q114243677', 'http://www.wikidata.org/entity/Q114454471', 'http://www.wikidata.org/entity/Q1145566', 'http://www.wikidata.org/entity/Q1145630', 'http://www.wikidata.org/entity/Q114582556', 'http://www.wikidata.org/entity/Q114588676', 'http://www.wikidata.org/entity/Q114604', 'http://www.wikidata.org/entity/Q114947458', 'http://www.wikidata.org/entity/Q114948159', 'http://www.wikidata.org/entity/Q114996688', 'http://www.wikidata.org/entity/Q114997174', 'http://www.wikidata.org/entity/Q115341348', 'http://www.wikidata.org/entity/Q115367992', 'http://www.wikidata.org/entity/Q115397386', 'http://www.wikidata.org/entity/Q115517924', 'http://www.wikidata.org/entity/Q115764515', 'http://www.wikidata.org/entity/Q115801523', 'http://www.wikidata.org/entity/Q115912774', 'http://www.wikidata.org/entity/Q115990472', 'http://www.wikidata.org/entity/Q116414186', 'http://www.wikidata.org/entity/Q116690653', 'http://www.wikidata.org/entity/Q117421915', 'http://www.wikidata.org/entity/Q117695225', 'http://www.wikidata.org/entity/Q117751349', 'http://www.wikidata.org/entity/Q117795094', 'http://www.wikidata.org/entity/Q11789705', 'http://www.wikidata.org/entity/Q118128483', 'http://www.wikidata.org/entity/Q11921906', 'http://www.wikidata.org/entity/Q11938851', 'http://www.wikidata.org/entity/Q119496586', 'http://www.wikidata.org/entity/Q11993043', 'http://www.wikidata.org/entity/Q1207931', 'http://www.wikidata.org/entity/Q1207932', 'http://www.wikidata.org/entity/Q120837533', 'http://www.wikidata.org/entity/Q121886956', 'http://www.wikidata.org/entity/Q122068698', 'http://www.wikidata.org/entity/Q122188018', 'http://www.wikidata.org/entity/Q12228863', 'http://www.wikidata.org/entity/Q12228866', 'http://www.wikidata.org/entity/Q12228868', 'http://www.wikidata.org/entity/Q12228876', 'http://www.wikidata.org/entity/Q12228884', 'http://www.wikidata.org/entity/Q12252186', 'http://www.wikidata.org/entity/Q12277858', 'http://www.wikidata.org/entity/Q122832546', 'http://www.wikidata.org/entity/Q12314502', 'http://www.wikidata.org/entity/Q123337193', 'http://www.wikidata.org/entity/Q123592992', 'http://www.wikidata.org/entity/Q12361577', 'http://www.wikidata.org/entity/Q123746478', 'http://www.wikidata.org/entity/Q12376028', 'http://www.wikidata.org/entity/Q12378350', 'http://www.wikidata.org/entity/Q124036138', 'http://www.wikidata.org/entity/Q12407929', 'http://www.wikidata.org/entity/Q12411505', 'http://www.wikidata.org/entity/Q124367042', 'http://www.wikidata.org/entity/Q124504910', 'http://www.wikidata.org/entity/Q124564384', 'http://www.wikidata.org/entity/Q124612831', 'http://www.wikidata.org/entity/Q124615758', 'http://www.wikidata.org/entity/Q124619352', 'http://www.wikidata.org/entity/Q124620804', 'http://www.wikidata.org/entity/Q124620822', 'http://www.wikidata.org/entity/Q124707699', 'http://www.wikidata.org/entity/Q124820083', 'http://www.wikidata.org/entity/Q124830280', 'http://www.wikidata.org/entity/Q124857570', 'http://www.wikidata.org/entity/Q124858688', 'http://www.wikidata.org/entity/Q124858953', 'http://www.wikidata.org/entity/Q125149734', 'http://www.wikidata.org/entity/Q125205121', 'http://www.wikidata.org/entity/Q1254268', 'http://www.wikidata.org/entity/Q125510673', 'http://www.wikidata.org/entity/Q125511630', 'http://www.wikidata.org/entity/Q125521675', 'http://www.wikidata.org/entity/Q125521758', 'http://www.wikidata.org/entity/Q125555445', 'http://www.wikidata.org/entity/Q125566609', 'http://www.wikidata.org/entity/Q125577561', 'http://www.wikidata.org/entity/Q125592462', 'http://www.wikidata.org/entity/Q12560060', 'http://www.wikidata.org/entity/Q125688458', 'http://www.wikidata.org/entity/Q125688603', 'http://www.wikidata.org/entity/Q125700972', 'http://www.wikidata.org/entity/Q125704427', 'http://www.wikidata.org/entity/Q125747483', 'http://www.wikidata.org/entity/Q125749644', 'http://www.wikidata.org/entity/Q125758800', 'http://www.wikidata.org/entity/Q125759229', 'http://www.wikidata.org/entity/Q125845551', 'http://www.wikidata.org/entity/Q12584835', 'http://www.wikidata.org/entity/Q125856465', 'http://www.wikidata.org/entity/Q125867175', 'http://www.wikidata.org/entity/Q125867458', 'http://www.wikidata.org/entity/Q125867756', 'http://www.wikidata.org/entity/Q125867888', 'http://www.wikidata.org/entity/Q125869488', 'http://www.wikidata.org/entity/Q125879646', 'http://www.wikidata.org/entity/Q125879891', 'http://www.wikidata.org/entity/Q125883649', 'http://www.wikidata.org/entity/Q125883847', 'http://www.wikidata.org/entity/Q125890530', 'http://www.wikidata.org/entity/Q125890753', 'http://www.wikidata.org/entity/Q125891443', 'http://www.wikidata.org/entity/Q125891720', 'http://www.wikidata.org/entity/Q125895110', 'http://www.wikidata.org/entity/Q125895155', 'http://www.wikidata.org/entity/Q125899181', 'http://www.wikidata.org/entity/Q125899513', 'http://www.wikidata.org/entity/Q125901134', 'http://www.wikidata.org/entity/Q125903138', 'http://www.wikidata.org/entity/Q125910729', 'http://www.wikidata.org/entity/Q125910806', 'http://www.wikidata.org/entity/Q125911055', 'http://www.wikidata.org/entity/Q125911072', 'http://www.wikidata.org/entity/Q125914666', 'http://www.wikidata.org/entity/Q125914885', 'http://www.wikidata.org/entity/Q125921693', 'http://www.wikidata.org/entity/Q125922831', 'http://www.wikidata.org/entity/Q125922882', 'http://www.wikidata.org/entity/Q125926636', 'http://www.wikidata.org/entity/Q125932740', 'http://www.wikidata.org/entity/Q125936101', 'http://www.wikidata.org/entity/Q125936683', 'http://www.wikidata.org/entity/Q125956876', 'http://www.wikidata.org/entity/Q125959131', 'http://www.wikidata.org/entity/Q125965703', 'http://www.wikidata.org/entity/Q125966437', 'http://www.wikidata.org/entity/Q125966992', 'http://www.wikidata.org/entity/Q125968806', 'http://www.wikidata.org/entity/Q125969610', 'http://www.wikidata.org/entity/Q125970539', 'http://www.wikidata.org/entity/Q125984409', 'http://www.wikidata.org/entity/Q125984492', 'http://www.wikidata.org/entity/Q125994583', 'http://www.wikidata.org/entity/Q125997034', 'http://www.wikidata.org/entity/Q125998688', 'http://www.wikidata.org/entity/Q125998803', 'http://www.wikidata.org/entity/Q125998897', 'http://www.wikidata.org/entity/Q125999072', 'http://www.wikidata.org/entity/Q12599950', 'http://www.wikidata.org/entity/Q126010095', 'http://www.wikidata.org/entity/Q126010128', 'http://www.wikidata.org/entity/Q126028447', 'http://www.wikidata.org/entity/Q126028546', 'http://www.wikidata.org/entity/Q126032653', 'http://www.wikidata.org/entity/Q126126323', 'http://www.wikidata.org/entity/Q126126778', 'http://www.wikidata.org/entity/Q12613371', 'http://www.wikidata.org/entity/Q12629515', 'http://www.wikidata.org/entity/Q126325524', 'http://www.wikidata.org/entity/Q126361854', 'http://www.wikidata.org/entity/Q126362969', 'http://www.wikidata.org/entity/Q126371412', 'http://www.wikidata.org/entity/Q126371457', 'http://www.wikidata.org/entity/Q126371864', 'http://www.wikidata.org/entity/Q126371886', 'http://www.wikidata.org/entity/Q126372368', 'http://www.wikidata.org/entity/Q126372458', 'http://www.wikidata.org/entity/Q126372576', 'http://www.wikidata.org/entity/Q126415038', 'http://www.wikidata.org/entity/Q126456102', 'http://www.wikidata.org/entity/Q126477003', 'http://www.wikidata.org/entity/Q126477086', 'http://www.wikidata.org/entity/Q126477151', 'http://www.wikidata.org/entity/Q126477162', 'http://www.wikidata.org/entity/Q126478091', 'http://www.wikidata.org/entity/Q126478228', 'http://www.wikidata.org/entity/Q126511431', 'http://www.wikidata.org/entity/Q126513767', 'http://www.wikidata.org/entity/Q126593634', 'http://www.wikidata.org/entity/Q12663413', 'http://www.wikidata.org/entity/Q126666887', 'http://www.wikidata.org/entity/Q126709387', 'http://www.wikidata.org/entity/Q126721902', 'http://www.wikidata.org/entity/Q126726117', 'http://www.wikidata.org/entity/Q126811008', 'http://www.wikidata.org/e</t>
+          <t>['38274618']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['http://www.wikidata.org/entity/Q100052578', 'http://www.wikidata.org/entity/Q100152054', 'http://www.wikidata.org/entity/Q100152055', 'http://www.wikidata.org/entity/Q100152056', 'http://www.wikidata.org/entity/Q100152094', 'http://www.wikidata.org/entity/Q100152359', 'http://www.wikidata.org/entity/Q100249763', 'http://www.wikidata.org/entity/Q100252580', 'http://www.wikidata.org/entity/Q100255765', 'http://www.wikidata.org/entity/Q100257064', 'http://www.wikidata.org/entity/Q100268243', 'http://www.wikidata.org/entity/Q100298115', 'http://www.wikidata.org/entity/Q100298143', 'http://www.wikidata.org/entity/Q100298151', 'http://www.wikidata.org/entity/Q100298167', 'http://www.wikidata.org/entity/Q100298168', 'http://www.wikidata.org/entity/Q100298329', 'http://www.wikidata.org/entity/Q100298429', 'http://www.wikidata.org/entity/Q100298441', 'http://www.wikidata.org/entity/Q100299735', 'http://www.wikidata.org/entity/Q100300047', 'http://www.wikidata.org/entity/Q100301284', 'http://www.wikidata.org/entity/Q100302392', 'http://www.wikidata.org/entity/Q100303975', 'http://www.wikidata.org/entity/Q100304191', 'http://www.wikidata.org/entity/Q100304645', 'http://www.wikidata.org/entity/Q100305132', 'http://www.wikidata.org/entity/Q100305454', 'http://www.wikidata.org/entity/Q100305850', 'http://www.wikidata.org/entity/Q100306843', 'http://www.wikidata.org/entity/Q100306845', 'http://www.wikidata.org/entity/Q100307022', 'http://www.wikidata.org/entity/Q100307053', 'http://www.wikidata.org/entity/Q100307131', 'http://www.wikidata.org/entity/Q100307264', 'http://www.wikidata.org/entity/Q100307434', 'http://www.wikidata.org/entity/Q100308246', 'http://www.wikidata.org/entity/Q100308269', 'http://www.wikidata.org/entity/Q100308779', 'http://www.wikidata.org/entity/Q100308793', 'http://www.wikidata.org/entity/Q100310139', 'http://www.wikidata.org/entity/Q100310150', 'http://www.wikidata.org/entity/Q100310158', 'http://www.wikidata.org/entity/Q100310437', 'http://www.wikidata.org/entity/Q100310441', 'http://www.wikidata.org/entity/Q100310459', 'http://www.wikidata.org/entity/Q100312121', 'http://www.wikidata.org/entity/Q100312133', 'http://www.wikidata.org/entity/Q100312162', 'http://www.wikidata.org/entity/Q100313744', 'http://www.wikidata.org/entity/Q100313747', 'http://www.wikidata.org/entity/Q100313773', 'http://www.wikidata.org/entity/Q100313781', 'http://www.wikidata.org/entity/Q100313784', 'http://www.wikidata.org/entity/Q100313794', 'http://www.wikidata.org/entity/Q100313795', 'http://www.wikidata.org/entity/Q100313800', 'http://www.wikidata.org/entity/Q100313810', 'http://www.wikidata.org/entity/Q100313861', 'http://www.wikidata.org/entity/Q100313864', 'http://www.wikidata.org/entity/Q100313867', 'http://www.wikidata.org/entity/Q100313884', 'http://www.wikidata.org/entity/Q100313915', 'http://www.wikidata.org/entity/Q100315974', 'http://www.wikidata.org/entity/Q100317369', 'http://www.wikidata.org/entity/Q100326372', 'http://www.wikidata.org/entity/Q100326492', 'http://www.wikidata.org/entity/Q100326834', 'http://www.wikidata.org/entity/Q100331280', 'http://www.wikidata.org/entity/Q100331814', 'http://www.wikidata.org/entity/Q100331822', 'http://www.wikidata.org/entity/Q100331850', 'http://www.wikidata.org/entity/Q100331908', 'http://www.wikidata.org/entity/Q100343769', 'http://www.wikidata.org/entity/Q100343781', 'http://www.wikidata.org/entity/Q100366470', 'http://www.wikidata.org/entity/Q100368738', 'http://www.wikidata.org/entity/Q100378341', 'http://www.wikidata.org/entity/Q100378343', 'http://www.wikidata.org/entity/Q100378896', 'http://www.wikidata.org/entity/Q100378979', 'http://www.wikidata.org/entity/Q100380315', 'http://www.wikidata.org/entity/Q100380647', 'http://www.wikidata.org/entity/Q100381349', 'http://www.wikidata.org/entity/Q100382387', 'http://www.wikidata.org/entity/Q100382575', 'http://www.wikidata.org/entity/Q100383822', 'http://www.wikidata.org/entity/Q100384037', 'http://www.wikidata.org/entity/Q100385950', 'http://www.wikidata.org/entity/Q100386847', 'http://www.wikidata.org/entity/Q100388712', 'http://www.wikidata.org/entity/Q100389182', 'http://www.wikidata.org/entity/Q100389703', 'http://www.wikidata.org/entity/Q100391559', 'http://www.wikidata.org/entity/Q100391562', 'http://www.wikidata.org/entity/Q100391649', 'http://www.wikidata.org/entity/Q100391726', 'http://www.wikidata.org/entity/Q100392267', 'http://www.wikidata.org/entity/Q100393447', 'http://www.wikidata.org/entity/Q100393455', 'http://www.wikidata.org/entity/Q100394159', 'http://www.wikidata.org/entity/Q100394196', 'http://www.wikidata.org/entity/Q100394207', 'http://www.wikidata.org/entity/Q100394217', 'http://www.wikidata.org/entity/Q100395057', 'http://www.wikidata.org/entity/Q100395104', 'http://www.wikidata.org/entity/Q100395118', 'http://www.wikidata.org/entity/Q100395511', 'http://www.wikidata.org/entity/Q100395521', 'http://www.wikidata.org/entity/Q100395523', 'http://www.wikidata.org/entity/Q100395734', 'http://www.wikidata.org/entity/Q100396160', 'http://www.wikidata.org/entity/Q100403990', 'http://www.wikidata.org/entity/Q100404349', 'http://www.wikidata.org/entity/Q100404965', 'http://www.wikidata.org/entity/Q100405140', 'http://www.wikidata.org/entity/Q100406679', 'http://www.wikidata.org/entity/Q100406680', 'http://www.wikidata.org/entity/Q100406702', 'http://www.wikidata.org/entity/Q100406704', 'http://www.wikidata.org/entity/Q100406708', 'http://www.wikidata.org/entity/Q100406713', 'http://www.wikidata.org/entity/Q100406715', 'http://www.wikidata.org/entity/Q100406716', 'http://www.wikidata.org/entity/Q100406734', 'http://www.wikidata.org/entity/Q100406748', 'http://www.wikidata.org/entity/Q100406865', 'http://www.wikidata.org/entity/Q100406892', 'http://www.wikidata.org/entity/Q100406914', 'http://www.wikidata.org/entity/Q100407212', 'http://www.wikidata.org/entity/Q100409941', 'http://www.wikidata.org/entity/Q100410725', 'http://www.wikidata.org/entity/Q100410726', 'http://www.wikidata.org/entity/Q100410729', 'http://www.wikidata.org/entity/Q100410730', 'http://www.wikidata.org/entity/Q100410743', 'http://www.wikidata.org/entity/Q100410744', 'http://www.wikidata.org/entity/Q100410754', 'http://www.wikidata.org/entity/Q100410757', 'http://www.wikidata.org/entity/Q100410763', 'http://www.wikidata.org/entity/Q100410768', 'http://www.wikidata.org/entity/Q100410772', 'http://www.wikidata.org/entity/Q100410776', 'http://www.wikidata.org/entity/Q100410780', 'http://www.wikidata.org/entity/Q100410785', 'http://www.wikidata.org/entity/Q100410791', 'http://www.wikidata.org/entity/Q100410793', 'http://www.wikidata.org/entity/Q100410794', 'http://www.wikidata.org/entity/Q100410817', 'http://www.wikidata.org/entity/Q100410829', 'http://www.wikidata.org/entity/Q100410835', 'http://www.wikidata.org/entity/Q100410842', 'http://www.wikidata.org/entity/Q100410868', 'http://www.wikidata.org/entity/Q100410881', 'http://www.wikidata.org/entity/Q100410901', 'http://www.wikidata.org/entity/Q100411017', 'http://www.wikidata.org/entity/Q100411281', 'http://www.wikidata.org/entity/Q100411343', 'http://www.wikidata.org/entity/Q100411429', 'http://www.wikidata.org/entity/Q100411463', 'http://www.wikidata.org/entity/Q100411477', 'http://www.wikidata.org/entity/Q100411605', 'http://www.wikidata.org/entity/Q100411856', 'http://www.wikidata.org/entity/Q100411959', 'http://www.wikidata.org/entity/Q100411998', 'http://www.wikidata.org/entity/Q100412018', 'http://www.wikidata.org/entity/Q100412061', 'http://www.wikidata.org/entity/Q100412077', 'http://www.wikidata.org/entity/Q100412085', 'http://www.wikidata.org/entity/Q100412095', 'http://www.wikidata.org/entity/Q100412109', 'http://www.wikidata.org/entity/Q100412123', 'http://www.wikidata.org/entity/Q100412162', 'http://www.wikidata.org/entity/Q100412198', 'http://www.wikidata.org/entity/Q100415272', 'http://www.wikidata.org/entity/Q100415274', 'http://www.wikidata.org/entity/Q100415739', 'http://www.wikidata.org/entity/Q100415785', 'http://www.wikidata.org/entity/Q100415800', 'http://www.wikidata.org/entity/Q100416049', 'http://www.wikidata.org/entity/Q100416082', 'http://www.wikidata.org/entity/Q100416161', 'http://www.wikidata.org/entity/Q100417689', 'http://www.wikidata.org/entity/Q100417808', 'http://www.wikidata.org/entity/Q100418600', 'http://www.wikidata.org/entity/Q100418696', 'http://www.wikidata.org/entity/Q100418712', 'http://www.wikidata.org/entity/Q100418759', 'http://www.wikidata.org/entity/Q100420822', 'http://www.wikidata.org/entity/Q100420998', 'http://www.wikidata.org/entity/Q100422547', 'http://www.wikidata.org/entity/Q100422596', 'http://www.wikidata.org/entity/Q100422960', 'http://www.wikidata.org/entity/Q100422972', 'http://www.wikidata.org/entity/Q100423633', 'http://www.wikidata.org/entity/Q100426906', 'http://www.wikidata.org/entity/Q100426918', 'http://www.wikidata.org/entity/Q100426968', 'http://www.wikidata.org/entity/Q100427919', 'http://www.wikidata.org/entity/Q100428051', 'http://www.wikidata.org/entity/Q100428076', 'http://www.wikidata.org/entity/Q100428087', 'http://www.wikidata.org/entity/Q100428133', 'http://www.wikidata.org/entity/Q100429967', 'http://www.wikidata.org/entity/Q100430323', 'http://www.wikidata.org/entity/Q100431329', 'http://www.wikidata.org/entity/Q100431505', 'http://www.wikidata.org/entity/Q100431610', 'http://www.wikidata.org/entity/Q100432060', 'http://www.wikidata.org/entity/Q100434064', 'http://www.wikidata.org/entity/Q100434746', 'http://www.wikidata.org/entity/Q100434996', 'http://www.wikidata.org/entity/Q100437616', 'http://www.wikidata.org/entity/Q100437695', 'http://www.wikidata.org/entity/Q100437732', 'http://www.wikidata.org/entity/Q100437761', 'http://www.wikidata.org/entity/Q100437900', 'http://www.wikidata.org/entity/Q100439709', 'http://www.wikidata.org/entity/Q100439783', 'http://www.wikidata.org/entity/Q100440762', 'http://www.wikidata.org/entity/Q100440822', 'http://www.wikidata.org/entity/Q100442373', 'http://www.wikidata.org/entity/Q100443613', 'http://www.wikidata.org/entity/Q100443620', 'http://www.wikidata.org/entity/Q100443623', 'http://www.wikidata.org/entity/Q100443625', 'http://www.wikidata.org/entity/Q100443628', 'http://www.wikidata.org/entity/Q100443631', 'http://www.wikidata.org/entity/Q100443634', 'http://www.wikidata.org/entity/Q100443637', 'http://www.wikidata.org/entity/Q100443638', 'http://www.wikidata.org/entity/Q100443641', 'http://www.wikidata.org/entity/Q100443645', 'http://www.wikidata.org/entity/Q100443650', 'http://www.wikidata.org/entity/Q100443652', 'http://www.wikidata.org/entity/Q100443653', 'http://www.wikidata.org/entity/Q100443654', 'http://www.wikidata.org/entity/Q100443655', 'http://www.wikidata.org/entity/Q100443656', 'http://www.wikidata.org/entity/Q100443658', 'http://www.wikidata.org/entity/Q100443659', 'http://www.wikidata.org/entity/Q100443669', 'http://www.wikidata.org/entity/Q100443671', 'http://www.wikidata.org/entity/Q100443674', 'http://www.wikidata.org/entity/Q100443676', 'http://www.wikidata.org/entity/Q100443679', 'http://www.wikidata.org/entity/Q100443681', 'http://www.wikidata.org/entity/Q100443684', 'http://www.wikidata.org/entity/Q100443685', 'http://www.wikidata.org/entity/Q100443687', 'http://www.wikidata.org/entity/Q100443688', 'http://www.wikidata.org/entity/Q100443689', 'http://www.wikidata.org/entity/Q100443691', 'http://www.wikidata.org/entity/Q100443692', 'http://www.wikidata.org/entity/Q100443693', 'http://www.wikidata.org/entity/Q100443694', 'http://www.wikidata.org/entity/Q100443696', 'http://www.wikidata.org/entity/Q100443697', 'http://www.wikidata.org/entity/Q100443703', 'http://www.wikidata.org/entity/Q100443704', 'http://www.wikidata.org/entity/Q100443705', 'http://www.wikidata.org/entity/Q100443708', 'http://www.wikidata.org/entity/Q100443709', 'http://www.wikidata.org/entity/Q100443710', 'http://www.wikidata.org/entity/Q100443712', 'http://www.wikidata.org/entity/Q100443713', 'http://www.wikidata.org/entity/Q100443714', 'http://www.wikidata.org/entity/Q100443715', 'http://www.wikidata.org/entity/Q100444059', 'http://www.wikidata.org/entity/Q100446554', 'http://www.wikidata.org/entity/Q100446643', 'http://www.wikidata.org/entity/Q100446771', 'http://www.wikidata.org/entity/Q100446830', 'http://www.wikidata.org/entity/Q100446840', 'http://www.wikidata.org/entity/Q100446854', 'http://www.wikidata.org/entity/Q100447035', 'http://www.wikidata.org/entity/Q100447181', 'http://www.wikidata.org/entity/Q100447196', 'http://www.wikidata.org/entity/Q100447253', 'http://www.wikidata.org/entity/Q100447399', 'http://www.wikidata.org/entity/Q100447466', 'http://www.wikidata.org/entity/Q100447491', 'http://www.wikidata.org/entity/Q100447517', 'http://www.wikidata.org/entity/Q100447554', 'http://www.wikidata.org/entity/Q100447590', 'http://www.wikidata.org/entity/Q100447699', 'http://www.wikidata.org/entity/Q100448092', 'http://www.wikidata.org/entity/Q100448097', 'http://www.wikidata.org/entity/Q100448526', 'http://www.wikidata.org/entity/Q100448598', 'http://www.wikidata.org/entity/Q100448756', 'http://www.wikidata.org/entity/Q100448795', 'http://www.wikidata.org/entity/Q100448899', 'http://www.wikidata.org/entity/Q100448922', 'http://www.wikidata.org/entity/Q100448941', 'http://www.wikidata.org/entity/Q100448985', 'http://www.wikidata.org/entity/Q100449596', 'http://www.wikidata.org/entity/Q100454159', 'http://www.wikidata.org/entity/Q100454220', 'http://www.wikidata.org/entity/Q100454230', 'http://www.wikidata.org/entity/Q100454958', 'http://www.wikidata.org/entity/Q100455378', 'http://www.wikidata.org/entity/Q100456077', 'http://www.wikidata.org/entity/Q100456096', 'http://www.wikidata.org/entity/Q100456103', 'http://www.wikidata.org/entity/Q100456164', 'http://www.wikidata.org/entity/Q100456442', 'http://www.wikidata.org/entity/Q100457137', 'http://www.wikidata.org/entity/Q100457519', 'http://www.wikidata.org/entity/Q100457872', 'http://www.wikidata.org/entity/Q100457953', 'http://www.wikidata.org/entity/Q100458074', 'http://www.wikidata.org/entity/Q100458198', 'http://www.wikidata.org/entity/Q100458210', 'http://www.wikidata.org/entity/Q100461440', 'http://www.wikidata.org/entity/Q100463777', 'http://www.wikidata.org/entity/Q100464151', 'http://www.wikidata.org/entity/Q100464433', 'http://www.wikidata.org/entity/Q100465423', 'http://www.wikidata.org/entity/Q100470598', 'http://www.wikidata.org/entity/Q100472927', 'http://www.wikidata.org/entity/Q100475379', 'http://www.wikidata.org/entity/Q100476829', 'http://www.wikidata.org/entity/Q100481984', 'http://www.wikidata.org/entity/Q100482061', 'http://www.wikidata.org/entity/Q100482074', 'http://www.wikidata.org/entity/Q100483429', 'http://www.wikidata.org/entity/Q100483635', 'http://www.wikidata.org/entity/Q100483952', 'http://www.wikidata.org/entity/Q100486918', 'http://www.wikidata.org/entity/Q100489830', 'http://www.wikidata.org/entity/Q100489888', 'http://www.wikidata.org/entity/Q100490661', 'http://www.wikidata.org/entity/Q100490689', 'http://www.wikidata.org/entity/Q100490842', 'http://www.wikidata.org/entity/Q100490902', 'http://www.wikidata.org/entity/Q100490926', 'http://www.wikidata.org/entity/Q100491058', 'http://www.wikidata.org/entity/Q100491106', 'http://www.wikidata.org/entity/Q100491125', 'http://www.wikidata.org/entity/Q100493205', 'http://www.wikidata.org/entity/Q100493722', 'http://www.wikidata.org/entity/Q100493954', 'http://www.wikidata.org/entity/Q100496012', 'http://www.wikidata.org/entity/Q100498629', 'http://www.wikidata.org/entity/Q100502446', 'http://www.wikidata.org/entity/Q100502451', 'http://www.wikidata.org/entity/Q100502457', 'http://www.wikidata.org/entity/Q100502459', 'http://www.wikidata.org/entity/Q100502462', 'http://www.wikidata.org/entity/Q100502464', 'http://www.wikidata.org/entity/Q100502471', 'http://www.wikidata.org/entity/Q100502473', 'http://www.wikidata.org/entity/Q100502479', 'http://www.wikidata.org/entity/Q100502488', 'http://www.wikidata.org/entity/Q100502493', 'http://www.wikidata.org/entity/Q100502500', 'http://www.wikidata.org/entity/Q100503024', 'http://www.wikidata.org/entity/Q100503745', 'http://www.wikidata.org/entity/Q100504702', 'http://www.wikidata.org/entity/Q100504840', 'http://www.wikidata.org/entity/Q100506523', 'http://www.wikidata.org/entity/Q100506645', 'http://www.wikidata.org/entity/Q100507016', 'http://www.wikidata.org/entity/Q100507026', 'http://www.wikidata.org/entity/Q100507029', 'http://www.wikidata.org/entity/Q100507031', 'http://www.wikidata.org/entity/Q100507034', 'http://www.wikidata.org/entity/Q100507036', 'http://www.wikidata.org/entity/Q100507040', 'http://www.wikidata.org/entity/Q100507045', 'http://www.wikidata.org/entity/Q100507047', 'http://www.wikidata.org/entity/Q100507048', 'http://www.wikidata.org/entity/Q100507049', 'http://www.wikidata.org/entity/Q100507050', 'http://www.wikidata.org/entity/Q100507051', 'http://www.wikidata.org/entity/Q100507052', 'http://www.wikidata.org/entity/Q100507053', 'http://www.wikidata.org/entity/Q100507054', 'http://www.wikidata.org/entity/Q100507055', 'http://www.wikidata.org/entity/Q100507057', 'http://www.wikidata.org/entity/Q100507058', 'http://www.wikidata.org/entity/Q100507059', 'http://www.wikidata.org/entity/Q100507060', 'http://www.wikidata.org/entity/Q100507061', 'http://www.wikidata.org/entity/Q100507063', 'http://www.wikidata.org/entity/Q100507064', 'http://www.wikidata.org/entity/Q100507068', 'http://www.wikidata.org/entity/Q100507070', 'http://www.wikidata.org/entity/Q100507079', 'http://www.wikidata.org/entity/Q100507084', 'http://www.wikidata.org/entity/Q100507087', 'http://www.wikidata.org/entity/Q100507092', 'http://www.wikidata.org/entity/Q100507094', 'http://www.wikidata.org/entity/Q100507097', 'http://www.wikidata.org/entity/Q100507102', 'http://www.wikidata.org/entity/Q100507105', 'http://www.wikidata.org/entity/Q100507108', 'http://www.wikidata.org/entity/Q100507117', 'http://www.wikidata.org/entity/Q100507121', 'http://www.wikidata.org/entity/Q100507124', 'http://www.wikidata.org/entity/Q100507130', 'http://www.wikidata.org/entity/Q100507132', 'http://www.wikidata.org/entity/Q100508728', 'http://www.wikidata.org/entity/Q100508745', 'http://www.wikidata.org/entity/Q100508975', 'http://www.wikidata.org/entity/Q100510521', 'http://www.wikidata.org/entity/Q100511921', 'http://www.wikidata.org/entity/Q100512193', 'http://www.wikidata.org/entity/Q100512271', 'http://www.wikidata.org/entity/Q100512302', 'http://www.wikidata.org/entity/Q100512318', 'http://www.wikidata.org/entity/Q100513430', 'http://www.wikidata.org/entity/Q100514127', 'http://www.wikidata.org/entity/Q100515832', 'http://www.wikidata.org/entity/Q100515959', 'http://www.wikidata.org/entity/Q100516898', 'http://www.wikidata.org/entity/Q100517579', 'http://www.wikidata.org/entity/Q100517665', 'http://www.wikidata.org/entity/Q100517746', 'http://www.wikidata.org/entity/Q100517806', 'http://www.wikidata.org/entity/Q100517983', 'http://www.wikidata.org/entity/Q100519249', 'http://www.wikidata.org/entity/Q100519468', 'http://www.wikidata.org/entity/Q100520090', 'http://www.wikidata.org/entity/Q100520122', 'http://www.wikidata.org/entity/Q100521488', 'http://www.wikidata.org/entity/Q100521493', 'http://www.wikidata.org/entity/Q100521510', 'http://www.wikidata.org/entity/Q100521817', 'http://www.wikidata.org/entity/Q100523077', 'http://www.wikidata.org/entity/Q100523079', 'http://www.wikidata.org/entity/Q100523111', 'http://www.wikidata.org/entity/Q100524070', 'http://www.wikidata.org/entity/Q100525948', 'http://www.wikidata.org/entity/Q100526467', 'http://www.wikidata.org/entity/Q100526601', 'http://www.wikidata.org/entity/Q100528114', 'http://www.wikidata.org/entity/Q100528552', 'http://www.wikidata.org/entity/Q100529149', 'http://www.wikidata.org/entity/Q100529169', 'http://www.wikidata.org/entity/Q100529357', 'http://www.wikidata.org/entity/Q100529362', 'http://www.wikidata.org/entity/Q100529370', 'http://www.wikidata.org/entity/Q100529371', 'http://www.wikidata.org/entity/Q100529373', 'http://www.wikidata.org/entity/Q100529375', 'http://www.wikidata.org/entity/Q100529384', 'http://www.wikidata.org/entity/Q100529389', 'http://www.wikidata.org/entity/Q100529390', 'http://www.wikidata.org/entity/Q100529391', 'http://www.wikidata.org/entity/Q100529392', 'http://www.wikidata.org/entity/Q100529394', 'http://www.wikidata.org/entity/Q100529396', 'http://www.wikidata.org/entity/Q100529403', 'http://www.wikidata.org/entity/Q100529408', 'http://www.wikidata.org/entity/Q100529409', 'http://www.wikidata.org/entity/Q100529410', 'http://www.wikidata.org/entity/Q100529413', 'http://www.wikidata.org/entity/Q100529417', 'http://www.wikidata.org/entity/Q100529421', 'http://www.wikidata.org/entity/Q100529427', 'http://www.wikidata.org/entity/Q100529429', 'http://www.wikidata.org/entity/Q100529433', 'http://www.wikidata.org/entity/Q100529437', 'http://www.wikidata.org/entity/Q100529441', 'http://www.wikidata.org/entity/Q100529443', 'http://www.wikidata.org/entity/Q100529525', 'http://www.wikidata.org/entity/Q100530811', 'http://www.wikidata.org/entity/Q100530963', 'http://www.wikidata.org/entity/Q100532637', 'http://www.wikidata.org/entity/Q100532650', 'http://www.wikidata.org/entity/Q100533841', 'http://www.wikidata.org/entity/Q100536184', 'http://www.wikidata.org/entity/Q100537130', 'http://www.wikidata.org/entity/Q100537137', 'http://www.wikidata.org/entity/Q100537151', 'http://www.wikidata.org/entity/Q100537154', 'http://www.wikidata.org/entity/Q100537360', 'http://www.wikidata.org/entity/Q100537524', 'http://www.wikidata.org/entity/Q100537557', 'http://www.wikidata.org/entity/Q100537828', 'http://www.wikidata.org/entity/Q100538048', 'http://www.wikidata.org/entity/Q100541396', 'http://www.wikidata.org/entity/Q100541722', 'http://www.wikidata.org/entity/Q100544958', 'http://www.wikidata.org/entity/Q100544978', 'http://www.wikidata.org/entity/Q100545281', 'http://www.wikidata.org/entity/Q100549100', 'http://www.wikidata.org/entity/Q100549213', 'http://www.wikidata.org/entity/Q100549814', 'http://www.wikidata.org/entity/Q100550278', 'http://www.wikidata.org/entity/Q100551131', 'http://www.wikidata.org/entity/Q100558746', 'http://www.wikidata.org/entity/Q100558865', 'http://www.wikidata.org/entity/Q100559850', 'http://www.wikidata.org/entity/Q100560289', 'http://www.wikidata.org/entity/Q100560337', 'http://www.wikidata.org/entity/Q100560504', 'http://www.wikidata.org/entity/Q100560510', 'http://www.wikidata.org/entity/Q100560519', 'http://www.wikidata.org/entity/Q100560542', 'http://www.wikidata.org/entity/Q100560544', 'http://www.wikidata.org/entity/Q100560553', 'http://www.wikidata.org/entity/Q100560554', 'http://www.wikidata.org/entity/Q100560562', 'http://www.wikidata.org/entity/Q100560599', 'http://www.wikidata.org/entity/Q100560613', 'http://www.wikidata.org/entity/Q100560707', 'http://www.wikidata.org/entity/Q100560749', 'http://www.wikidata.org/entity/Q100560753', 'http://www.wikidata.org/entity/Q100560771', 'http://www.wikidata.org/entity/Q100561399', 'http://www.wikidata.org/entity/Q100561626', 'http://www.wikidata.org/entity/Q100563445', 'http://www.wikidata.org/entity/Q100568049', 'http://www.wikidata.org/entity/Q100568472', 'http://www.wikidata.org/entity/Q100587707', 'http://www.wikidata.org/entity/Q100587710', 'http://www.wikidata.org/entity/Q100587711', 'http://www.wikidata.org/entity/Q100593617', 'http://www.wikidata.org/entity/Q100629697', 'http://www.wikidata.org/entity/Q100630406', 'http://www.wikidata.org/entity/Q100631082', 'http://www.wikidata.org/entity/Q100633235', 'http://www.wikidata.org/entity/Q100633247', 'http://www.wikidata.org/entity/Q100633612', 'http://www.wikidata.org/entity/Q100633968', 'http://www.wikidata.org/entity/Q100633990', 'http://www.wikidata.org/entity/Q100635320', 'http://www.wikidata.org/entity/Q100635669', 'http://www.wikidata.org/entity/Q100636317', 'http://www.wikidata.org/entity/Q100649572', 'http://www.wikidata.org/entity/Q100650321', 'http://www.wikidata.org/entity/Q100654111', 'http://www.wikidata.org/entity/Q100669563', 'http://www.wikidata.org/entity/Q100674250', 'http://www.wikidata.org/entity/Q100676408', 'http://www.wikidata.org/entity/Q100676541', 'http://www.wikidata.org/entity/Q100676578', 'http://www.wikidata.org/entity/Q100676587', 'http://www.wikidata.org/entity/Q100676598', 'http://www.wikidata.org/entity/Q100676606', 'http://www.wikidata.org/entity/Q100676639', 'http://www.wikidata.org/entity/Q100676645', 'http://www.wikidata.org/entity/Q100676658', 'http://www.wikidata.org/entity/Q100676670', 'http://www.wikidata.org/entity/Q100676701', 'http://www.wikidata.org/entity/Q100676751', 'http://www.wikidata.org/entity/Q100676793', 'http://www.wikidata.org/entity/Q100676799', 'http://www.wikidata.org/entity/Q100676811', 'http://www.wikidata.org/entity/Q100676830', 'http://www.wikidata.org/entity/Q100676845', 'http://www.wikidata.org/entity/Q100676855', 'http://www.wikidata.org/entity/Q100676863', 'http://www.wikidata.org/entity/Q100676868', 'http://www.wikidata.org/entity/Q100676886', 'http://www.wikidata.org/entity/Q100676894', 'http://www.wikidata.org/entity/Q100676902', 'http://www.wikidata.org/entity/Q100676909', 'http://www.wikidata.org/entity/Q100676924', 'http://www.wikidata.org/entity/Q100676937', 'http://www.wikidata.org/entity/Q100676943', 'http://www.wikidata.org/entity/Q100676951', 'http://www.wikidata.org/entity/Q100676958', 'http://www.wikidata.org/entity/Q100676965', 'http://www.wikidata.org/entity/Q100676977', 'http://www.wikidata.org/entity/Q100676984', 'http://www.wikidata.org/entity/Q100676994', 'http://www.wikidata.org/entity/Q100677000', 'http://www.wikidata.org/entity/Q100677010', 'http://www.wikidata.org/entity/Q100677018', 'http://www.wikidata.org/entity/Q100677026', 'http://www.wikidata.org/entity/Q100677042', 'http://www.wikidata.org/entity/Q100677053', 'http://www.wikidata.org/entity/Q100677062', 'http://www.wikidata.org/entity/Q100677073', 'http://www.wikidata.org/entity/Q100677084', 'http://www.wikidata.org/entity/Q100677096', 'http://www.wikidata.org/entity/Q100677103', 'http://www.wikidata.org/entity/Q100677112', 'http://www.wikidata.org/entity/Q100677120', 'http://www.wikidata.org/entity/Q100677138', 'http://www.wikidata.org/entity/Q100677962', 'http://www.wikidata.org/entity/Q100683162', 'http://www.wikidata.org/entity/Q100683418', 'http://www.wikidata.org/entity/Q100683505', 'http://www.wikidata.org/entity/Q100683550', 'http://www.wikidata.org/entity/Q100691829', 'http://www.wikidata.org/entity/Q100693182', 'http://www.wikidata.org/entity/Q100693207', 'http://www.wikidata.org/entity/Q100693711', 'http://www.wikidata.org/entity/Q100693809', 'http://www.wikidata.org/entity/Q100693929', 'http://www.wikidata.org/entity/Q100694033', 'http://www.wikidata.org/entity/Q100694150', 'http://www.wikidata.org/entity/Q100694458', 'http://www.wikidata.org/entity/Q100694694', 'http://www.wikidata.org/entity/Q100696223', 'http://www.wikidata.org/entity/Q100696800', 'http://www.wikidata.org/entity/Q100701189', 'http://www.wikidata.org/entity/Q100706387', 'http://www.wikidata.org/entity/Q100712030', 'http://www.wikidata.org/entity/Q100712273', 'http://www.wikidata.org/entity/Q100718036', 'http://www.wikidata.org/entity/Q100718037', 'http://www.wikidata.org/entity/Q100723017', 'http://www.wikidata.org/entity/Q100723258', 'http://www.wikidata.org/entity/Q100724485', 'http://www.wikidata.org/entity/Q100724486', 'http://www.wikidata.org/entity/Q100724489', 'http://www.wikidata.org/entity/Q100724490', 'http://www.wikidata.org/entity/Q100724491', 'http://www.wikidata.org/entity/Q100724497', 'http://www.wikidata.org/entity/Q100724500', 'http://www.wikidata.org/entity/Q100725533', 'http://www.wikidata.org/entity/Q100725840', 'http://www.wikidata.org/entity/Q100725910', 'http://www.wikidata.org/entity/Q100725924', 'http://www.wikidata.org/entity/Q100725925', 'http://www.wikidata.org/entity/Q100725938', 'http://www.wikidata.org/entity/Q100725941', 'http://www.wikidata.org/entity/Q100725947', 'http://www.wikidata.org/entity/Q100725949', 'http://www.wikidata.org/entity/Q100725955', 'http://www.wikidata.org/entity/Q100725959', 'http://www.wikidata.org/entity/Q100725961', 'http://www.wikidata.org/entity/Q100726013', 'http://www.wikidata.org/entity/Q100726093', 'http://www.wikidata.org/entity/Q100727167', 'http://www.wikidata.org/entity/Q100728366', 'http://www.wikidata.org/entity/Q100729131', 'http://www.wikidata.org/entity/Q100729179', 'http://www.wikidata.org/entity/Q100729696', 'http://www.wikidata.org/entity/Q100730738', 'http://www.wikidata.org/entity/Q100730944', 'http://www.wikidata.org/entity/Q100731348', 'http://www.wikidata.org/entity/Q100731353', 'http://www.wikidata.org/entity/Q100732314', 'http://www.wikidata.org/entity/Q100732325', 'http://www.wikidata.org/entity/Q100732333', 'http://www.wikidata.org/entity/Q100733692', 'http://www.wikidata.org/entity/Q100734159', 'http://www.wikidata.org/entity/Q100734162', 'http://www.wikidata.org/entity/Q100734164', 'http://www.wikidata.org/entity/Q100734167', 'http://www.wikidata.org/entity/Q100734172', 'http://www.wikidata.org/entity/Q100734176', 'http://www.wikidata.org/entity/Q100734179', 'http://www.wikidata.org/entity/Q100734182', 'http://www.wikidata.org/entity/Q100734187', 'http://www.wikidata.org/entity/Q100734190', 'http://www.wikidata.org/entity/Q100734195', 'http://www.wikidata.org/entity/Q100734201', 'http://www.wikidata.org/entity/Q100734209', 'http://www.wikidata.org/entity/Q100734211', 'http://www.wikidata.org/entity/Q100734214', 'http://www.wikidata.org/entity/Q100734221', 'http://www.wikidata.org/entity/Q100734227', 'http://www.wikidata.org/entity/Q100734230', 'http://www.wikidata.org/entity/Q100734232', 'http://www.wikidata.org/entity/Q100734237', 'http://www.wikidata.org/entity/Q100734255', 'http://www.wikidata.org/entity/Q100734257', 'http://www.wikidata.org/entity/Q100734261', 'http://www.wikidata.org/entity/Q100734263', 'http://www.wikidata.org/entity/Q100734265', 'http://www.wikidata.org/entity/Q100734268', 'http://www.wikidata.org/entity/Q100734276', 'http://www.wikidata.org/entity/Q100734279', 'http://www.wikidata.org/entity/Q100734282', 'http://www.wikidata.org/entity/Q100734301', 'http://www.wikidata.org/entity/Q100734310', 'http://www.wikidata.org/entity/Q100734314', 'http://www.wikidata.org/entity/Q100734321', 'http://www.wikidata.org/entity/Q100734324', 'http://www.wikidata.org/entity/Q100734332', 'http://www.wikidata.org/entity/Q100734341', 'http://www.wikidata.org/entity/Q100734350', 'http://www.wikidata.org/entity/Q100734357', 'http://www.wikidata.org/entity/Q100734367', 'http://www.wikidata.org/entity/Q100734369', 'http://www.wikidata.org/entity/Q100734375', 'http://www.wikidata.org/entity/Q100734377', 'http://www.wikidata.org/entity/Q100734379', 'http://www.wikidata.org/entity/Q100734390', 'http://www.wikidata.org/entity/Q100734393', 'http://www.wikidata.org/entity/Q100734398', 'http://www.wikidata.org/entity/Q100734404', 'http://www.wikidata.org/entity/Q100734406', 'http://www.wikidata.org/entity/Q100734414', 'http://www.wikidata.org/entity/Q100734420', 'http://www.wikidata.org/entity/Q100734423', 'http://www.wikidata.org/entity/Q100734425', 'http://www.wikidata.org/entity/Q100734431', 'http://www.wikidata.org/entity/Q100734436', 'http://www.wikidata.org/entity/Q100734437', 'http://www.wikidata.org/entity/Q100734442', 'http://www.wikidata.org/entity/Q100734445', 'http://www.wikidata.org/entity/Q100734446', 'http://www.wikidata.org/entity/Q100734449', 'http://www.wikidata.org/entity/Q100734450', 'http://www.wikidata.org/entity/Q100734453', 'http://www.wikidata.org/entity/Q100734454', 'http://www.wikidata.org/entity/Q100734455', 'http://www.wikidata.org/entity/Q100734457', 'http://www.wikidata.org/entity/Q100734458', 'http://www.wikidata.org/entity/Q100734460', 'http://www.wikidata.org/entity/Q100734461', 'http://www.wikidata.org/entity/Q100734462', 'http://www.wikidata.org/entity/Q100734463', 'http://www.wikidata.org/entity/Q100734465', 'http://www.wikidata.org/entity/Q100734466', 'http://www.wikidata.org/entity/Q100734469', 'http://www.wikidata.org/entity/Q100734471', 'http://www.wikidata.org/entity/Q100734473', 'http://www.wikidata.org/entity/Q100734474', 'http://www.wikidata.org/entity/Q100734475', 'http://www.wikidata.org/entity/Q100734476', 'http://www.wikidata.org/entity/Q100734477', 'http://www.wikidata.org/entity/Q100734478', 'http://www.wikidata.org/entity/Q100734481', 'http://www.wikidata.org/entity/Q100734483', 'http://www.wikidata.org/entity/Q100734488', 'http://www.wikidata.org/entity/Q100734489', 'http://www.wikidata.org/entity/Q100734492', 'http://www.wikidata.org/entity/Q100734494', 'http:</t>
+          <t>['http://www.wikidata.org/entity/statement/Q34-082D0058-4A2D-4D4A-ADA0-2883085F5568', 'http://www.wikidata.org/entity/statement/Q34-11E3B8D0-0C5E-48A1-A50A-6CF539F6BBC8', 'http://www.wikidata.org/entity/statement/Q34-129A236F-4669-422E-87CB-54BF6417877C', 'http://www.wikidata.org/entity/statement/Q34-1579BA6A-63CA-4134-A150-871CB193AB98', 'http://www.wikidata.org/entity/statement/Q34-1b7c8461-4eff-2692-7470-83dfd783b2c0', 'http://www.wikidata.org/entity/statement/Q34-1E368079-2043-436C-969C-715F7FAE4B01', 'http://www.wikidata.org/entity/statement/Q34-1F9EB2B2-5D25-440D-AA66-DCCEEC7DF35A', 'http://www.wikidata.org/entity/statement/Q34-26AC0256-E436-44A1-BF60-2183B0DE63A1', 'http://www.wikidata.org/entity/statement/Q34-2713235D-B6E4-410F-A955-CE3AFD08D3B8', 'http://www.wikidata.org/entity/statement/Q34-2E11C785-8B0D-408E-8688-AC163CDD8CF6', 'http://www.wikidata.org/entity/statement/Q34-32FEAC73-397D-4A26-88B9-8CBD5F06BA39', 'http://www.wikidata.org/entity/statement/Q34-3603605c-47a4-5b04-dec6-1fabc1fae5dd', 'http://www.wikidata.org/entity/statement/Q34-37E2EF5A-7C9E-485F-952E-F6A0609B1F24', 'http://www.wikidata.org/entity/statement/Q34-3cc51806-4406-4b28-35ac-a40ce44c4056', 'http://www.wikidata.org/entity/statement/Q34-43387702-45a0-0ec0-1f00-13924677cfe3', 'http://www.wikidata.org/entity/statement/Q34-450B514B-474D-4BB7-BD5A-984FC0FF254F', 'http://www.wikidata.org/entity/statement/Q34-4581F223-76A2-4DCF-8376-413F38DC49B4', 'http://www.wikidata.org/entity/statement/Q34-476EDCFA-760A-4530-84A6-EE3BFFF112BE', 'http://www.wikidata.org/entity/statement/Q34-4DE4A1C5-E2A7-4CDB-80F6-AFC44310D151', 'http://www.wikidata.org/entity/statement/Q34-4e8832a7-4696-acf4-79bd-32f710362e00', 'http://www.wikidata.org/entity/statement/Q34-4fcdb0da-4a5a-4620-fd39-7a7e3a7e47ae', 'http://www.wikidata.org/entity/statement/Q34-55B0437D-C07D-4DF3-893B-83D32362A78E', 'http://www.wikidata.org/entity/statement/Q34-56b13509-4c2e-7918-c973-76bffee87478', 'http://www.wikidata.org/entity/statement/Q34-56C301C5-D8C7-4E2C-9392-27A724FA5F61', 'http://www.wikidata.org/entity/statement/Q34-5C9F32FB-89DD-4729-9C34-C90683CF954F', 'http://www.wikidata.org/entity/statement/Q34-606d2fd8-4ee9-4030-3038-d421c1e9d71b', 'http://www.wikidata.org/entity/statement/Q34-60751d75-448d-05a6-8d81-773e37860141', 'http://www.wikidata.org/entity/statement/Q34-64495782-A2BD-4521-8E4F-B02F3C0364C8', 'http://www.wikidata.org/entity/statement/Q34-668522A5-744F-49F7-B803-C0E7CCDDBE76', 'http://www.wikidata.org/entity/statement/Q34-6CB584FC-CA4F-4C9F-9CF9-0FBA0AA9530C', 'http://www.wikidata.org/entity/statement/Q34-6DFD2E52-1EFE-40F6-A705-27595009C6D5', 'http://www.wikidata.org/entity/statement/Q34-6E00B3D4-50A9-4A17-B254-9BB1D40D2269', 'http://www.wikidata.org/entity/statement/Q34-74DEAE4B-3204-43C5-8658-892B90E9F671', 'http://www.wikidata.org/entity/statement/Q34-7DA43090-0F51-47B5-9992-8F557B83F35B', 'http://www.wikidata.org/entity/statement/Q34-7DDBF48F-3345-4C25-A518-49E7D5E3F1ED', 'http://www.wikidata.org/entity/statement/Q34-7DE583A9-A524-4BFE-B8C7-F1B9DF427C74', 'http://www.wikidata.org/entity/statement/Q34-87cb9454-4205-7b6e-2aa8-0a2834facd24', 'http://www.wikidata.org/entity/statement/Q34-87F29D9A-E9A6-4062-A145-5AF5B17EFD9A', 'http://www.wikidata.org/entity/statement/Q34-8993671F-E85F-4D75-AAAA-8786AEBEC51D', 'http://www.wikidata.org/entity/statement/Q34-8A33B389-A51A-4E65-B0EC-0207A99F014A', 'http://www.wikidata.org/entity/statement/Q34-8B60DC58-A148-48E4-88B0-1A8CF9B4A346', 'http://www.wikidata.org/entity/statement/Q34-9184D5AD-77FB-4B33-A59C-18DADFFD4D20', 'http://www.wikidata.org/entity/statement/Q34-93AFD452-5F3E-4276-A99E-5081F52ED9D2', 'http://www.wikidata.org/entity/statement/Q34-9434A0C4-9622-4047-8A62-8B23211DDB79', 'http://www.wikidata.org/entity/statement/Q34-951172E0-6340-413F-868C-D4A5CCF0BD7F', 'http://www.wikidata.org/entity/statement/Q34-96083573-460c-28bf-d245-a469a356da7a', 'http://www.wikidata.org/entity/statement/Q34-9676F1BF-4BF8-428D-8184-0080A0F9ED38', 'http://www.wikidata.org/entity/statement/Q34-9c5f03b0-45e4-67b6-39fb-86918cf5bcbb', 'http://www.wikidata.org/entity/statement/Q34-A1568F43-132C-4877-A256-C01A0EE86CC3', 'http://www.wikidata.org/entity/statement/Q34-a2938c7c-4372-7365-5150-93e152a010f4', 'http://www.wikidata.org/entity/statement/Q34-A90EF669-7758-4D95-B136-14D5A8111AFB', 'http://www.wikidata.org/entity/statement/Q34-AC34FF8D-8F56-4D53-8F90-069671AD0FF8', 'http://www.wikidata.org/entity/statement/Q34-af5b1872-494a-d6b4-4d6b-1fae0ec92efb', 'http://www.wikidata.org/entity/statement/Q34-B13A8C1C-6FAC-494D-AC8C-86689546B6AF', 'http://www.wikidata.org/entity/statement/Q34-b2c2faab-4df2-a3a8-aef0-f1d73f12e7d1', 'http://www.wikidata.org/entity/statement/Q34-b594e94d-4925-c57e-9674-70e46c00e00e', 'http://www.wikidata.org/entity/statement/Q34-b70e5e58-4f12-4ecb-4472-beae6d594fb1', 'http://www.wikidata.org/entity/statement/Q34-b8e9ce0f-453a-8a2a-cacd-ff9f0207765f', 'http://www.wikidata.org/entity/statement/Q34-BCE7734C-765A-49EC-9EC5-238EADFCC213', 'http://www.wikidata.org/entity/statement/Q34-C23E273D-9CB5-43BF-9124-FAD239BBE295', 'http://www.wikidata.org/entity/statement/Q34-c3ff04f2-4c5f-e078-5e8e-804e2f1e52c0', 'http://www.wikidata.org/entity/statement/Q34-C5E153D4-2B13-4AC9-A261-481FBC595FE4', 'http://www.wikidata.org/entity/statement/Q34-C72694E7-103F-40F6-B050-D63B57FBA7E1', 'http://www.wikidata.org/entity/statement/Q34-CB4B35FB-69BC-4534-830A-1A376D01C307', 'http://www.wikidata.org/entity/statement/Q34-cdae5401-454b-c7e6-9fc5-64611c4d302a', 'http://www.wikidata.org/entity/statement/Q34-CF661FB7-CA23-4A1D-ADA4-DBDC23A5F881', 'http://www.wikidata.org/entity/statement/Q34-cff32a7f-4cba-1141-dae2-84a4b80d1b15', 'http://www.wikidata.org/entity/statement/Q34-D0321E1C-EE26-4E86-951E-0950A20CACFA', 'http://www.wikidata.org/entity/statement/Q34-D8C242F2-7B94-418F-BC45-9C86A25736E8', 'http://www.wikidata.org/entity/statement/Q34-e1ab1b21-49d2-91a5-2c31-a6611f55a72f', 'http://www.wikidata.org/entity/statement/Q34-ed712ad3-4791-2f4d-9536-421ce9f06819', 'http://www.wikidata.org/entity/statement/Q34-f1ad0358-41c0-e922-6476-d37c68a30fe9', 'http://www.wikidata.org/entity/statement/Q34-F2AA5221-782D-4889-83C5-4D6CDF973FE5', 'http://www.wikidata.org/entity/statement/Q34-f3f5cd68-4e58-91e0-748f-02f4c30800b2', 'http://www.wikidata.org/entity/statement/Q34-F4C63600-3C34-4037-A898-5FCFBED69E25', 'http://www.wikidata.org/entity/statement/Q34-F6BA7F79-E093-4A55-9E6D-3DA61E6B000C', 'http://www.wikidata.org/entity/statement/Q34-FA84BBCE-5C9B-487A-A289-B529E85CCE25', 'http://www.wikidata.org/entity/statement/Q34-fab8158b-4480-5049-85ca-9ceb645eb0b2', 'http://www.wikidata.org/entity/statement/Q34-FAC767C7-895A-41FB-9F9C-32C9AB7EDE16', 'http://www.wikidata.org/entity/statement/Q34-fb0a9086-4f31-a3ae-4180-8e30e5326d0a', 'http://www.wikidata.org/entity/statement/Q34-FF9F0B22-2401-4443-BBE7-BEB27E64D67E']</t>
         </is>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>To which countries does the Himalayan mountain system extend?</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q148', 'http://www.wikidata.org/entity/Q668', 'http://www.wikidata.org/entity/Q836', 'http://www.wikidata.org/entity/Q837', 'http://www.wikidata.org/entity/Q843', 'http://www.wikidata.org/entity/Q889', 'http://www.wikidata.org/entity/Q917']</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q30']</t>
-        </is>
-      </c>
-      <c r="D6" t="b">
         <v>0</v>
       </c>
     </row>

--- a/QALD9-Plus-testing/baseline-model/baseline-dbpedia-wikidata/baseline_lama_dbpedia_wikidata_results_comparison.xlsx
+++ b/QALD9-Plus-testing/baseline-model/baseline-dbpedia-wikidata/baseline_lama_dbpedia_wikidata_results_comparison.xlsx
@@ -1,37 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>expected_answers</t>
+  </si>
+  <si>
+    <t>lama_answers</t>
+  </si>
+  <si>
+    <t>is_correct</t>
+  </si>
+  <si>
+    <t>What is the most frequent cause of death?</t>
+  </si>
+  <si>
+    <t>Where was JFK assassinated?</t>
+  </si>
+  <si>
+    <t>Which city has the least inhabitants?</t>
+  </si>
+  <si>
+    <t>What is the net income of Apple?</t>
+  </si>
+  <si>
+    <t>how much is the population Iraq?</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q12152']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q3896131']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q2590944']</t>
+  </si>
+  <si>
+    <t>['96995000000']</t>
+  </si>
+  <si>
+    <t>['38274618']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1324130']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q46']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q685941']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q3381638']</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/statement/Q34-082D0058-4A2D-4D4A-ADA0-2883085F5568', 'http://www.wikidata.org/entity/statement/Q34-11E3B8D0-0C5E-48A1-A50A-6CF539F6BBC8', 'http://www.wikidata.org/entity/statement/Q34-129A236F-4669-422E-87CB-54BF6417877C', 'http://www.wikidata.org/entity/statement/Q34-1579BA6A-63CA-4134-A150-871CB193AB98', 'http://www.wikidata.org/entity/statement/Q34-1b7c8461-4eff-2692-7470-83dfd783b2c0', 'http://www.wikidata.org/entity/statement/Q34-1E368079-2043-436C-969C-715F7FAE4B01', 'http://www.wikidata.org/entity/statement/Q34-1F9EB2B2-5D25-440D-AA66-DCCEEC7DF35A', 'http://www.wikidata.org/entity/statement/Q34-26AC0256-E436-44A1-BF60-2183B0DE63A1', 'http://www.wikidata.org/entity/statement/Q34-2713235D-B6E4-410F-A955-CE3AFD08D3B8', 'http://www.wikidata.org/entity/statement/Q34-2E11C785-8B0D-408E-8688-AC163CDD8CF6', 'http://www.wikidata.org/entity/statement/Q34-32FEAC73-397D-4A26-88B9-8CBD5F06BA39', 'http://www.wikidata.org/entity/statement/Q34-3603605c-47a4-5b04-dec6-1fabc1fae5dd', 'http://www.wikidata.org/entity/statement/Q34-37E2EF5A-7C9E-485F-952E-F6A0609B1F24', 'http://www.wikidata.org/entity/statement/Q34-3cc51806-4406-4b28-35ac-a40ce44c4056', 'http://www.wikidata.org/entity/statement/Q34-43387702-45a0-0ec0-1f00-13924677cfe3', 'http://www.wikidata.org/entity/statement/Q34-450B514B-474D-4BB7-BD5A-984FC0FF254F', 'http://www.wikidata.org/entity/statement/Q34-4581F223-76A2-4DCF-8376-413F38DC49B4', 'http://www.wikidata.org/entity/statement/Q34-476EDCFA-760A-4530-84A6-EE3BFFF112BE', 'http://www.wikidata.org/entity/statement/Q34-4DE4A1C5-E2A7-4CDB-80F6-AFC44310D151', 'http://www.wikidata.org/entity/statement/Q34-4e8832a7-4696-acf4-79bd-32f710362e00', 'http://www.wikidata.org/entity/statement/Q34-4fcdb0da-4a5a-4620-fd39-7a7e3a7e47ae', 'http://www.wikidata.org/entity/statement/Q34-55B0437D-C07D-4DF3-893B-83D32362A78E', 'http://www.wikidata.org/entity/statement/Q34-56b13509-4c2e-7918-c973-76bffee87478', 'http://www.wikidata.org/entity/statement/Q34-56C301C5-D8C7-4E2C-9392-27A724FA5F61', 'http://www.wikidata.org/entity/statement/Q34-5C9F32FB-89DD-4729-9C34-C90683CF954F', 'http://www.wikidata.org/entity/statement/Q34-606d2fd8-4ee9-4030-3038-d421c1e9d71b', 'http://www.wikidata.org/entity/statement/Q34-60751d75-448d-05a6-8d81-773e37860141', 'http://www.wikidata.org/entity/statement/Q34-64495782-A2BD-4521-8E4F-B02F3C0364C8', 'http://www.wikidata.org/entity/statement/Q34-668522A5-744F-49F7-B803-C0E7CCDDBE76', 'http://www.wikidata.org/entity/statement/Q34-6CB584FC-CA4F-4C9F-9CF9-0FBA0AA9530C', 'http://www.wikidata.org/entity/statement/Q34-6DFD2E52-1EFE-40F6-A705-27595009C6D5', 'http://www.wikidata.org/entity/statement/Q34-6E00B3D4-50A9-4A17-B254-9BB1D40D2269', 'http://www.wikidata.org/entity/statement/Q34-74DEAE4B-3204-43C5-8658-892B90E9F671', 'http://www.wikidata.org/entity/statement/Q34-7DA43090-0F51-47B5-9992-8F557B83F35B', 'http://www.wikidata.org/entity/statement/Q34-7DDBF48F-3345-4C25-A518-49E7D5E3F1ED', 'http://www.wikidata.org/entity/statement/Q34-7DE583A9-A524-4BFE-B8C7-F1B9DF427C74', 'http://www.wikidata.org/entity/statement/Q34-87cb9454-4205-7b6e-2aa8-0a2834facd24', 'http://www.wikidata.org/entity/statement/Q34-87F29D9A-E9A6-4062-A145-5AF5B17EFD9A', 'http://www.wikidata.org/entity/statement/Q34-8993671F-E85F-4D75-AAAA-8786AEBEC51D', 'http://www.wikidata.org/entity/statement/Q34-8A33B389-A51A-4E65-B0EC-0207A99F014A', 'http://www.wikidata.org/entity/statement/Q34-8B60DC58-A148-48E4-88B0-1A8CF9B4A346', 'http://www.wikidata.org/entity/statement/Q34-9184D5AD-77FB-4B33-A59C-18DADFFD4D20', 'http://www.wikidata.org/entity/statement/Q34-93AFD452-5F3E-4276-A99E-5081F52ED9D2', 'http://www.wikidata.org/entity/statement/Q34-9434A0C4-9622-4047-8A62-8B23211DDB79', 'http://www.wikidata.org/entity/statement/Q34-951172E0-6340-413F-868C-D4A5CCF0BD7F', 'http://www.wikidata.org/entity/statement/Q34-96083573-460c-28bf-d245-a469a356da7a', 'http://www.wikidata.org/entity/statement/Q34-9676F1BF-4BF8-428D-8184-0080A0F9ED38', 'http://www.wikidata.org/entity/statement/Q34-9c5f03b0-45e4-67b6-39fb-86918cf5bcbb', 'http://www.wikidata.org/entity/statement/Q34-A1568F43-132C-4877-A256-C01A0EE86CC3', 'http://www.wikidata.org/entity/statement/Q34-a2938c7c-4372-7365-5150-93e152a010f4', 'http://www.wikidata.org/entity/statement/Q34-A90EF669-7758-4D95-B136-14D5A8111AFB', 'http://www.wikidata.org/entity/statement/Q34-AC34FF8D-8F56-4D53-8F90-069671AD0FF8', 'http://www.wikidata.org/entity/statement/Q34-af5b1872-494a-d6b4-4d6b-1fae0ec92efb', 'http://www.wikidata.org/entity/statement/Q34-B13A8C1C-6FAC-494D-AC8C-86689546B6AF', 'http://www.wikidata.org/entity/statement/Q34-b2c2faab-4df2-a3a8-aef0-f1d73f12e7d1', 'http://www.wikidata.org/entity/statement/Q34-b594e94d-4925-c57e-9674-70e46c00e00e', 'http://www.wikidata.org/entity/statement/Q34-b70e5e58-4f12-4ecb-4472-beae6d594fb1', 'http://www.wikidata.org/entity/statement/Q34-b8e9ce0f-453a-8a2a-cacd-ff9f0207765f', 'http://www.wikidata.org/entity/statement/Q34-BCE7734C-765A-49EC-9EC5-238EADFCC213', 'http://www.wikidata.org/entity/statement/Q34-C23E273D-9CB5-43BF-9124-FAD239BBE295', 'http://www.wikidata.org/entity/statement/Q34-c3ff04f2-4c5f-e078-5e8e-804e2f1e52c0', 'http://www.wikidata.org/entity/statement/Q34-C5E153D4-2B13-4AC9-A261-481FBC595FE4', 'http://www.wikidata.org/entity/statement/Q34-C72694E7-103F-40F6-B050-D63B57FBA7E1', 'http://www.wikidata.org/entity/statement/Q34-CB4B35FB-69BC-4534-830A-1A376D01C307', 'http://www.wikidata.org/entity/statement/Q34-cdae5401-454b-c7e6-9fc5-64611c4d302a', 'http://www.wikidata.org/entity/statement/Q34-CF661FB7-CA23-4A1D-ADA4-DBDC23A5F881', 'http://www.wikidata.org/entity/statement/Q34-cff32a7f-4cba-1141-dae2-84a4b80d1b15', 'http://www.wikidata.org/entity/statement/Q34-D0321E1C-EE26-4E86-951E-0950A20CACFA', 'http://www.wikidata.org/entity/statement/Q34-D8C242F2-7B94-418F-BC45-9C86A25736E8', 'http://www.wikidata.org/entity/statement/Q34-e1ab1b21-49d2-91a5-2c31-a6611f55a72f', 'http://www.wikidata.org/entity/statement/Q34-ed712ad3-4791-2f4d-9536-421ce9f06819', 'http://www.wikidata.org/entity/statement/Q34-f1ad0358-41c0-e922-6476-d37c68a30fe9', 'http://www.wikidata.org/entity/statement/Q34-F2AA5221-782D-4889-83C5-4D6CDF973FE5', 'http://www.wikidata.org/entity/statement/Q34-f3f5cd68-4e58-91e0-748f-02f4c30800b2', 'http://www.wikidata.org/entity/statement/Q34-F4C63600-3C34-4037-A898-5FCFBED69E25', 'http://www.wikidata.org/entity/statement/Q34-F6BA7F79-E093-4A55-9E6D-3DA61E6B000C', 'http://www.wikidata.org/entity/statement/Q34-FA84BBCE-5C9B-487A-A289-B529E85CCE25', 'http://www.wikidata.org/entity/statement/Q34-fab8158b-4480-5049-85ca-9ceb645eb0b2', 'http://www.wikidata.org/entity/statement/Q34-FAC767C7-895A-41FB-9F9C-32C9AB7EDE16', 'http://www.wikidata.org/entity/statement/Q34-fb0a9086-4f31-a3ae-4180-8e30e5326d0a', 'http://www.wikidata.org/entity/statement/Q34-FF9F0B22-2401-4443-BBE7-BEB27E64D67E']</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +111,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,122 +427,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>question</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>expected_answers</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>lama_answers</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>is_correct</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>What is the most frequent cause of death?</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q12152']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q1324130']</t>
-        </is>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Where was JFK assassinated?</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q3896131']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q46']</t>
-        </is>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>What is the net income of Apple?</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>['96995000000']</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/Q3381638']</t>
-        </is>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>how much is the population Iraq?</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>['38274618']</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['http://www.wikidata.org/entity/statement/Q34-082D0058-4A2D-4D4A-ADA0-2883085F5568', 'http://www.wikidata.org/entity/statement/Q34-11E3B8D0-0C5E-48A1-A50A-6CF539F6BBC8', 'http://www.wikidata.org/entity/statement/Q34-129A236F-4669-422E-87CB-54BF6417877C', 'http://www.wikidata.org/entity/statement/Q34-1579BA6A-63CA-4134-A150-871CB193AB98', 'http://www.wikidata.org/entity/statement/Q34-1b7c8461-4eff-2692-7470-83dfd783b2c0', 'http://www.wikidata.org/entity/statement/Q34-1E368079-2043-436C-969C-715F7FAE4B01', 'http://www.wikidata.org/entity/statement/Q34-1F9EB2B2-5D25-440D-AA66-DCCEEC7DF35A', 'http://www.wikidata.org/entity/statement/Q34-26AC0256-E436-44A1-BF60-2183B0DE63A1', 'http://www.wikidata.org/entity/statement/Q34-2713235D-B6E4-410F-A955-CE3AFD08D3B8', 'http://www.wikidata.org/entity/statement/Q34-2E11C785-8B0D-408E-8688-AC163CDD8CF6', 'http://www.wikidata.org/entity/statement/Q34-32FEAC73-397D-4A26-88B9-8CBD5F06BA39', 'http://www.wikidata.org/entity/statement/Q34-3603605c-47a4-5b04-dec6-1fabc1fae5dd', 'http://www.wikidata.org/entity/statement/Q34-37E2EF5A-7C9E-485F-952E-F6A0609B1F24', 'http://www.wikidata.org/entity/statement/Q34-3cc51806-4406-4b28-35ac-a40ce44c4056', 'http://www.wikidata.org/entity/statement/Q34-43387702-45a0-0ec0-1f00-13924677cfe3', 'http://www.wikidata.org/entity/statement/Q34-450B514B-474D-4BB7-BD5A-984FC0FF254F', 'http://www.wikidata.org/entity/statement/Q34-4581F223-76A2-4DCF-8376-413F38DC49B4', 'http://www.wikidata.org/entity/statement/Q34-476EDCFA-760A-4530-84A6-EE3BFFF112BE', 'http://www.wikidata.org/entity/statement/Q34-4DE4A1C5-E2A7-4CDB-80F6-AFC44310D151', 'http://www.wikidata.org/entity/statement/Q34-4e8832a7-4696-acf4-79bd-32f710362e00', 'http://www.wikidata.org/entity/statement/Q34-4fcdb0da-4a5a-4620-fd39-7a7e3a7e47ae', 'http://www.wikidata.org/entity/statement/Q34-55B0437D-C07D-4DF3-893B-83D32362A78E', 'http://www.wikidata.org/entity/statement/Q34-56b13509-4c2e-7918-c973-76bffee87478', 'http://www.wikidata.org/entity/statement/Q34-56C301C5-D8C7-4E2C-9392-27A724FA5F61', 'http://www.wikidata.org/entity/statement/Q34-5C9F32FB-89DD-4729-9C34-C90683CF954F', 'http://www.wikidata.org/entity/statement/Q34-606d2fd8-4ee9-4030-3038-d421c1e9d71b', 'http://www.wikidata.org/entity/statement/Q34-60751d75-448d-05a6-8d81-773e37860141', 'http://www.wikidata.org/entity/statement/Q34-64495782-A2BD-4521-8E4F-B02F3C0364C8', 'http://www.wikidata.org/entity/statement/Q34-668522A5-744F-49F7-B803-C0E7CCDDBE76', 'http://www.wikidata.org/entity/statement/Q34-6CB584FC-CA4F-4C9F-9CF9-0FBA0AA9530C', 'http://www.wikidata.org/entity/statement/Q34-6DFD2E52-1EFE-40F6-A705-27595009C6D5', 'http://www.wikidata.org/entity/statement/Q34-6E00B3D4-50A9-4A17-B254-9BB1D40D2269', 'http://www.wikidata.org/entity/statement/Q34-74DEAE4B-3204-43C5-8658-892B90E9F671', 'http://www.wikidata.org/entity/statement/Q34-7DA43090-0F51-47B5-9992-8F557B83F35B', 'http://www.wikidata.org/entity/statement/Q34-7DDBF48F-3345-4C25-A518-49E7D5E3F1ED', 'http://www.wikidata.org/entity/statement/Q34-7DE583A9-A524-4BFE-B8C7-F1B9DF427C74', 'http://www.wikidata.org/entity/statement/Q34-87cb9454-4205-7b6e-2aa8-0a2834facd24', 'http://www.wikidata.org/entity/statement/Q34-87F29D9A-E9A6-4062-A145-5AF5B17EFD9A', 'http://www.wikidata.org/entity/statement/Q34-8993671F-E85F-4D75-AAAA-8786AEBEC51D', 'http://www.wikidata.org/entity/statement/Q34-8A33B389-A51A-4E65-B0EC-0207A99F014A', 'http://www.wikidata.org/entity/statement/Q34-8B60DC58-A148-48E4-88B0-1A8CF9B4A346', 'http://www.wikidata.org/entity/statement/Q34-9184D5AD-77FB-4B33-A59C-18DADFFD4D20', 'http://www.wikidata.org/entity/statement/Q34-93AFD452-5F3E-4276-A99E-5081F52ED9D2', 'http://www.wikidata.org/entity/statement/Q34-9434A0C4-9622-4047-8A62-8B23211DDB79', 'http://www.wikidata.org/entity/statement/Q34-951172E0-6340-413F-868C-D4A5CCF0BD7F', 'http://www.wikidata.org/entity/statement/Q34-96083573-460c-28bf-d245-a469a356da7a', 'http://www.wikidata.org/entity/statement/Q34-9676F1BF-4BF8-428D-8184-0080A0F9ED38', 'http://www.wikidata.org/entity/statement/Q34-9c5f03b0-45e4-67b6-39fb-86918cf5bcbb', 'http://www.wikidata.org/entity/statement/Q34-A1568F43-132C-4877-A256-C01A0EE86CC3', 'http://www.wikidata.org/entity/statement/Q34-a2938c7c-4372-7365-5150-93e152a010f4', 'http://www.wikidata.org/entity/statement/Q34-A90EF669-7758-4D95-B136-14D5A8111AFB', 'http://www.wikidata.org/entity/statement/Q34-AC34FF8D-8F56-4D53-8F90-069671AD0FF8', 'http://www.wikidata.org/entity/statement/Q34-af5b1872-494a-d6b4-4d6b-1fae0ec92efb', 'http://www.wikidata.org/entity/statement/Q34-B13A8C1C-6FAC-494D-AC8C-86689546B6AF', 'http://www.wikidata.org/entity/statement/Q34-b2c2faab-4df2-a3a8-aef0-f1d73f12e7d1', 'http://www.wikidata.org/entity/statement/Q34-b594e94d-4925-c57e-9674-70e46c00e00e', 'http://www.wikidata.org/entity/statement/Q34-b70e5e58-4f12-4ecb-4472-beae6d594fb1', 'http://www.wikidata.org/entity/statement/Q34-b8e9ce0f-453a-8a2a-cacd-ff9f0207765f', 'http://www.wikidata.org/entity/statement/Q34-BCE7734C-765A-49EC-9EC5-238EADFCC213', 'http://www.wikidata.org/entity/statement/Q34-C23E273D-9CB5-43BF-9124-FAD239BBE295', 'http://www.wikidata.org/entity/statement/Q34-c3ff04f2-4c5f-e078-5e8e-804e2f1e52c0', 'http://www.wikidata.org/entity/statement/Q34-C5E153D4-2B13-4AC9-A261-481FBC595FE4', 'http://www.wikidata.org/entity/statement/Q34-C72694E7-103F-40F6-B050-D63B57FBA7E1', 'http://www.wikidata.org/entity/statement/Q34-CB4B35FB-69BC-4534-830A-1A376D01C307', 'http://www.wikidata.org/entity/statement/Q34-cdae5401-454b-c7e6-9fc5-64611c4d302a', 'http://www.wikidata.org/entity/statement/Q34-CF661FB7-CA23-4A1D-ADA4-DBDC23A5F881', 'http://www.wikidata.org/entity/statement/Q34-cff32a7f-4cba-1141-dae2-84a4b80d1b15', 'http://www.wikidata.org/entity/statement/Q34-D0321E1C-EE26-4E86-951E-0950A20CACFA', 'http://www.wikidata.org/entity/statement/Q34-D8C242F2-7B94-418F-BC45-9C86A25736E8', 'http://www.wikidata.org/entity/statement/Q34-e1ab1b21-49d2-91a5-2c31-a6611f55a72f', 'http://www.wikidata.org/entity/statement/Q34-ed712ad3-4791-2f4d-9536-421ce9f06819', 'http://www.wikidata.org/entity/statement/Q34-f1ad0358-41c0-e922-6476-d37c68a30fe9', 'http://www.wikidata.org/entity/statement/Q34-F2AA5221-782D-4889-83C5-4D6CDF973FE5', 'http://www.wikidata.org/entity/statement/Q34-f3f5cd68-4e58-91e0-748f-02f4c30800b2', 'http://www.wikidata.org/entity/statement/Q34-F4C63600-3C34-4037-A898-5FCFBED69E25', 'http://www.wikidata.org/entity/statement/Q34-F6BA7F79-E093-4A55-9E6D-3DA61E6B000C', 'http://www.wikidata.org/entity/statement/Q34-FA84BBCE-5C9B-487A-A289-B529E85CCE25', 'http://www.wikidata.org/entity/statement/Q34-fab8158b-4480-5049-85ca-9ceb645eb0b2', 'http://www.wikidata.org/entity/statement/Q34-FAC767C7-895A-41FB-9F9C-32C9AB7EDE16', 'http://www.wikidata.org/entity/statement/Q34-fb0a9086-4f31-a3ae-4180-8e30e5326d0a', 'http://www.wikidata.org/entity/statement/Q34-FF9F0B22-2401-4443-BBE7-BEB27E64D67E']</t>
-        </is>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>